--- a/DOC/単体テスト/EMSM_単体テスト仕様書-給料リスト.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-給料リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\git\emsm\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D03196-36FC-4167-A3A5-D8CCF5AC82AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B3E67-CBA4-47AC-9AE7-A13BB3D3E158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-89" yWindow="0" windowWidth="10811" windowHeight="11332" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-89" yWindow="0" windowWidth="8397" windowHeight="11332" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -737,7 +737,7 @@
     <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
     <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -745,12 +745,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="358">
   <si>
     <t>画面名</t>
   </si>
@@ -1086,10 +1097,6 @@
 ②対象年月表示</t>
   </si>
   <si>
-    <t>①対象年月を持ち給料リスト表示
-②対象年月と給料リストの対象年月同じ</t>
-  </si>
-  <si>
     <t>検索＿対象年月</t>
   </si>
   <si>
@@ -1254,9 +1261,6 @@
     <t>一括作成＿社員ID</t>
   </si>
   <si>
-    <t>一括作成＿対象年月</t>
-  </si>
-  <si>
     <t>一括作成＿社員名</t>
   </si>
   <si>
@@ -1838,183 +1842,199 @@
 ②給料リスト画面表示</t>
   </si>
   <si>
-    <t>salaryinfo DBに対象年月の
-データがない場合給料情報表示しない</t>
-  </si>
-  <si>
     <t>①給料リスト画面へ遷移
 ②対象年月に年月（202301）で入力
 ③「検索」ボタン</t>
   </si>
   <si>
+    <t>社員IDと対象年月持ち社員給料作成画面表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの不足時間に対象年月の（m_basesalaryDBのwkPeriodFrom値　ー　workinfoDBのworktime値）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの交通費に対象年月の（transportDBのtransport 値　+ transportDBのbusinessTrip値）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの手当加算に”０”　表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの手当減算に　”０”表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの手当減算に”　”（空白）表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの厚生年金控除会社に厚生年金控除個人と同じ表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの厚生健康控除会社に厚生健康控除個人と同じ表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②りストの源泉控除にm_incometaxDBから対象月の incometax 値表示（対象月の値は「テストデータ」No。34　m_incometaxテーブルを参照）</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの住民税控除にm_incometaxDBから対象月の residentTax 値表示（対象月の値は「テストデータ」No。35　m_incometaxテーブル　を参照）</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの社宅家賃控除に　”０”表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの社宅共益費控除に　”０”表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの備考に　”　”（空白）表示</t>
+  </si>
+  <si>
+    <t>一括作成＿検索の対象年月</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②検索の対象年月に採番年月表示</t>
+  </si>
+  <si>
+    <t>一括作成＿対象年月給料リスト</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②給料リストの対象年月に採番年月表示
+③検索の対象年月と給料リストの対象年月同じ表示</t>
+  </si>
+  <si>
+    <t>salaryinfo DBに対象年月の
+データがない場合給料リスト表示しない</t>
+  </si>
+  <si>
     <t>①salaryinfo DBに年月日形での
-データがないため給料情報表示しない</t>
+データがないため給料リスト表示しない</t>
   </si>
   <si>
     <t>①salaryinfo DBに年月形（2023
-01）のデータがあるため対象年月を持ち給料情報表示
-②給料情報の対象年月と給料リストの対象年月同じ</t>
-  </si>
-  <si>
-    <t>対象年月を持ち給料情報をダウンロードする</t>
-  </si>
-  <si>
-    <t>給料情報＿社員ID</t>
+01）のデータがあるため対象年月を持ち給料リスト表示
+②検索の対象年月と給料リストの対象年月同じ</t>
+  </si>
+  <si>
+    <t>対象年月を持ち給料リストをダウンロードする</t>
+  </si>
+  <si>
+    <t>給料リスト＿社員ID</t>
   </si>
   <si>
     <t>①給料リスト画面へ遷移
-②対象年月給料情報
-③給料情報の社員IDボタン</t>
-  </si>
-  <si>
-    <t>社員IDと対象年月持ち社員給料作成画面表示</t>
-  </si>
-  <si>
-    <t>一括作成＿給料リスト対象年月</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料リスト対象年月に採番年月表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料情報の対象年月に採番年月
-表示
-③給料情報の対象年月と給料リストの対象年月同じ</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料情報の社員ID にemployee
+②対象年月給料リスト
+③給料リストの社員IDボタン</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②給料リストの社員ID にemployee
 DBから各社員ID 表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料情報の社員名 にemployee
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②給料リストの社員名 にemployee
 DBから各社員名 表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料情報の支払日に対象年月の次月20日表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの不足時間に対象年月の（m_basesalaryDBのwkPeriodFrom値　ー　workinfoDBのworktime値）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの残業加算に対象年月の（m_basesalaryDBのplusHour値　＊　overTime　）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの稼働不足減に対象年月の（m_basesalaryDBのminusHour値　＊ shortage）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの交通費に対象年月の（transportDBのtransport 値　+ transportDBのbusinessTrip値）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの手当加算に”０”　表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの手当減算に　”０”表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの手当減算に”　”（空白）表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの厚生年金控除個人に対象年度の（m_welfarefeeDBのannuityRatio値　＊　basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②年齢は40より大き時リストの厚生健康控除個人に対象年度の（m_welfarefeeDBのcareRatio値　＊　basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②年齢は40より小さい時リストの厚生健康控除個人に対象年度の（m_welfarefeeDBのnotCareRatio値　＊　basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②年齢は40時リストの厚生健康控除個人に対象年度の（m_welfarefeeDBのcareRatio値　＊　basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの厚生年金控除会社に厚生年金控除個人と同じ表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの厚生健康控除会社に厚生健康控除個人と同じ表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの厚生控除子育（会社）に対象年度の（m_welfarebaby
-rateDBのrate値　＊basesalary）
-結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの雇用保険個人負担に対象年度の（m_emplyinsrateDBのlaborBurdenRate 値* basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの雇用保拠出金（会社）に対象年度の（m_emplyinsrate
-DBのlaborInsuranceRate 値* basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの労災保険（会社負担のみ）に対象年度の（m_emplyinsrateDBのindustrialAccidentInsuranceRate値 * basesalary）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②りストの源泉控除にm_incometaxDBから対象月の incometax 値表示（対象月の値は「テストデータ」No。34　m_incometaxテーブルを参照）</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの住民税控除にm_incometaxDBから対象月の residentTax 値表示（対象月の値は「テストデータ」No。35　m_incometaxテーブル　を参照）</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの社宅家賃控除に　”０”表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの社宅共益費控除に　”０”表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの総額に（basesalary - shortageReduce - allowance
-Reduce  - wfPensionSelf-wfHealt
-hSelf- laborBurden -incomeTax- residentTax - rental-rentalMgmt
-Fee- specialReduce + overTime
-Plus +transportExpense+ special
-Addition + allowancePlus）結果
-表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの総費用に（sum + wf
-PensionComp + wfHealthComp + welfareBaby + employerBurden + employmentInsurance + industrialAccidentInsurance）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②リストの備考に　”　”（空白）表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②採番月をもとに各項目の値を各テーブルから表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料情報の基本給にm_base
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②給料リストの支払日に対象年月の次月20日表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②給料リストの基本給にm_base
 salaryDBから社員IDと対象年度の
 基本給表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料情報作成
-②給料情報の残業時間に対象年月の（workinfoDBのworktime値　ー　m_basesalaryDBのwkPeriodTo値）結果表示</t>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②給料リストの残業時間に対象年月の（workinfoDBのworktime値　ー　m_basesalaryDBのwkPeriodTo値）結果表示</t>
+  </si>
+  <si>
+    <t>①対象年月を持ち給料リスト表示
+②検索の対象年月と給料リストの対象年月同じ</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの残業加算に対象年月の（m_basesalaryDBのplusHour値　＊　残業時間　）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの稼働不足減に対象年月の（m_basesalaryDBのminusHour値　＊ 不足時間）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの厚生年金控除個人に対象年度の（m_welfarefeeDBのannuityRatio値　＊　基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②年齢は40より大き時リストの厚生健康控除個人に対象年度の（m_welfarefeeDBのcareRatio値　＊　基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②年齢は40より小さい時リストの厚生健康控除個人に対象年度の（m_welfarefeeDBのnotCareRatio値　＊　基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②年齢は40時リストの厚生健康控除個人に対象年度の（m_welfarefeeDBのcareRatio値　＊　基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの厚生控除子育（会社）に対象年度の（m_welfarebaby
+rateDBのrate値　＊基本給）
+結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの雇用保拠出金（会社）に対象年度の（m_emplyinsrate
+DBのlaborInsuranceRate 値* 基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの雇用保険個人負担に対象年度の（m_emplyinsrateDBのlaborBurdenRate 値* 基本給）結果表示</t>
+  </si>
+  <si>
+    <t>一括作成＿雇用保険会社負担</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの雇用保険会社負担に対象年度の（m_emplyinsrateDBのemployerBurdenRate 値* 基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの労災保険（会社負担のみ）に対象年度の（m_emplyinsrateDBのindustrialAccidentInsuranceRate値 * 基本給）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの総額に（基本給 - 稼働
+不足減　-　手当減算  -　厚生年金
+控除個人　-　厚生健康控除個人
+-　雇用保険個人負担　-　源泉控
+除　-　住民税控除　-　社宅家賃
+控除　-　社宅共益費控除　-　特
+別控除　+　残業加算　+　交通費
++　特別加算　+　手当加算）結果
+表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②リストの総費用に（総額　 +　
+厚生年金控除会社　+　厚生健康控除会社　+　厚生控除子育（会社）+　雇用保険会社負担　+　雇用保拠出金（会社）+　労災保険（会社負担のみ） ）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+②採番月をもとに各項目の値を各テーブルから表示
+③表示したデータをsalaryinfoDBに新規追加する</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3019,51 +3039,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3874,7 +3849,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.3">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4157,7 +4132,7 @@
     <col min="6" max="16384" width="8.19921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" ht="18.3">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>64</v>
@@ -4165,7 +4140,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="18.3">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4193,7 +4168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="18.3">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4274,11 +4249,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF51"/>
+  <dimension ref="A1:CF52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="15" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG23" sqref="BG23:BU23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18.3"/>
@@ -4950,7 +4925,7 @@
       <c r="AQ9" s="93"/>
       <c r="AR9" s="94"/>
       <c r="AS9" s="92" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AT9" s="93"/>
       <c r="AU9" s="93"/>
@@ -4966,7 +4941,7 @@
       <c r="BE9" s="93"/>
       <c r="BF9" s="94"/>
       <c r="BG9" s="95" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BH9" s="96"/>
       <c r="BI9" s="96"/>
@@ -5000,7 +4975,7 @@
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="41"/>
@@ -5068,7 +5043,7 @@
       <c r="BE10" s="93"/>
       <c r="BF10" s="94"/>
       <c r="BG10" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BH10" s="96"/>
       <c r="BI10" s="96"/>
@@ -5102,7 +5077,7 @@
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="41"/>
@@ -5174,7 +5149,7 @@
       <c r="BE11" s="93"/>
       <c r="BF11" s="94"/>
       <c r="BG11" s="95" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="BH11" s="96"/>
       <c r="BI11" s="96"/>
@@ -5208,7 +5183,7 @@
       </c>
       <c r="B12" s="100"/>
       <c r="C12" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="41"/>
@@ -5278,7 +5253,7 @@
       <c r="BE12" s="93"/>
       <c r="BF12" s="94"/>
       <c r="BG12" s="95" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="BH12" s="96"/>
       <c r="BI12" s="96"/>
@@ -5312,7 +5287,7 @@
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="41"/>
@@ -5359,14 +5334,14 @@
       <c r="AL13" s="41"/>
       <c r="AM13" s="42"/>
       <c r="AN13" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO13" s="93"/>
       <c r="AP13" s="93"/>
       <c r="AQ13" s="93"/>
       <c r="AR13" s="94"/>
       <c r="AS13" s="92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AT13" s="93"/>
       <c r="AU13" s="93"/>
@@ -5382,7 +5357,7 @@
       <c r="BE13" s="93"/>
       <c r="BF13" s="94"/>
       <c r="BG13" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BH13" s="93"/>
       <c r="BI13" s="93"/>
@@ -5416,7 +5391,7 @@
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="41"/>
@@ -5465,14 +5440,14 @@
       <c r="AL14" s="41"/>
       <c r="AM14" s="42"/>
       <c r="AN14" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO14" s="93"/>
       <c r="AP14" s="93"/>
       <c r="AQ14" s="93"/>
       <c r="AR14" s="94"/>
       <c r="AS14" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT14" s="93"/>
       <c r="AU14" s="93"/>
@@ -5488,7 +5463,7 @@
       <c r="BE14" s="93"/>
       <c r="BF14" s="94"/>
       <c r="BG14" s="95" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="BH14" s="96"/>
       <c r="BI14" s="96"/>
@@ -5522,7 +5497,7 @@
       </c>
       <c r="B15" s="100"/>
       <c r="C15" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="41"/>
@@ -5571,14 +5546,14 @@
       <c r="AL15" s="41"/>
       <c r="AM15" s="42"/>
       <c r="AN15" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO15" s="93"/>
       <c r="AP15" s="93"/>
       <c r="AQ15" s="93"/>
       <c r="AR15" s="94"/>
       <c r="AS15" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT15" s="93"/>
       <c r="AU15" s="93"/>
@@ -5594,7 +5569,7 @@
       <c r="BE15" s="93"/>
       <c r="BF15" s="94"/>
       <c r="BG15" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BH15" s="96"/>
       <c r="BI15" s="96"/>
@@ -5628,7 +5603,7 @@
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="41"/>
@@ -5675,14 +5650,14 @@
       <c r="AL16" s="41"/>
       <c r="AM16" s="42"/>
       <c r="AN16" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO16" s="93"/>
       <c r="AP16" s="93"/>
       <c r="AQ16" s="93"/>
       <c r="AR16" s="94"/>
       <c r="AS16" s="92" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AT16" s="93"/>
       <c r="AU16" s="93"/>
@@ -5698,7 +5673,7 @@
       <c r="BE16" s="93"/>
       <c r="BF16" s="94"/>
       <c r="BG16" s="95" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="BH16" s="96"/>
       <c r="BI16" s="96"/>
@@ -5732,7 +5707,7 @@
       </c>
       <c r="B17" s="100"/>
       <c r="C17" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="41"/>
@@ -5777,14 +5752,14 @@
       <c r="AL17" s="41"/>
       <c r="AM17" s="42"/>
       <c r="AN17" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO17" s="93"/>
       <c r="AP17" s="93"/>
       <c r="AQ17" s="93"/>
       <c r="AR17" s="94"/>
       <c r="AS17" s="92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT17" s="93"/>
       <c r="AU17" s="93"/>
@@ -5800,7 +5775,7 @@
       <c r="BE17" s="93"/>
       <c r="BF17" s="94"/>
       <c r="BG17" s="92" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="BH17" s="93"/>
       <c r="BI17" s="93"/>
@@ -5834,7 +5809,7 @@
       </c>
       <c r="B18" s="100"/>
       <c r="C18" s="49" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="41"/>
@@ -5881,14 +5856,14 @@
       <c r="AL18" s="41"/>
       <c r="AM18" s="42"/>
       <c r="AN18" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO18" s="93"/>
       <c r="AP18" s="93"/>
       <c r="AQ18" s="93"/>
       <c r="AR18" s="94"/>
       <c r="AS18" s="92" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="AT18" s="93"/>
       <c r="AU18" s="93"/>
@@ -5904,7 +5879,7 @@
       <c r="BE18" s="93"/>
       <c r="BF18" s="94"/>
       <c r="BG18" s="95" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="BH18" s="96"/>
       <c r="BI18" s="96"/>
@@ -5932,109 +5907,109 @@
       <c r="CE18" s="41"/>
       <c r="CF18" s="42"/>
     </row>
-    <row r="19" spans="1:84" s="158" customFormat="1" ht="75.05" customHeight="1">
-      <c r="A19" s="144">
+    <row r="19" spans="1:84" ht="75.05" customHeight="1">
+      <c r="A19" s="98">
         <v>11</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="144" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="144" t="s">
+      <c r="Q19" s="100"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U19" s="145"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="144" t="s">
+      <c r="U19" s="100"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="148"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="151" t="s">
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AL19" s="148"/>
-      <c r="AM19" s="149"/>
-      <c r="AN19" s="152" t="s">
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="AO19" s="153"/>
-      <c r="AP19" s="153"/>
-      <c r="AQ19" s="153"/>
-      <c r="AR19" s="154"/>
-      <c r="AS19" s="152" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT19" s="153"/>
-      <c r="AU19" s="153"/>
-      <c r="AV19" s="153"/>
-      <c r="AW19" s="153"/>
-      <c r="AX19" s="153"/>
-      <c r="AY19" s="153"/>
-      <c r="AZ19" s="153"/>
-      <c r="BA19" s="153"/>
-      <c r="BB19" s="153"/>
-      <c r="BC19" s="153"/>
-      <c r="BD19" s="153"/>
-      <c r="BE19" s="153"/>
-      <c r="BF19" s="154"/>
-      <c r="BG19" s="155" t="s">
-        <v>324</v>
-      </c>
-      <c r="BH19" s="156"/>
-      <c r="BI19" s="156"/>
-      <c r="BJ19" s="156"/>
-      <c r="BK19" s="156"/>
-      <c r="BL19" s="156"/>
-      <c r="BM19" s="156"/>
-      <c r="BN19" s="156"/>
-      <c r="BO19" s="156"/>
-      <c r="BP19" s="156"/>
-      <c r="BQ19" s="156"/>
-      <c r="BR19" s="156"/>
-      <c r="BS19" s="156"/>
-      <c r="BT19" s="156"/>
-      <c r="BU19" s="157"/>
-      <c r="BV19" s="151"/>
-      <c r="BW19" s="148"/>
-      <c r="BX19" s="148"/>
-      <c r="BY19" s="149"/>
-      <c r="BZ19" s="151"/>
-      <c r="CA19" s="148"/>
-      <c r="CB19" s="149"/>
-      <c r="CC19" s="151"/>
-      <c r="CD19" s="148"/>
-      <c r="CE19" s="148"/>
-      <c r="CF19" s="149"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="BH19" s="96"/>
+      <c r="BI19" s="96"/>
+      <c r="BJ19" s="96"/>
+      <c r="BK19" s="96"/>
+      <c r="BL19" s="96"/>
+      <c r="BM19" s="96"/>
+      <c r="BN19" s="96"/>
+      <c r="BO19" s="96"/>
+      <c r="BP19" s="96"/>
+      <c r="BQ19" s="96"/>
+      <c r="BR19" s="96"/>
+      <c r="BS19" s="96"/>
+      <c r="BT19" s="96"/>
+      <c r="BU19" s="97"/>
+      <c r="BV19" s="50"/>
+      <c r="BW19" s="41"/>
+      <c r="BX19" s="41"/>
+      <c r="BY19" s="42"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="41"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="50"/>
+      <c r="CD19" s="41"/>
+      <c r="CE19" s="41"/>
+      <c r="CF19" s="42"/>
     </row>
     <row r="20" spans="1:84" ht="89.2" customHeight="1">
       <c r="A20" s="98">
@@ -6042,7 +6017,7 @@
       </c>
       <c r="B20" s="100"/>
       <c r="C20" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="41"/>
@@ -6089,14 +6064,14 @@
       <c r="AL20" s="41"/>
       <c r="AM20" s="42"/>
       <c r="AN20" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO20" s="93"/>
       <c r="AP20" s="93"/>
       <c r="AQ20" s="93"/>
       <c r="AR20" s="94"/>
       <c r="AS20" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT20" s="93"/>
       <c r="AU20" s="93"/>
@@ -6112,7 +6087,7 @@
       <c r="BE20" s="93"/>
       <c r="BF20" s="94"/>
       <c r="BG20" s="95" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="BH20" s="96"/>
       <c r="BI20" s="96"/>
@@ -6146,7 +6121,7 @@
       </c>
       <c r="B21" s="100"/>
       <c r="C21" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="41"/>
@@ -6193,14 +6168,14 @@
       <c r="AL21" s="41"/>
       <c r="AM21" s="42"/>
       <c r="AN21" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO21" s="93"/>
       <c r="AP21" s="93"/>
       <c r="AQ21" s="93"/>
       <c r="AR21" s="94"/>
       <c r="AS21" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT21" s="93"/>
       <c r="AU21" s="93"/>
@@ -6216,7 +6191,7 @@
       <c r="BE21" s="93"/>
       <c r="BF21" s="94"/>
       <c r="BG21" s="95" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="BH21" s="96"/>
       <c r="BI21" s="96"/>
@@ -6250,7 +6225,7 @@
       </c>
       <c r="B22" s="100"/>
       <c r="C22" s="51" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="41"/>
@@ -6297,14 +6272,14 @@
       <c r="AL22" s="41"/>
       <c r="AM22" s="42"/>
       <c r="AN22" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO22" s="93"/>
       <c r="AP22" s="93"/>
       <c r="AQ22" s="93"/>
       <c r="AR22" s="94"/>
       <c r="AS22" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT22" s="93"/>
       <c r="AU22" s="93"/>
@@ -6320,7 +6295,7 @@
       <c r="BE22" s="93"/>
       <c r="BF22" s="94"/>
       <c r="BG22" s="95" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BH22" s="96"/>
       <c r="BI22" s="96"/>
@@ -6354,7 +6329,7 @@
       </c>
       <c r="B23" s="100"/>
       <c r="C23" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="41"/>
@@ -6401,14 +6376,14 @@
       <c r="AL23" s="41"/>
       <c r="AM23" s="42"/>
       <c r="AN23" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO23" s="93"/>
       <c r="AP23" s="93"/>
       <c r="AQ23" s="93"/>
       <c r="AR23" s="94"/>
       <c r="AS23" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT23" s="93"/>
       <c r="AU23" s="93"/>
@@ -6424,7 +6399,7 @@
       <c r="BE23" s="93"/>
       <c r="BF23" s="94"/>
       <c r="BG23" s="95" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="BH23" s="96"/>
       <c r="BI23" s="96"/>
@@ -6458,7 +6433,7 @@
       </c>
       <c r="B24" s="100"/>
       <c r="C24" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="41"/>
@@ -6505,14 +6480,14 @@
       <c r="AL24" s="41"/>
       <c r="AM24" s="42"/>
       <c r="AN24" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO24" s="93"/>
       <c r="AP24" s="93"/>
       <c r="AQ24" s="93"/>
       <c r="AR24" s="94"/>
       <c r="AS24" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT24" s="93"/>
       <c r="AU24" s="93"/>
@@ -6528,7 +6503,7 @@
       <c r="BE24" s="93"/>
       <c r="BF24" s="94"/>
       <c r="BG24" s="95" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="BH24" s="96"/>
       <c r="BI24" s="96"/>
@@ -6562,7 +6537,7 @@
       </c>
       <c r="B25" s="100"/>
       <c r="C25" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="41"/>
@@ -6586,7 +6561,9 @@
         <v>66</v>
       </c>
       <c r="U25" s="100"/>
-      <c r="V25" s="98"/>
+      <c r="V25" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="W25" s="100"/>
       <c r="X25" s="98"/>
       <c r="Y25" s="100"/>
@@ -6609,14 +6586,14 @@
       <c r="AL25" s="41"/>
       <c r="AM25" s="42"/>
       <c r="AN25" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO25" s="93"/>
       <c r="AP25" s="93"/>
       <c r="AQ25" s="93"/>
       <c r="AR25" s="94"/>
       <c r="AS25" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT25" s="93"/>
       <c r="AU25" s="93"/>
@@ -6632,7 +6609,7 @@
       <c r="BE25" s="93"/>
       <c r="BF25" s="94"/>
       <c r="BG25" s="95" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="BH25" s="96"/>
       <c r="BI25" s="96"/>
@@ -6666,7 +6643,7 @@
       </c>
       <c r="B26" s="100"/>
       <c r="C26" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="41"/>
@@ -6690,7 +6667,9 @@
         <v>66</v>
       </c>
       <c r="U26" s="100"/>
-      <c r="V26" s="98"/>
+      <c r="V26" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="W26" s="100"/>
       <c r="X26" s="98"/>
       <c r="Y26" s="100"/>
@@ -6713,14 +6692,14 @@
       <c r="AL26" s="41"/>
       <c r="AM26" s="42"/>
       <c r="AN26" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO26" s="93"/>
       <c r="AP26" s="93"/>
       <c r="AQ26" s="93"/>
       <c r="AR26" s="94"/>
       <c r="AS26" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT26" s="93"/>
       <c r="AU26" s="93"/>
@@ -6736,7 +6715,7 @@
       <c r="BE26" s="93"/>
       <c r="BF26" s="94"/>
       <c r="BG26" s="95" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="BH26" s="96"/>
       <c r="BI26" s="96"/>
@@ -6770,7 +6749,7 @@
       </c>
       <c r="B27" s="100"/>
       <c r="C27" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="41"/>
@@ -6817,14 +6796,14 @@
       <c r="AL27" s="41"/>
       <c r="AM27" s="42"/>
       <c r="AN27" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO27" s="93"/>
       <c r="AP27" s="93"/>
       <c r="AQ27" s="93"/>
       <c r="AR27" s="94"/>
       <c r="AS27" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT27" s="93"/>
       <c r="AU27" s="93"/>
@@ -6840,7 +6819,7 @@
       <c r="BE27" s="93"/>
       <c r="BF27" s="94"/>
       <c r="BG27" s="95" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="BH27" s="96"/>
       <c r="BI27" s="96"/>
@@ -6874,7 +6853,7 @@
       </c>
       <c r="B28" s="100"/>
       <c r="C28" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="41"/>
@@ -6921,14 +6900,14 @@
       <c r="AL28" s="41"/>
       <c r="AM28" s="42"/>
       <c r="AN28" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO28" s="93"/>
       <c r="AP28" s="93"/>
       <c r="AQ28" s="93"/>
       <c r="AR28" s="94"/>
       <c r="AS28" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT28" s="93"/>
       <c r="AU28" s="93"/>
@@ -6944,7 +6923,7 @@
       <c r="BE28" s="93"/>
       <c r="BF28" s="94"/>
       <c r="BG28" s="95" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="BH28" s="96"/>
       <c r="BI28" s="96"/>
@@ -6978,7 +6957,7 @@
       </c>
       <c r="B29" s="100"/>
       <c r="C29" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="41"/>
@@ -7025,14 +7004,14 @@
       <c r="AL29" s="41"/>
       <c r="AM29" s="42"/>
       <c r="AN29" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO29" s="93"/>
       <c r="AP29" s="93"/>
       <c r="AQ29" s="93"/>
       <c r="AR29" s="94"/>
       <c r="AS29" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT29" s="93"/>
       <c r="AU29" s="93"/>
@@ -7048,7 +7027,7 @@
       <c r="BE29" s="93"/>
       <c r="BF29" s="94"/>
       <c r="BG29" s="95" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="BH29" s="96"/>
       <c r="BI29" s="96"/>
@@ -7082,7 +7061,7 @@
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="41"/>
@@ -7129,14 +7108,14 @@
       <c r="AL30" s="41"/>
       <c r="AM30" s="42"/>
       <c r="AN30" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO30" s="93"/>
       <c r="AP30" s="93"/>
       <c r="AQ30" s="93"/>
       <c r="AR30" s="94"/>
       <c r="AS30" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT30" s="93"/>
       <c r="AU30" s="93"/>
@@ -7152,7 +7131,7 @@
       <c r="BE30" s="93"/>
       <c r="BF30" s="94"/>
       <c r="BG30" s="95" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="BH30" s="96"/>
       <c r="BI30" s="96"/>
@@ -7186,7 +7165,7 @@
       </c>
       <c r="B31" s="100"/>
       <c r="C31" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="41"/>
@@ -7233,14 +7212,14 @@
       <c r="AL31" s="41"/>
       <c r="AM31" s="42"/>
       <c r="AN31" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO31" s="93"/>
       <c r="AP31" s="93"/>
       <c r="AQ31" s="93"/>
       <c r="AR31" s="94"/>
       <c r="AS31" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT31" s="93"/>
       <c r="AU31" s="93"/>
@@ -7256,7 +7235,7 @@
       <c r="BE31" s="93"/>
       <c r="BF31" s="94"/>
       <c r="BG31" s="95" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="BH31" s="96"/>
       <c r="BI31" s="96"/>
@@ -7290,7 +7269,7 @@
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="41"/>
@@ -7337,14 +7316,14 @@
       <c r="AL32" s="41"/>
       <c r="AM32" s="42"/>
       <c r="AN32" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO32" s="93"/>
       <c r="AP32" s="93"/>
       <c r="AQ32" s="93"/>
       <c r="AR32" s="94"/>
       <c r="AS32" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT32" s="93"/>
       <c r="AU32" s="93"/>
@@ -7360,7 +7339,7 @@
       <c r="BE32" s="93"/>
       <c r="BF32" s="94"/>
       <c r="BG32" s="95" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="BH32" s="96"/>
       <c r="BI32" s="96"/>
@@ -7394,7 +7373,7 @@
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="41"/>
@@ -7441,14 +7420,14 @@
       <c r="AL33" s="41"/>
       <c r="AM33" s="42"/>
       <c r="AN33" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO33" s="93"/>
       <c r="AP33" s="93"/>
       <c r="AQ33" s="93"/>
       <c r="AR33" s="94"/>
       <c r="AS33" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT33" s="93"/>
       <c r="AU33" s="93"/>
@@ -7464,7 +7443,7 @@
       <c r="BE33" s="93"/>
       <c r="BF33" s="94"/>
       <c r="BG33" s="95" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="BH33" s="96"/>
       <c r="BI33" s="96"/>
@@ -7498,7 +7477,7 @@
       </c>
       <c r="B34" s="100"/>
       <c r="C34" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="41"/>
@@ -7545,14 +7524,14 @@
       <c r="AL34" s="41"/>
       <c r="AM34" s="42"/>
       <c r="AN34" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO34" s="93"/>
       <c r="AP34" s="93"/>
       <c r="AQ34" s="93"/>
       <c r="AR34" s="94"/>
       <c r="AS34" s="92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AT34" s="93"/>
       <c r="AU34" s="93"/>
@@ -7568,7 +7547,7 @@
       <c r="BE34" s="93"/>
       <c r="BF34" s="94"/>
       <c r="BG34" s="95" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="BH34" s="96"/>
       <c r="BI34" s="96"/>
@@ -7602,7 +7581,7 @@
       </c>
       <c r="B35" s="100"/>
       <c r="C35" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="41"/>
@@ -7649,14 +7628,14 @@
       <c r="AL35" s="41"/>
       <c r="AM35" s="42"/>
       <c r="AN35" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO35" s="93"/>
       <c r="AP35" s="93"/>
       <c r="AQ35" s="93"/>
       <c r="AR35" s="94"/>
       <c r="AS35" s="92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AT35" s="93"/>
       <c r="AU35" s="93"/>
@@ -7672,7 +7651,7 @@
       <c r="BE35" s="93"/>
       <c r="BF35" s="94"/>
       <c r="BG35" s="95" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="BH35" s="96"/>
       <c r="BI35" s="96"/>
@@ -7706,7 +7685,7 @@
       </c>
       <c r="B36" s="100"/>
       <c r="C36" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="41"/>
@@ -7755,14 +7734,14 @@
       <c r="AL36" s="41"/>
       <c r="AM36" s="42"/>
       <c r="AN36" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO36" s="93"/>
       <c r="AP36" s="93"/>
       <c r="AQ36" s="93"/>
       <c r="AR36" s="94"/>
       <c r="AS36" s="92" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AT36" s="93"/>
       <c r="AU36" s="93"/>
@@ -7778,7 +7757,7 @@
       <c r="BE36" s="93"/>
       <c r="BF36" s="94"/>
       <c r="BG36" s="95" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="BH36" s="96"/>
       <c r="BI36" s="96"/>
@@ -7812,7 +7791,7 @@
       </c>
       <c r="B37" s="100"/>
       <c r="C37" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="41"/>
@@ -7859,14 +7838,14 @@
       <c r="AL37" s="41"/>
       <c r="AM37" s="42"/>
       <c r="AN37" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO37" s="93"/>
       <c r="AP37" s="93"/>
       <c r="AQ37" s="93"/>
       <c r="AR37" s="94"/>
       <c r="AS37" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT37" s="93"/>
       <c r="AU37" s="93"/>
@@ -7882,7 +7861,7 @@
       <c r="BE37" s="93"/>
       <c r="BF37" s="94"/>
       <c r="BG37" s="95" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="BH37" s="96"/>
       <c r="BI37" s="96"/>
@@ -7916,7 +7895,7 @@
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" s="52"/>
       <c r="E38" s="41"/>
@@ -7963,14 +7942,14 @@
       <c r="AL38" s="41"/>
       <c r="AM38" s="42"/>
       <c r="AN38" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO38" s="93"/>
       <c r="AP38" s="93"/>
       <c r="AQ38" s="93"/>
       <c r="AR38" s="94"/>
       <c r="AS38" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT38" s="93"/>
       <c r="AU38" s="93"/>
@@ -7986,7 +7965,7 @@
       <c r="BE38" s="93"/>
       <c r="BF38" s="94"/>
       <c r="BG38" s="95" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="BH38" s="96"/>
       <c r="BI38" s="96"/>
@@ -8020,7 +7999,7 @@
       </c>
       <c r="B39" s="100"/>
       <c r="C39" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="41"/>
@@ -8067,14 +8046,14 @@
       <c r="AL39" s="41"/>
       <c r="AM39" s="42"/>
       <c r="AN39" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO39" s="93"/>
       <c r="AP39" s="93"/>
       <c r="AQ39" s="93"/>
       <c r="AR39" s="94"/>
       <c r="AS39" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT39" s="93"/>
       <c r="AU39" s="93"/>
@@ -8090,7 +8069,7 @@
       <c r="BE39" s="93"/>
       <c r="BF39" s="94"/>
       <c r="BG39" s="95" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="BH39" s="96"/>
       <c r="BI39" s="96"/>
@@ -8124,7 +8103,7 @@
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="41"/>
@@ -8171,14 +8150,14 @@
       <c r="AL40" s="41"/>
       <c r="AM40" s="42"/>
       <c r="AN40" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO40" s="93"/>
       <c r="AP40" s="93"/>
       <c r="AQ40" s="93"/>
       <c r="AR40" s="94"/>
       <c r="AS40" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT40" s="93"/>
       <c r="AU40" s="93"/>
@@ -8194,7 +8173,7 @@
       <c r="BE40" s="93"/>
       <c r="BF40" s="94"/>
       <c r="BG40" s="95" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BH40" s="96"/>
       <c r="BI40" s="96"/>
@@ -8228,7 +8207,7 @@
       </c>
       <c r="B41" s="100"/>
       <c r="C41" s="49" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="41"/>
@@ -8275,14 +8254,14 @@
       <c r="AL41" s="41"/>
       <c r="AM41" s="42"/>
       <c r="AN41" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO41" s="93"/>
       <c r="AP41" s="93"/>
       <c r="AQ41" s="93"/>
       <c r="AR41" s="94"/>
       <c r="AS41" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT41" s="93"/>
       <c r="AU41" s="93"/>
@@ -8298,7 +8277,7 @@
       <c r="BE41" s="93"/>
       <c r="BF41" s="94"/>
       <c r="BG41" s="95" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="BH41" s="96"/>
       <c r="BI41" s="96"/>
@@ -8326,13 +8305,13 @@
       <c r="CE41" s="41"/>
       <c r="CF41" s="42"/>
     </row>
-    <row r="42" spans="1:84" ht="136.80000000000001" customHeight="1">
+    <row r="42" spans="1:84" ht="122.95" customHeight="1">
       <c r="A42" s="98">
         <v>34</v>
       </c>
       <c r="B42" s="100"/>
-      <c r="C42" s="51" t="s">
-        <v>142</v>
+      <c r="C42" s="49" t="s">
+        <v>139</v>
       </c>
       <c r="D42" s="52"/>
       <c r="E42" s="41"/>
@@ -8379,14 +8358,14 @@
       <c r="AL42" s="41"/>
       <c r="AM42" s="42"/>
       <c r="AN42" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO42" s="93"/>
       <c r="AP42" s="93"/>
       <c r="AQ42" s="93"/>
       <c r="AR42" s="94"/>
       <c r="AS42" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT42" s="93"/>
       <c r="AU42" s="93"/>
@@ -8402,7 +8381,7 @@
       <c r="BE42" s="93"/>
       <c r="BF42" s="94"/>
       <c r="BG42" s="95" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="BH42" s="96"/>
       <c r="BI42" s="96"/>
@@ -8430,13 +8409,13 @@
       <c r="CE42" s="41"/>
       <c r="CF42" s="42"/>
     </row>
-    <row r="43" spans="1:84" ht="122.95" customHeight="1">
+    <row r="43" spans="1:84" ht="136.80000000000001" customHeight="1">
       <c r="A43" s="98">
         <v>35</v>
       </c>
       <c r="B43" s="100"/>
       <c r="C43" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="41"/>
@@ -8483,14 +8462,14 @@
       <c r="AL43" s="41"/>
       <c r="AM43" s="42"/>
       <c r="AN43" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO43" s="93"/>
       <c r="AP43" s="93"/>
       <c r="AQ43" s="93"/>
       <c r="AR43" s="94"/>
       <c r="AS43" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT43" s="93"/>
       <c r="AU43" s="93"/>
@@ -8506,7 +8485,7 @@
       <c r="BE43" s="93"/>
       <c r="BF43" s="94"/>
       <c r="BG43" s="95" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BH43" s="96"/>
       <c r="BI43" s="96"/>
@@ -8540,7 +8519,7 @@
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D44" s="52"/>
       <c r="E44" s="41"/>
@@ -8564,7 +8543,9 @@
         <v>66</v>
       </c>
       <c r="U44" s="100"/>
-      <c r="V44" s="98"/>
+      <c r="V44" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="W44" s="100"/>
       <c r="X44" s="98"/>
       <c r="Y44" s="100"/>
@@ -8587,14 +8568,14 @@
       <c r="AL44" s="41"/>
       <c r="AM44" s="42"/>
       <c r="AN44" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO44" s="93"/>
       <c r="AP44" s="93"/>
       <c r="AQ44" s="93"/>
       <c r="AR44" s="94"/>
       <c r="AS44" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT44" s="93"/>
       <c r="AU44" s="93"/>
@@ -8610,7 +8591,7 @@
       <c r="BE44" s="93"/>
       <c r="BF44" s="94"/>
       <c r="BG44" s="95" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="BH44" s="96"/>
       <c r="BI44" s="96"/>
@@ -8638,13 +8619,13 @@
       <c r="CE44" s="41"/>
       <c r="CF44" s="42"/>
     </row>
-    <row r="45" spans="1:84" ht="87.55" customHeight="1">
+    <row r="45" spans="1:84" ht="122.95" customHeight="1">
       <c r="A45" s="98">
         <v>37</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="41"/>
@@ -8668,7 +8649,9 @@
         <v>66</v>
       </c>
       <c r="U45" s="100"/>
-      <c r="V45" s="98"/>
+      <c r="V45" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="W45" s="100"/>
       <c r="X45" s="98"/>
       <c r="Y45" s="100"/>
@@ -8691,14 +8674,14 @@
       <c r="AL45" s="41"/>
       <c r="AM45" s="42"/>
       <c r="AN45" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO45" s="93"/>
       <c r="AP45" s="93"/>
       <c r="AQ45" s="93"/>
       <c r="AR45" s="94"/>
       <c r="AS45" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT45" s="93"/>
       <c r="AU45" s="93"/>
@@ -8714,7 +8697,7 @@
       <c r="BE45" s="93"/>
       <c r="BF45" s="94"/>
       <c r="BG45" s="95" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="BH45" s="96"/>
       <c r="BI45" s="96"/>
@@ -8742,13 +8725,13 @@
       <c r="CE45" s="41"/>
       <c r="CF45" s="42"/>
     </row>
-    <row r="46" spans="1:84" ht="84.2" customHeight="1">
+    <row r="46" spans="1:84" ht="87.55" customHeight="1">
       <c r="A46" s="98">
         <v>38</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="41"/>
@@ -8795,14 +8778,14 @@
       <c r="AL46" s="41"/>
       <c r="AM46" s="42"/>
       <c r="AN46" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO46" s="93"/>
       <c r="AP46" s="93"/>
       <c r="AQ46" s="93"/>
       <c r="AR46" s="94"/>
       <c r="AS46" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT46" s="93"/>
       <c r="AU46" s="93"/>
@@ -8818,7 +8801,7 @@
       <c r="BE46" s="93"/>
       <c r="BF46" s="94"/>
       <c r="BG46" s="95" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="BH46" s="96"/>
       <c r="BI46" s="96"/>
@@ -8846,13 +8829,13 @@
       <c r="CE46" s="41"/>
       <c r="CF46" s="42"/>
     </row>
-    <row r="47" spans="1:84" ht="199.95" customHeight="1">
+    <row r="47" spans="1:84" ht="84.2" customHeight="1">
       <c r="A47" s="98">
         <v>39</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="52"/>
       <c r="E47" s="41"/>
@@ -8899,14 +8882,14 @@
       <c r="AL47" s="41"/>
       <c r="AM47" s="42"/>
       <c r="AN47" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO47" s="93"/>
       <c r="AP47" s="93"/>
       <c r="AQ47" s="93"/>
       <c r="AR47" s="94"/>
       <c r="AS47" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT47" s="93"/>
       <c r="AU47" s="93"/>
@@ -8922,7 +8905,7 @@
       <c r="BE47" s="93"/>
       <c r="BF47" s="94"/>
       <c r="BG47" s="95" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="BH47" s="96"/>
       <c r="BI47" s="96"/>
@@ -8950,13 +8933,13 @@
       <c r="CE47" s="41"/>
       <c r="CF47" s="42"/>
     </row>
-    <row r="48" spans="1:84" ht="141.80000000000001" customHeight="1">
+    <row r="48" spans="1:84" ht="199.95" customHeight="1">
       <c r="A48" s="98">
         <v>40</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="52"/>
       <c r="E48" s="41"/>
@@ -9003,14 +8986,14 @@
       <c r="AL48" s="41"/>
       <c r="AM48" s="42"/>
       <c r="AN48" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO48" s="93"/>
       <c r="AP48" s="93"/>
       <c r="AQ48" s="93"/>
       <c r="AR48" s="94"/>
       <c r="AS48" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT48" s="93"/>
       <c r="AU48" s="93"/>
@@ -9026,7 +9009,7 @@
       <c r="BE48" s="93"/>
       <c r="BF48" s="94"/>
       <c r="BG48" s="95" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="BH48" s="96"/>
       <c r="BI48" s="96"/>
@@ -9054,13 +9037,13 @@
       <c r="CE48" s="41"/>
       <c r="CF48" s="42"/>
     </row>
-    <row r="49" spans="1:84" ht="81.45" customHeight="1">
+    <row r="49" spans="1:84" ht="168.95" customHeight="1">
       <c r="A49" s="98">
         <v>41</v>
       </c>
       <c r="B49" s="100"/>
-      <c r="C49" s="49" t="s">
-        <v>149</v>
+      <c r="C49" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="41"/>
@@ -9107,14 +9090,14 @@
       <c r="AL49" s="41"/>
       <c r="AM49" s="42"/>
       <c r="AN49" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO49" s="93"/>
       <c r="AP49" s="93"/>
       <c r="AQ49" s="93"/>
       <c r="AR49" s="94"/>
       <c r="AS49" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT49" s="93"/>
       <c r="AU49" s="93"/>
@@ -9130,7 +9113,7 @@
       <c r="BE49" s="93"/>
       <c r="BF49" s="94"/>
       <c r="BG49" s="95" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BH49" s="96"/>
       <c r="BI49" s="96"/>
@@ -9158,13 +9141,13 @@
       <c r="CE49" s="41"/>
       <c r="CF49" s="42"/>
     </row>
-    <row r="50" spans="1:84" ht="75.900000000000006" customHeight="1">
+    <row r="50" spans="1:84" ht="81.45" customHeight="1">
       <c r="A50" s="98">
         <v>42</v>
       </c>
       <c r="B50" s="100"/>
       <c r="C50" s="49" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="41"/>
@@ -9211,14 +9194,14 @@
       <c r="AL50" s="41"/>
       <c r="AM50" s="42"/>
       <c r="AN50" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO50" s="93"/>
       <c r="AP50" s="93"/>
       <c r="AQ50" s="93"/>
       <c r="AR50" s="94"/>
       <c r="AS50" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT50" s="93"/>
       <c r="AU50" s="93"/>
@@ -9234,7 +9217,7 @@
       <c r="BE50" s="93"/>
       <c r="BF50" s="94"/>
       <c r="BG50" s="95" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="BH50" s="96"/>
       <c r="BI50" s="96"/>
@@ -9262,13 +9245,13 @@
       <c r="CE50" s="41"/>
       <c r="CF50" s="42"/>
     </row>
-    <row r="51" spans="1:84" ht="62.6" customHeight="1">
+    <row r="51" spans="1:84" ht="121.3" customHeight="1">
       <c r="A51" s="98">
         <v>43</v>
       </c>
       <c r="B51" s="100"/>
-      <c r="C51" s="51" t="s">
-        <v>85</v>
+      <c r="C51" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="D51" s="52"/>
       <c r="E51" s="41"/>
@@ -9302,9 +9285,7 @@
         <v>66</v>
       </c>
       <c r="AC51" s="100"/>
-      <c r="AD51" s="98" t="s">
-        <v>66</v>
-      </c>
+      <c r="AD51" s="98"/>
       <c r="AE51" s="99"/>
       <c r="AF51" s="99"/>
       <c r="AG51" s="100"/>
@@ -9312,19 +9293,19 @@
       <c r="AI51" s="41"/>
       <c r="AJ51" s="42"/>
       <c r="AK51" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL51" s="41"/>
       <c r="AM51" s="42"/>
       <c r="AN51" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO51" s="93"/>
       <c r="AP51" s="93"/>
       <c r="AQ51" s="93"/>
       <c r="AR51" s="94"/>
       <c r="AS51" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT51" s="93"/>
       <c r="AU51" s="93"/>
@@ -9339,23 +9320,23 @@
       <c r="BD51" s="93"/>
       <c r="BE51" s="93"/>
       <c r="BF51" s="94"/>
-      <c r="BG51" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH51" s="93"/>
-      <c r="BI51" s="93"/>
-      <c r="BJ51" s="93"/>
-      <c r="BK51" s="93"/>
-      <c r="BL51" s="93"/>
-      <c r="BM51" s="93"/>
-      <c r="BN51" s="93"/>
-      <c r="BO51" s="93"/>
-      <c r="BP51" s="93"/>
-      <c r="BQ51" s="93"/>
-      <c r="BR51" s="93"/>
-      <c r="BS51" s="93"/>
-      <c r="BT51" s="93"/>
-      <c r="BU51" s="94"/>
+      <c r="BG51" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="BH51" s="96"/>
+      <c r="BI51" s="96"/>
+      <c r="BJ51" s="96"/>
+      <c r="BK51" s="96"/>
+      <c r="BL51" s="96"/>
+      <c r="BM51" s="96"/>
+      <c r="BN51" s="96"/>
+      <c r="BO51" s="96"/>
+      <c r="BP51" s="96"/>
+      <c r="BQ51" s="96"/>
+      <c r="BR51" s="96"/>
+      <c r="BS51" s="96"/>
+      <c r="BT51" s="96"/>
+      <c r="BU51" s="97"/>
       <c r="BV51" s="50"/>
       <c r="BW51" s="41"/>
       <c r="BX51" s="41"/>
@@ -9368,10 +9349,128 @@
       <c r="CE51" s="41"/>
       <c r="CF51" s="42"/>
     </row>
+    <row r="52" spans="1:84" ht="62.6" customHeight="1">
+      <c r="A52" s="98">
+        <v>44</v>
+      </c>
+      <c r="B52" s="100"/>
+      <c r="C52" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="U52" s="100"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="100"/>
+      <c r="AB52" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC52" s="100"/>
+      <c r="AD52" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE52" s="99"/>
+      <c r="AF52" s="99"/>
+      <c r="AG52" s="100"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="41"/>
+      <c r="AJ52" s="42"/>
+      <c r="AK52" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL52" s="41"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO52" s="93"/>
+      <c r="AP52" s="93"/>
+      <c r="AQ52" s="93"/>
+      <c r="AR52" s="94"/>
+      <c r="AS52" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT52" s="93"/>
+      <c r="AU52" s="93"/>
+      <c r="AV52" s="93"/>
+      <c r="AW52" s="93"/>
+      <c r="AX52" s="93"/>
+      <c r="AY52" s="93"/>
+      <c r="AZ52" s="93"/>
+      <c r="BA52" s="93"/>
+      <c r="BB52" s="93"/>
+      <c r="BC52" s="93"/>
+      <c r="BD52" s="93"/>
+      <c r="BE52" s="93"/>
+      <c r="BF52" s="94"/>
+      <c r="BG52" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH52" s="93"/>
+      <c r="BI52" s="93"/>
+      <c r="BJ52" s="93"/>
+      <c r="BK52" s="93"/>
+      <c r="BL52" s="93"/>
+      <c r="BM52" s="93"/>
+      <c r="BN52" s="93"/>
+      <c r="BO52" s="93"/>
+      <c r="BP52" s="93"/>
+      <c r="BQ52" s="93"/>
+      <c r="BR52" s="93"/>
+      <c r="BS52" s="93"/>
+      <c r="BT52" s="93"/>
+      <c r="BU52" s="94"/>
+      <c r="BV52" s="50"/>
+      <c r="BW52" s="41"/>
+      <c r="BX52" s="41"/>
+      <c r="BY52" s="42"/>
+      <c r="BZ52" s="50"/>
+      <c r="CA52" s="41"/>
+      <c r="CB52" s="42"/>
+      <c r="CC52" s="50"/>
+      <c r="CD52" s="41"/>
+      <c r="CE52" s="41"/>
+      <c r="CF52" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="558">
-    <mergeCell ref="A50:B50"/>
+  <mergeCells count="570">
+    <mergeCell ref="AN40:AR40"/>
+    <mergeCell ref="AS40:BF40"/>
+    <mergeCell ref="BG40:BU40"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AG40"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -9401,9 +9500,9 @@
     <mergeCell ref="BG12:BU12"/>
     <mergeCell ref="BG14:BU14"/>
     <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="BG50:BU50"/>
-    <mergeCell ref="AN50:AR50"/>
-    <mergeCell ref="AS50:BF50"/>
+    <mergeCell ref="BG51:BU51"/>
+    <mergeCell ref="AN51:AR51"/>
+    <mergeCell ref="AS51:BF51"/>
     <mergeCell ref="AN10:AR10"/>
     <mergeCell ref="AS10:BF10"/>
     <mergeCell ref="AN11:AR11"/>
@@ -9418,9 +9517,9 @@
     <mergeCell ref="AS25:BF25"/>
     <mergeCell ref="BG25:BU25"/>
     <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="AN51:AR51"/>
-    <mergeCell ref="AS51:BF51"/>
-    <mergeCell ref="BG51:BU51"/>
+    <mergeCell ref="AN52:AR52"/>
+    <mergeCell ref="AS52:BF52"/>
+    <mergeCell ref="BG52:BU52"/>
     <mergeCell ref="AN14:AR14"/>
     <mergeCell ref="AS14:BF14"/>
     <mergeCell ref="AN15:AR15"/>
@@ -9459,25 +9558,25 @@
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="P51:Q51"/>
     <mergeCell ref="R51:S51"/>
     <mergeCell ref="T51:U51"/>
     <mergeCell ref="V51:W51"/>
     <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
@@ -9784,9 +9883,21 @@
     <mergeCell ref="Z38:AA38"/>
     <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AN40:AR40"/>
-    <mergeCell ref="AS40:BF40"/>
-    <mergeCell ref="BG40:BU40"/>
+    <mergeCell ref="AN41:AR41"/>
+    <mergeCell ref="AS41:BF41"/>
+    <mergeCell ref="BG41:BU41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AN42:AR42"/>
+    <mergeCell ref="AS42:BF42"/>
+    <mergeCell ref="BG42:BU42"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="P41:Q41"/>
     <mergeCell ref="R41:S41"/>
@@ -9796,21 +9907,21 @@
     <mergeCell ref="Z41:AA41"/>
     <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="AD41:AG41"/>
-    <mergeCell ref="AN41:AR41"/>
-    <mergeCell ref="AS41:BF41"/>
-    <mergeCell ref="BG41:BU41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AG40"/>
-    <mergeCell ref="AN42:AR42"/>
-    <mergeCell ref="AS42:BF42"/>
-    <mergeCell ref="BG42:BU42"/>
+    <mergeCell ref="AN43:AR43"/>
+    <mergeCell ref="AS43:BF43"/>
+    <mergeCell ref="BG43:BU43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AG44"/>
+    <mergeCell ref="AN44:AR44"/>
+    <mergeCell ref="AS44:BF44"/>
+    <mergeCell ref="BG44:BU44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="R43:S43"/>
@@ -9820,21 +9931,21 @@
     <mergeCell ref="Z43:AA43"/>
     <mergeCell ref="AB43:AC43"/>
     <mergeCell ref="AD43:AG43"/>
-    <mergeCell ref="AN43:AR43"/>
-    <mergeCell ref="AS43:BF43"/>
-    <mergeCell ref="BG43:BU43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AN44:AR44"/>
-    <mergeCell ref="AS44:BF44"/>
-    <mergeCell ref="BG44:BU44"/>
+    <mergeCell ref="AN45:AR45"/>
+    <mergeCell ref="AS45:BF45"/>
+    <mergeCell ref="BG45:BU45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AN46:AR46"/>
+    <mergeCell ref="AS46:BF46"/>
+    <mergeCell ref="BG46:BU46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="R45:S45"/>
@@ -9844,21 +9955,21 @@
     <mergeCell ref="Z45:AA45"/>
     <mergeCell ref="AB45:AC45"/>
     <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="AN45:AR45"/>
-    <mergeCell ref="AS45:BF45"/>
-    <mergeCell ref="BG45:BU45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AG44"/>
-    <mergeCell ref="AN46:AR46"/>
-    <mergeCell ref="AS46:BF46"/>
-    <mergeCell ref="BG46:BU46"/>
+    <mergeCell ref="AN47:AR47"/>
+    <mergeCell ref="AS47:BF47"/>
+    <mergeCell ref="BG47:BU47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="AN48:AR48"/>
+    <mergeCell ref="AS48:BF48"/>
+    <mergeCell ref="BG48:BU48"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="R47:S47"/>
@@ -9868,21 +9979,21 @@
     <mergeCell ref="Z47:AA47"/>
     <mergeCell ref="AB47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AN47:AR47"/>
-    <mergeCell ref="AS47:BF47"/>
-    <mergeCell ref="BG47:BU47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AN48:AR48"/>
-    <mergeCell ref="AS48:BF48"/>
-    <mergeCell ref="BG48:BU48"/>
+    <mergeCell ref="AN49:AR49"/>
+    <mergeCell ref="AS49:BF49"/>
+    <mergeCell ref="BG49:BU49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AN50:AR50"/>
+    <mergeCell ref="AS50:BF50"/>
+    <mergeCell ref="BG50:BU50"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="R49:S49"/>
@@ -9892,18 +10003,6 @@
     <mergeCell ref="Z49:AA49"/>
     <mergeCell ref="AB49:AC49"/>
     <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AN49:AR49"/>
-    <mergeCell ref="AS49:BF49"/>
-    <mergeCell ref="BG49:BU49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
     <mergeCell ref="AN35:AR35"/>
     <mergeCell ref="AS35:BF35"/>
     <mergeCell ref="BG35:BU35"/>
@@ -9958,83 +10057,83 @@
   <sheetData>
     <row r="1" spans="1:20" s="53" customFormat="1" ht="31.05" customHeight="1">
       <c r="B1" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="54" customFormat="1" ht="54.85">
       <c r="A2" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="55" t="s">
+      <c r="R2" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="55" t="s">
+      <c r="T2" s="55" t="s">
         <v>112</v>
-      </c>
-      <c r="T2" s="55" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="53" customFormat="1" ht="24.8" customHeight="1">
       <c r="A3" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
@@ -10048,7 +10147,7 @@
       <c r="N3" s="56"/>
       <c r="O3" s="56"/>
       <c r="P3" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="56"/>
       <c r="R3" s="58"/>
@@ -10057,13 +10156,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="B4" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
@@ -10077,7 +10176,7 @@
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
       <c r="P4" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="56"/>
       <c r="R4" s="58"/>
@@ -10086,13 +10185,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
@@ -10106,7 +10205,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
       <c r="P5" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="56"/>
       <c r="R5" s="58"/>
@@ -10115,62 +10214,62 @@
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="54.85">
       <c r="A9" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="F9" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="G9" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="H9" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="I9" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="J9" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="I9" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>205</v>
-      </c>
       <c r="N9" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B10" s="60">
         <v>60000</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="60">
         <v>3</v>
@@ -10194,27 +10293,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N10" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="60">
         <v>70000</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="60">
         <v>3</v>
@@ -10238,27 +10337,27 @@
         <v>0</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B12" s="60">
         <v>80000</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="60">
         <v>3</v>
@@ -10282,16 +10381,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N12" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -10326,7 +10425,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="71"/>
@@ -10343,72 +10442,72 @@
     </row>
     <row r="16" spans="1:20" ht="54.85">
       <c r="B16" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="G16" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="O16" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="R16" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" s="55" t="s">
+      <c r="T16" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="T16" s="55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="B17" s="56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="60"/>
@@ -10429,13 +10528,13 @@
     </row>
     <row r="18" spans="1:20">
       <c r="B18" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="60"/>
@@ -10456,13 +10555,13 @@
     </row>
     <row r="19" spans="1:20">
       <c r="B19" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="60"/>
@@ -10483,1197 +10582,1197 @@
     </row>
     <row r="23" spans="1:20">
       <c r="B23" s="59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="36.549999999999997">
       <c r="A24" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="E24" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="F24" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="G24" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>213</v>
-      </c>
       <c r="H24" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B25" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E25" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F25" s="60">
         <v>150</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B26" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E26" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F26" s="60">
         <v>150</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B27" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E27" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F27" s="60">
         <v>150</v>
       </c>
       <c r="G27" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B28" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E28" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F28" s="60">
         <v>150</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B29" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E29" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F29" s="60">
         <v>150</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B30" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="E30" s="56" t="s">
         <v>215</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>217</v>
       </c>
       <c r="F30" s="60">
         <v>150</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H30" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B31" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E31" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="60">
         <v>150</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B32" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E32" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F32" s="60">
         <v>150</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B33" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E33" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F33" s="60">
         <v>150</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B34" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E34" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F34" s="60">
         <v>150</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B35" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E35" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F35" s="60">
         <v>150</v>
       </c>
       <c r="G35" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B36" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E36" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F36" s="60">
         <v>150</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F37" s="60">
         <v>150</v>
       </c>
       <c r="G37" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F38" s="60">
         <v>150</v>
       </c>
       <c r="G38" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H38" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F39" s="60">
         <v>150</v>
       </c>
       <c r="G39" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H39" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F40" s="60">
         <v>150</v>
       </c>
       <c r="G40" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H40" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F41" s="60">
         <v>150</v>
       </c>
       <c r="G41" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H41" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C42" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="56" t="s">
         <v>215</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>217</v>
       </c>
       <c r="F42" s="60">
         <v>150</v>
       </c>
       <c r="G42" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H42" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="60">
         <v>150</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F44" s="60">
         <v>150</v>
       </c>
       <c r="G44" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I44" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F45" s="60">
         <v>150</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H45" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F46" s="60">
         <v>150</v>
       </c>
       <c r="G46" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H46" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F47" s="60">
         <v>150</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D48" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F48" s="60">
         <v>150</v>
       </c>
       <c r="G48" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H48" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D49" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F49" s="60">
         <v>150</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H49" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F50" s="60">
         <v>150</v>
       </c>
       <c r="G50" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H50" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F51" s="60">
         <v>150</v>
       </c>
       <c r="G51" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H51" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F52" s="60">
         <v>150</v>
       </c>
       <c r="G52" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F53" s="60">
         <v>150</v>
       </c>
       <c r="G53" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C54" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="56" t="s">
         <v>215</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>217</v>
       </c>
       <c r="F54" s="60">
         <v>150</v>
       </c>
       <c r="G54" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H54" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F55" s="60">
         <v>150</v>
       </c>
       <c r="G55" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H55" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F56" s="60">
         <v>150</v>
       </c>
       <c r="G56" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F57" s="60">
         <v>150</v>
       </c>
       <c r="G57" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H57" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F58" s="60">
         <v>150</v>
       </c>
       <c r="G58" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I58" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F59" s="60">
         <v>150</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H59" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F60" s="60">
         <v>150</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I60" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="54.85">
       <c r="A63" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="K63" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="L63" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="M63" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="N63" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="O63" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="P63" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q63" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="R63" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="S63" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="T63" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="U63" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="G63" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="H63" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="I63" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="J63" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="K63" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="L63" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="M63" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="N63" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="O63" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="P63" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q63" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="R63" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="S63" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="T63" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="U63" s="55" t="s">
+      <c r="V63" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="V63" s="55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D64" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="G64" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F64" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H64" s="60">
         <v>3000</v>
       </c>
       <c r="I64" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J64" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K64" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J64" s="56" t="s">
+      <c r="L64" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M64" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N64" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K64" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L64" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M64" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N64" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O64" s="60">
         <v>0</v>
@@ -11688,60 +11787,60 @@
         <v>700</v>
       </c>
       <c r="S64" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T64" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V64" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D65" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E65" s="56" t="s">
+      <c r="G65" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F65" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H65" s="60">
         <v>3000</v>
       </c>
       <c r="I65" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J65" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K65" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J65" s="56" t="s">
+      <c r="L65" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M65" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N65" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K65" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L65" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M65" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N65" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O65" s="60">
         <v>0</v>
@@ -11756,60 +11855,60 @@
         <v>600</v>
       </c>
       <c r="S65" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T65" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U65" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V65" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D66" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E66" s="56" t="s">
+      <c r="G66" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F66" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G66" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H66" s="60">
         <v>3000</v>
       </c>
       <c r="I66" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J66" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K66" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J66" s="56" t="s">
+      <c r="L66" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M66" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N66" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K66" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L66" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M66" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N66" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O66" s="60">
         <v>0</v>
@@ -11824,60 +11923,60 @@
         <v>600</v>
       </c>
       <c r="S66" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T66" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V66" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D67" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F67" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E67" s="56" t="s">
+      <c r="G67" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H67" s="60">
         <v>3000</v>
       </c>
       <c r="I67" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J67" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K67" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J67" s="56" t="s">
+      <c r="L67" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M67" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N67" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K67" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L67" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M67" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N67" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O67" s="60">
         <v>0</v>
@@ -11892,60 +11991,60 @@
         <v>600</v>
       </c>
       <c r="S67" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T67" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U67" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V67" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F68" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="G68" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G68" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H68" s="60">
         <v>3000</v>
       </c>
       <c r="I68" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J68" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K68" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J68" s="56" t="s">
+      <c r="L68" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M68" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N68" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L68" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M68" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N68" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O68" s="60">
         <v>0</v>
@@ -11960,60 +12059,60 @@
         <v>700</v>
       </c>
       <c r="S68" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T68" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U68" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V68" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="G69" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F69" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H69" s="60">
         <v>3000</v>
       </c>
       <c r="I69" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J69" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K69" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J69" s="56" t="s">
+      <c r="L69" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M69" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N69" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K69" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L69" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M69" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N69" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O69" s="60">
         <v>0</v>
@@ -12028,60 +12127,60 @@
         <v>600</v>
       </c>
       <c r="S69" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T69" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U69" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V69" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D70" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F70" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="56" t="s">
+      <c r="G70" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F70" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G70" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H70" s="60">
         <v>3000</v>
       </c>
       <c r="I70" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J70" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K70" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J70" s="56" t="s">
+      <c r="L70" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M70" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N70" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K70" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L70" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M70" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N70" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O70" s="60">
         <v>0</v>
@@ -12096,60 +12195,60 @@
         <v>700</v>
       </c>
       <c r="S70" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T70" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U70" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V70" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D71" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F71" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="G71" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H71" s="60">
         <v>3000</v>
       </c>
       <c r="I71" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J71" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K71" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J71" s="56" t="s">
+      <c r="L71" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M71" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N71" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K71" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L71" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M71" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N71" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O71" s="60">
         <v>0</v>
@@ -12164,60 +12263,60 @@
         <v>800</v>
       </c>
       <c r="S71" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T71" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U71" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V71" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D72" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E72" s="56" t="s">
+      <c r="G72" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F72" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H72" s="60">
         <v>3000</v>
       </c>
       <c r="I72" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J72" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K72" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J72" s="56" t="s">
+      <c r="L72" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M72" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N72" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K72" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L72" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M72" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N72" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O72" s="60">
         <v>0</v>
@@ -12232,60 +12331,60 @@
         <v>600</v>
       </c>
       <c r="S72" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T72" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U72" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V72" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="56" t="s">
+      <c r="G73" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F73" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G73" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H73" s="60">
         <v>3000</v>
       </c>
       <c r="I73" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J73" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K73" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J73" s="56" t="s">
+      <c r="L73" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M73" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N73" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K73" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L73" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M73" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N73" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O73" s="60">
         <v>0</v>
@@ -12300,60 +12399,60 @@
         <v>600</v>
       </c>
       <c r="S73" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T73" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U73" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V73" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E74" s="56" t="s">
+      <c r="G74" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F74" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G74" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H74" s="60">
         <v>3000</v>
       </c>
       <c r="I74" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J74" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K74" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J74" s="56" t="s">
+      <c r="L74" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M74" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N74" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K74" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L74" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M74" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N74" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O74" s="60">
         <v>0</v>
@@ -12368,60 +12467,60 @@
         <v>600</v>
       </c>
       <c r="S74" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T74" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U74" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V74" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E75" s="56" t="s">
+      <c r="G75" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F75" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G75" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H75" s="60">
         <v>3000</v>
       </c>
       <c r="I75" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K75" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J75" s="56" t="s">
+      <c r="L75" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M75" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N75" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L75" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M75" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N75" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O75" s="60">
         <v>0</v>
@@ -12436,60 +12535,60 @@
         <v>600</v>
       </c>
       <c r="S75" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T75" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U75" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V75" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D76" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E76" s="56" t="s">
+      <c r="G76" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F76" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G76" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H76" s="60">
         <v>3000</v>
       </c>
       <c r="I76" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J76" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K76" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J76" s="56" t="s">
+      <c r="L76" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M76" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N76" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K76" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L76" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M76" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N76" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O76" s="60">
         <v>0</v>
@@ -12504,60 +12603,60 @@
         <v>600</v>
       </c>
       <c r="S76" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T76" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U76" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V76" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D77" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E77" s="56" t="s">
+      <c r="G77" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F77" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G77" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H77" s="60">
         <v>3000</v>
       </c>
       <c r="I77" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J77" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K77" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J77" s="56" t="s">
+      <c r="L77" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M77" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N77" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K77" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L77" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M77" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N77" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O77" s="60">
         <v>0</v>
@@ -12572,60 +12671,60 @@
         <v>600</v>
       </c>
       <c r="S77" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T77" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U77" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V77" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D78" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E78" s="56" t="s">
+      <c r="G78" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G78" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H78" s="60">
         <v>3000</v>
       </c>
       <c r="I78" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J78" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K78" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J78" s="56" t="s">
+      <c r="L78" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M78" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N78" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K78" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L78" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M78" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N78" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O78" s="60">
         <v>0</v>
@@ -12640,60 +12739,60 @@
         <v>600</v>
       </c>
       <c r="S78" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T78" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V78" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D79" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F79" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="G79" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F79" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G79" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H79" s="60">
         <v>3000</v>
       </c>
       <c r="I79" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J79" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K79" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J79" s="56" t="s">
+      <c r="L79" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M79" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N79" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K79" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L79" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M79" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N79" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O79" s="60">
         <v>0</v>
@@ -12708,60 +12807,60 @@
         <v>600</v>
       </c>
       <c r="S79" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T79" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V79" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D80" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E80" s="56" t="s">
+      <c r="G80" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F80" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G80" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H80" s="60">
         <v>3000</v>
       </c>
       <c r="I80" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J80" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K80" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J80" s="56" t="s">
+      <c r="L80" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M80" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N80" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K80" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L80" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M80" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N80" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O80" s="60">
         <v>0</v>
@@ -12776,60 +12875,60 @@
         <v>600</v>
       </c>
       <c r="S80" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T80" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U80" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V80" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D81" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E81" s="56" t="s">
+      <c r="G81" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F81" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G81" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H81" s="60">
         <v>3000</v>
       </c>
       <c r="I81" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J81" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K81" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J81" s="56" t="s">
+      <c r="L81" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M81" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N81" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K81" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L81" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M81" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N81" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O81" s="60">
         <v>0</v>
@@ -12844,60 +12943,60 @@
         <v>600</v>
       </c>
       <c r="S81" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T81" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U81" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V81" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D82" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="G82" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G82" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H82" s="60">
         <v>3000</v>
       </c>
       <c r="I82" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J82" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K82" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J82" s="56" t="s">
+      <c r="L82" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M82" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N82" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K82" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L82" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M82" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N82" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O82" s="60">
         <v>0</v>
@@ -12912,60 +13011,60 @@
         <v>700</v>
       </c>
       <c r="S82" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T82" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V82" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F83" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="G83" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F83" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H83" s="60">
         <v>3000</v>
       </c>
       <c r="I83" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J83" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K83" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J83" s="56" t="s">
+      <c r="L83" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M83" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N83" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K83" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L83" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M83" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N83" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O83" s="60">
         <v>0</v>
@@ -12980,60 +13079,60 @@
         <v>800</v>
       </c>
       <c r="S83" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T83" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V83" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D84" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="G84" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F84" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G84" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H84" s="60">
         <v>3000</v>
       </c>
       <c r="I84" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J84" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K84" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J84" s="56" t="s">
+      <c r="L84" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M84" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N84" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K84" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L84" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M84" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N84" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O84" s="60">
         <v>0</v>
@@ -13048,60 +13147,60 @@
         <v>800</v>
       </c>
       <c r="S84" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T84" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V84" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D85" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="G85" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F85" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G85" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H85" s="60">
         <v>3000</v>
       </c>
       <c r="I85" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J85" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K85" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J85" s="56" t="s">
+      <c r="L85" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M85" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N85" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K85" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L85" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M85" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N85" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O85" s="60">
         <v>0</v>
@@ -13116,60 +13215,60 @@
         <v>600</v>
       </c>
       <c r="S85" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T85" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V85" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D86" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E86" s="56" t="s">
+      <c r="G86" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F86" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G86" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H86" s="60">
         <v>3000</v>
       </c>
       <c r="I86" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J86" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K86" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J86" s="56" t="s">
+      <c r="L86" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M86" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N86" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K86" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L86" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M86" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N86" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O86" s="60">
         <v>0</v>
@@ -13184,60 +13283,60 @@
         <v>600</v>
       </c>
       <c r="S86" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T86" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U86" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V86" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D87" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F87" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="G87" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F87" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G87" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H87" s="60">
         <v>3000</v>
       </c>
       <c r="I87" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J87" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K87" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J87" s="56" t="s">
+      <c r="L87" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M87" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N87" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K87" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L87" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M87" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N87" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O87" s="60">
         <v>0</v>
@@ -13252,60 +13351,60 @@
         <v>600</v>
       </c>
       <c r="S87" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T87" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U87" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V87" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D88" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E88" s="56" t="s">
+      <c r="G88" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F88" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G88" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H88" s="60">
         <v>3000</v>
       </c>
       <c r="I88" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J88" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K88" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J88" s="56" t="s">
+      <c r="L88" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M88" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N88" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K88" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L88" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M88" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N88" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O88" s="60">
         <v>0</v>
@@ -13320,60 +13419,60 @@
         <v>600</v>
       </c>
       <c r="S88" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T88" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U88" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V88" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D89" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F89" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="G89" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F89" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G89" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H89" s="60">
         <v>3000</v>
       </c>
       <c r="I89" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J89" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K89" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J89" s="56" t="s">
+      <c r="L89" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M89" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N89" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K89" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L89" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M89" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N89" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O89" s="60">
         <v>0</v>
@@ -13388,60 +13487,60 @@
         <v>600</v>
       </c>
       <c r="S89" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T89" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U89" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V89" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B90" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D90" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F90" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="G90" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F90" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G90" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H90" s="60">
         <v>3000</v>
       </c>
       <c r="I90" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J90" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K90" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J90" s="56" t="s">
+      <c r="L90" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M90" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N90" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K90" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L90" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M90" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N90" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O90" s="60">
         <v>0</v>
@@ -13456,60 +13555,60 @@
         <v>600</v>
       </c>
       <c r="S90" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T90" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V90" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D91" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="G91" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F91" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G91" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H91" s="60">
         <v>3000</v>
       </c>
       <c r="I91" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J91" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K91" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J91" s="56" t="s">
+      <c r="L91" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M91" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N91" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K91" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L91" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M91" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N91" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O91" s="60">
         <v>0</v>
@@ -13524,60 +13623,60 @@
         <v>600</v>
       </c>
       <c r="S91" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T91" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V91" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="G92" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F92" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G92" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H92" s="60">
         <v>3000</v>
       </c>
       <c r="I92" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J92" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K92" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J92" s="56" t="s">
+      <c r="L92" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M92" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N92" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K92" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L92" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M92" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N92" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O92" s="60">
         <v>0</v>
@@ -13592,60 +13691,60 @@
         <v>600</v>
       </c>
       <c r="S92" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T92" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V92" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D93" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F93" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="G93" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F93" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G93" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H93" s="60">
         <v>3000</v>
       </c>
       <c r="I93" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J93" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K93" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J93" s="56" t="s">
+      <c r="L93" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M93" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N93" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K93" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L93" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M93" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N93" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O93" s="60">
         <v>0</v>
@@ -13660,60 +13759,60 @@
         <v>600</v>
       </c>
       <c r="S93" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T93" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V93" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D94" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="G94" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F94" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G94" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H94" s="60">
         <v>3000</v>
       </c>
       <c r="I94" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J94" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K94" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J94" s="56" t="s">
+      <c r="L94" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M94" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N94" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K94" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L94" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M94" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N94" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O94" s="60">
         <v>0</v>
@@ -13728,60 +13827,60 @@
         <v>700</v>
       </c>
       <c r="S94" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T94" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U94" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V94" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D95" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F95" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="G95" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F95" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G95" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H95" s="60">
         <v>3000</v>
       </c>
       <c r="I95" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J95" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K95" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J95" s="56" t="s">
+      <c r="L95" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M95" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N95" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K95" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L95" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M95" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N95" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O95" s="60">
         <v>0</v>
@@ -13796,60 +13895,60 @@
         <v>800</v>
       </c>
       <c r="S95" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T95" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V95" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D96" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E96" s="56" t="s">
+      <c r="G96" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F96" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G96" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H96" s="60">
         <v>3000</v>
       </c>
       <c r="I96" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J96" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K96" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J96" s="56" t="s">
+      <c r="L96" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M96" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N96" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K96" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L96" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M96" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N96" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O96" s="60">
         <v>0</v>
@@ -13864,60 +13963,60 @@
         <v>800</v>
       </c>
       <c r="S96" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T96" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V96" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D97" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F97" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E97" s="56" t="s">
+      <c r="G97" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F97" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G97" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H97" s="60">
         <v>3000</v>
       </c>
       <c r="I97" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J97" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K97" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J97" s="56" t="s">
+      <c r="L97" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M97" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N97" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K97" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L97" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M97" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N97" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O97" s="60">
         <v>0</v>
@@ -13932,60 +14031,60 @@
         <v>600</v>
       </c>
       <c r="S97" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T97" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V97" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B98" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D98" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="G98" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F98" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G98" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H98" s="60">
         <v>3000</v>
       </c>
       <c r="I98" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J98" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K98" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J98" s="56" t="s">
+      <c r="L98" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M98" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N98" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K98" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L98" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M98" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N98" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O98" s="60">
         <v>0</v>
@@ -14000,60 +14099,60 @@
         <v>600</v>
       </c>
       <c r="S98" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T98" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V98" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B99" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D99" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F99" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="G99" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="F99" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="G99" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="H99" s="60">
         <v>3000</v>
       </c>
       <c r="I99" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J99" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="K99" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J99" s="56" t="s">
+      <c r="L99" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="M99" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="N99" s="56" t="s">
         <v>249</v>
-      </c>
-      <c r="K99" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L99" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="M99" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="N99" s="56" t="s">
-        <v>251</v>
       </c>
       <c r="O99" s="60">
         <v>0</v>
@@ -14068,79 +14167,79 @@
         <v>600</v>
       </c>
       <c r="S99" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T99" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U99" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V99" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="B102" s="62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="54.85">
       <c r="A103" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="C103" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="55" t="s">
+      <c r="F103" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E103" s="55" t="s">
+      <c r="G103" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="F103" s="55" t="s">
+      <c r="H103" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="I103" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="H103" s="55" t="s">
+      <c r="J103" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="I103" s="55" t="s">
+      <c r="K103" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="J103" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="K103" s="55" t="s">
-        <v>262</v>
-      </c>
       <c r="L103" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M103" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="N103" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="N103" s="55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B104" s="56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C104" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E104" s="60">
         <v>190000</v>
@@ -14167,55 +14266,55 @@
         <v>0</v>
       </c>
       <c r="M104" s="56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N104" s="56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="B107" s="59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="36.549999999999997">
       <c r="A108" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F108" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G108" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="H108" s="55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B109" s="60">
         <v>1</v>
       </c>
       <c r="C109" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E109" s="61">
         <v>0</v>
@@ -14224,64 +14323,64 @@
         <v>0</v>
       </c>
       <c r="G109" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H109" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:22">
       <c r="B112" s="59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="91.4">
       <c r="A113" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="C113" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" s="55" t="s">
+      <c r="F113" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="E113" s="55" t="s">
+      <c r="G113" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="F113" s="55" t="s">
+      <c r="H113" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="G113" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="H113" s="55" t="s">
-        <v>274</v>
-      </c>
       <c r="I113" s="55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J113" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K113" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="L113" s="55" t="s">
         <v>89</v>
-      </c>
-      <c r="L113" s="55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B114" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C114" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D114" s="61">
         <v>0.1</v>
@@ -14305,116 +14404,116 @@
         <v>0</v>
       </c>
       <c r="K114" s="56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L114" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:32">
       <c r="B117" s="62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E117" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F117" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="G117" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="F117" s="63" t="s">
+      <c r="H117" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="G117" s="63" t="s">
+      <c r="I117" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="H117" s="63" t="s">
+      <c r="J117" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="I117" s="63" t="s">
+      <c r="K117" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="J117" s="63" t="s">
+      <c r="L117" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="K117" s="63" t="s">
+      <c r="M117" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="L117" s="63" t="s">
+      <c r="N117" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="M117" s="63" t="s">
+      <c r="O117" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="N117" s="63" t="s">
+      <c r="P117" s="63" t="s">
         <v>195</v>
-      </c>
-      <c r="O117" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="P117" s="63" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:32" ht="36.549999999999997">
       <c r="A118" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B118" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D118" s="55" t="s">
+      <c r="F118" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E118" s="64" t="s">
+      <c r="G118" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="F118" s="64" t="s">
+      <c r="H118" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G118" s="64" t="s">
+      <c r="I118" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="H118" s="64" t="s">
+      <c r="J118" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="I118" s="64" t="s">
+      <c r="K118" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="J118" s="64" t="s">
+      <c r="L118" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="K118" s="64" t="s">
+      <c r="M118" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="L118" s="64" t="s">
+      <c r="N118" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="M118" s="64" t="s">
+      <c r="O118" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="N118" s="64" t="s">
+      <c r="P118" s="64" t="s">
         <v>161</v>
-      </c>
-      <c r="O118" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="P118" s="64" t="s">
-        <v>163</v>
       </c>
       <c r="AF118" s="65"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B119" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C119" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D119" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E119" s="60">
         <v>1000</v>
@@ -14456,16 +14555,16 @@
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B120" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C120" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D120" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E120" s="60">
         <v>1000</v>
@@ -14507,16 +14606,16 @@
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B121" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C121" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E121" s="60">
         <v>1000</v>
@@ -14558,93 +14657,93 @@
     </row>
     <row r="125" spans="1:32">
       <c r="B125" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F125" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="E125" s="63" t="s">
+      <c r="G125" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="63" t="s">
+      <c r="H125" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="G125" s="63" t="s">
+      <c r="I125" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="H125" s="63" t="s">
+      <c r="J125" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="I125" s="63" t="s">
+      <c r="K125" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="J125" s="63" t="s">
+      <c r="L125" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="K125" s="63" t="s">
+      <c r="M125" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="L125" s="63" t="s">
+      <c r="N125" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="M125" s="63" t="s">
+      <c r="O125" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="N125" s="63" t="s">
+      <c r="P125" s="63" t="s">
         <v>195</v>
-      </c>
-      <c r="O125" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="P125" s="63" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="36.549999999999997">
       <c r="A126" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C126" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D126" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E126" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G126" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="55" t="s">
+      <c r="H126" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="G126" s="55" t="s">
+      <c r="I126" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="H126" s="55" t="s">
+      <c r="J126" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="I126" s="55" t="s">
+      <c r="K126" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="J126" s="55" t="s">
+      <c r="L126" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="K126" s="55" t="s">
+      <c r="M126" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="L126" s="55" t="s">
+      <c r="N126" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="M126" s="55" t="s">
+      <c r="O126" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="N126" s="55" t="s">
+      <c r="P126" s="67" t="s">
         <v>181</v>
-      </c>
-      <c r="O126" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="P126" s="67" t="s">
-        <v>183</v>
       </c>
       <c r="Q126" s="68"/>
       <c r="R126" s="68"/>
@@ -14652,16 +14751,16 @@
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B127" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C127" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D127" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E127" s="60">
         <v>1000</v>
@@ -14705,16 +14804,16 @@
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B128" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E128" s="60">
         <v>1000</v>
@@ -14758,16 +14857,16 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B129" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E129" s="60">
         <v>1000</v>
@@ -14823,7 +14922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>

--- a/DOC/単体テスト/EMSM_単体テスト仕様書-給料リスト.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-給料リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\git\emsm\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B3E67-CBA4-47AC-9AE7-A13BB3D3E158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A3083-68B6-4439-A039-7FDD8B01AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-89" yWindow="0" windowWidth="8397" windowHeight="11332" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2149" yWindow="244" windowWidth="18332" windowHeight="10534" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="359">
   <si>
     <t>画面名</t>
   </si>
@@ -2035,6 +2035,10 @@
     <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
 ②採番月をもとに各項目の値を各テーブルから表示
 ③表示したデータをsalaryinfoDBに新規追加する</t>
+  </si>
+  <si>
+    <t>環境上に
+テスト不可</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2905,92 +2909,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3039,6 +2962,90 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3699,7 +3706,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="14" spans="1:24" s="3" customFormat="1">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3735,7 +3742,7 @@
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.95">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="21.6">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3755,7 +3762,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="17" spans="1:24" s="3" customFormat="1">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3773,7 +3780,7 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="18" spans="1:24" s="3" customFormat="1">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -3793,7 +3800,7 @@
       <c r="R18" s="77"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="19" spans="1:24" s="3" customFormat="1">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -3813,7 +3820,7 @@
       <c r="R19" s="80"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="20" spans="1:24" s="3" customFormat="1">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -3831,7 +3838,7 @@
       <c r="R20" s="83"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="21" spans="1:24" s="3" customFormat="1">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3849,7 +3856,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.3">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="13.3">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -3869,7 +3876,7 @@
       <c r="R22" s="85"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="23" spans="1:24" s="3" customFormat="1">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -3889,7 +3896,7 @@
       <c r="R23" s="88"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="24" spans="1:24" s="3" customFormat="1">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -3907,7 +3914,7 @@
       <c r="R24" s="91"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="25" spans="1:24" s="3" customFormat="1">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -4108,7 +4115,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4132,7 +4139,7 @@
     <col min="6" max="16384" width="8.19921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>64</v>
@@ -4140,7 +4147,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5" ht="18.3">
+    <row r="3" spans="2:5">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4154,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -4168,7 +4175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.3">
+    <row r="5" spans="2:5">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4252,11 +4259,11 @@
   <dimension ref="A1:CF52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ57" sqref="AZ57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18.3"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.3"/>
   <cols>
     <col min="1" max="3" width="2.09765625" style="46" customWidth="1"/>
     <col min="4" max="4" width="2.09765625" style="47" customWidth="1"/>
@@ -4353,38 +4360,38 @@
       <c r="BQ1" s="35"/>
     </row>
     <row r="2" spans="1:84" s="36" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
       <c r="AU2" s="37"/>
       <c r="AV2" s="37"/>
       <c r="AW2" s="37"/>
@@ -4410,36 +4417,36 @@
       <c r="BQ2" s="35"/>
     </row>
     <row r="3" spans="1:84" s="36" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
       <c r="AU3" s="37"/>
       <c r="AV3" s="37"/>
       <c r="AW3" s="37"/>
@@ -4465,411 +4472,411 @@
       <c r="BQ3" s="39"/>
     </row>
     <row r="4" spans="1:84" s="36" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="122" t="s">
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125" t="s">
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="128" t="s">
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="129"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="131">
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="104">
         <v>45077</v>
       </c>
-      <c r="BE4" s="132"/>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="132"/>
-      <c r="BI4" s="132"/>
-      <c r="BJ4" s="128" t="s">
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="131" t="s">
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="BN4" s="132"/>
-      <c r="BO4" s="132"/>
-      <c r="BP4" s="132"/>
+      <c r="BN4" s="105"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="105"/>
       <c r="BQ4" s="43"/>
     </row>
     <row r="5" spans="1:84" s="36" customFormat="1" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="133" t="s">
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="139"/>
-      <c r="AL5" s="139"/>
-      <c r="AM5" s="139"/>
-      <c r="AN5" s="139"/>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="139"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="139"/>
-      <c r="AS5" s="139"/>
-      <c r="AT5" s="139"/>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
-      <c r="AX5" s="139"/>
-      <c r="AY5" s="139"/>
-      <c r="AZ5" s="140"/>
-      <c r="BA5" s="141" t="s">
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="BB5" s="142"/>
-      <c r="BC5" s="143"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="141" t="s">
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="143"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="139"/>
-      <c r="BO5" s="139"/>
-      <c r="BP5" s="139"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="112"/>
+      <c r="BO5" s="112"/>
+      <c r="BP5" s="112"/>
       <c r="BQ5" s="45"/>
     </row>
-    <row r="6" spans="1:84" ht="18.850000000000001" thickTop="1">
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
+    <row r="6" spans="1:84" ht="13.85" thickTop="1">
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
       <c r="AF6" s="46"/>
-      <c r="BL6" s="107"/>
-      <c r="BM6" s="107"/>
-      <c r="BN6" s="107"/>
-      <c r="BO6" s="107"/>
-      <c r="BP6" s="107"/>
-      <c r="BQ6" s="107"/>
+      <c r="BL6" s="143"/>
+      <c r="BM6" s="143"/>
+      <c r="BN6" s="143"/>
+      <c r="BO6" s="143"/>
+      <c r="BP6" s="143"/>
+      <c r="BQ6" s="143"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="101" t="s">
+      <c r="B7" s="139"/>
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="102"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="139"/>
       <c r="P7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="101" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="108" t="s">
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="139"/>
+      <c r="AN7" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="110"/>
-      <c r="AS7" s="101" t="s">
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="133"/>
+      <c r="AS7" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="102"/>
-      <c r="BG7" s="101" t="s">
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
+      <c r="AX7" s="138"/>
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="139"/>
+      <c r="BG7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
-      <c r="BQ7" s="105"/>
-      <c r="BR7" s="105"/>
-      <c r="BS7" s="105"/>
-      <c r="BT7" s="105"/>
-      <c r="BU7" s="102"/>
-      <c r="BV7" s="108" t="s">
+      <c r="BH7" s="138"/>
+      <c r="BI7" s="138"/>
+      <c r="BJ7" s="138"/>
+      <c r="BK7" s="138"/>
+      <c r="BL7" s="138"/>
+      <c r="BM7" s="138"/>
+      <c r="BN7" s="138"/>
+      <c r="BO7" s="138"/>
+      <c r="BP7" s="138"/>
+      <c r="BQ7" s="138"/>
+      <c r="BR7" s="138"/>
+      <c r="BS7" s="138"/>
+      <c r="BT7" s="138"/>
+      <c r="BU7" s="139"/>
+      <c r="BV7" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="BW7" s="109"/>
-      <c r="BX7" s="109"/>
-      <c r="BY7" s="110"/>
-      <c r="BZ7" s="108" t="s">
+      <c r="BW7" s="132"/>
+      <c r="BX7" s="132"/>
+      <c r="BY7" s="133"/>
+      <c r="BZ7" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="CA7" s="109"/>
-      <c r="CB7" s="110"/>
-      <c r="CC7" s="108" t="s">
+      <c r="CA7" s="132"/>
+      <c r="CB7" s="133"/>
+      <c r="CC7" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="CD7" s="109"/>
-      <c r="CE7" s="109"/>
-      <c r="CF7" s="110"/>
+      <c r="CD7" s="132"/>
+      <c r="CE7" s="132"/>
+      <c r="CF7" s="133"/>
     </row>
     <row r="8" spans="1:84">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="142"/>
       <c r="P8" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="100"/>
+      <c r="Q8" s="99"/>
       <c r="R8" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="100"/>
+      <c r="S8" s="99"/>
       <c r="T8" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="100"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="100"/>
+      <c r="W8" s="99"/>
       <c r="X8" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="100"/>
+      <c r="Y8" s="99"/>
       <c r="Z8" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="AA8" s="100"/>
+      <c r="AA8" s="99"/>
       <c r="AB8" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AC8" s="100"/>
+      <c r="AC8" s="99"/>
       <c r="AD8" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="99"/>
       <c r="AH8" s="49" t="s">
         <v>20</v>
       </c>
       <c r="AI8" s="41"/>
       <c r="AJ8" s="42"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="113"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="106"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="106"/>
-      <c r="BC8" s="106"/>
-      <c r="BD8" s="106"/>
-      <c r="BE8" s="106"/>
-      <c r="BF8" s="104"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="106"/>
-      <c r="BI8" s="106"/>
-      <c r="BJ8" s="106"/>
-      <c r="BK8" s="106"/>
-      <c r="BL8" s="106"/>
-      <c r="BM8" s="106"/>
-      <c r="BN8" s="106"/>
-      <c r="BO8" s="106"/>
-      <c r="BP8" s="106"/>
-      <c r="BQ8" s="106"/>
-      <c r="BR8" s="106"/>
-      <c r="BS8" s="106"/>
-      <c r="BT8" s="106"/>
-      <c r="BU8" s="104"/>
-      <c r="BV8" s="111"/>
-      <c r="BW8" s="112"/>
-      <c r="BX8" s="112"/>
-      <c r="BY8" s="113"/>
-      <c r="BZ8" s="111"/>
-      <c r="CA8" s="112"/>
-      <c r="CB8" s="113"/>
-      <c r="CC8" s="111"/>
-      <c r="CD8" s="112"/>
-      <c r="CE8" s="112"/>
-      <c r="CF8" s="113"/>
+      <c r="AK8" s="140"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="142"/>
+      <c r="AN8" s="134"/>
+      <c r="AO8" s="135"/>
+      <c r="AP8" s="135"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="136"/>
+      <c r="AS8" s="140"/>
+      <c r="AT8" s="141"/>
+      <c r="AU8" s="141"/>
+      <c r="AV8" s="141"/>
+      <c r="AW8" s="141"/>
+      <c r="AX8" s="141"/>
+      <c r="AY8" s="141"/>
+      <c r="AZ8" s="141"/>
+      <c r="BA8" s="141"/>
+      <c r="BB8" s="141"/>
+      <c r="BC8" s="141"/>
+      <c r="BD8" s="141"/>
+      <c r="BE8" s="141"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="140"/>
+      <c r="BH8" s="141"/>
+      <c r="BI8" s="141"/>
+      <c r="BJ8" s="141"/>
+      <c r="BK8" s="141"/>
+      <c r="BL8" s="141"/>
+      <c r="BM8" s="141"/>
+      <c r="BN8" s="141"/>
+      <c r="BO8" s="141"/>
+      <c r="BP8" s="141"/>
+      <c r="BQ8" s="141"/>
+      <c r="BR8" s="141"/>
+      <c r="BS8" s="141"/>
+      <c r="BT8" s="141"/>
+      <c r="BU8" s="142"/>
+      <c r="BV8" s="134"/>
+      <c r="BW8" s="135"/>
+      <c r="BX8" s="135"/>
+      <c r="BY8" s="136"/>
+      <c r="BZ8" s="134"/>
+      <c r="CA8" s="135"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="134"/>
+      <c r="CD8" s="135"/>
+      <c r="CE8" s="135"/>
+      <c r="CF8" s="136"/>
     </row>
     <row r="9" spans="1:84" ht="75.05" customHeight="1">
       <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="100"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="51" t="s">
         <v>65</v>
       </c>
@@ -4888,27 +4895,27 @@
       <c r="P9" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="100"/>
+      <c r="Q9" s="99"/>
       <c r="R9" s="98"/>
-      <c r="S9" s="100"/>
+      <c r="S9" s="99"/>
       <c r="T9" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="100"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="98"/>
-      <c r="W9" s="100"/>
+      <c r="W9" s="99"/>
       <c r="X9" s="98"/>
-      <c r="Y9" s="100"/>
+      <c r="Y9" s="99"/>
       <c r="Z9" s="98"/>
-      <c r="AA9" s="100"/>
+      <c r="AA9" s="99"/>
       <c r="AB9" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC9" s="100"/>
+      <c r="AC9" s="99"/>
       <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="99"/>
       <c r="AH9" s="50"/>
       <c r="AI9" s="41"/>
       <c r="AJ9" s="42"/>
@@ -4973,7 +4980,7 @@
       <c r="A10" s="98">
         <v>2</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="49" t="s">
         <v>74</v>
       </c>
@@ -4992,25 +4999,25 @@
       <c r="P10" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="100"/>
+      <c r="Q10" s="99"/>
       <c r="R10" s="98"/>
-      <c r="S10" s="100"/>
+      <c r="S10" s="99"/>
       <c r="T10" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="100"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="98"/>
-      <c r="W10" s="100"/>
+      <c r="W10" s="99"/>
       <c r="X10" s="98"/>
-      <c r="Y10" s="100"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="98"/>
-      <c r="AA10" s="100"/>
+      <c r="AA10" s="99"/>
       <c r="AB10" s="98"/>
-      <c r="AC10" s="100"/>
+      <c r="AC10" s="99"/>
       <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="99"/>
       <c r="AH10" s="50"/>
       <c r="AI10" s="41"/>
       <c r="AJ10" s="42"/>
@@ -5075,7 +5082,7 @@
       <c r="A11" s="98">
         <v>3</v>
       </c>
-      <c r="B11" s="100"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="51" t="s">
         <v>73</v>
       </c>
@@ -5094,29 +5101,29 @@
       <c r="P11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="100"/>
+      <c r="Q11" s="99"/>
       <c r="R11" s="98"/>
-      <c r="S11" s="100"/>
+      <c r="S11" s="99"/>
       <c r="T11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="100"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="98"/>
-      <c r="W11" s="100"/>
+      <c r="W11" s="99"/>
       <c r="X11" s="98"/>
-      <c r="Y11" s="100"/>
+      <c r="Y11" s="99"/>
       <c r="Z11" s="98"/>
-      <c r="AA11" s="100"/>
+      <c r="AA11" s="99"/>
       <c r="AB11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC11" s="100"/>
+      <c r="AC11" s="99"/>
       <c r="AD11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="99"/>
       <c r="AH11" s="50"/>
       <c r="AI11" s="41"/>
       <c r="AJ11" s="42"/>
@@ -5181,7 +5188,7 @@
       <c r="A12" s="98">
         <v>4</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="51" t="s">
         <v>73</v>
       </c>
@@ -5200,27 +5207,27 @@
       <c r="P12" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="100"/>
+      <c r="Q12" s="99"/>
       <c r="R12" s="98"/>
-      <c r="S12" s="100"/>
+      <c r="S12" s="99"/>
       <c r="T12" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U12" s="100"/>
+      <c r="U12" s="99"/>
       <c r="V12" s="98"/>
-      <c r="W12" s="100"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="98"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="99"/>
       <c r="Z12" s="98"/>
-      <c r="AA12" s="100"/>
+      <c r="AA12" s="99"/>
       <c r="AB12" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC12" s="100"/>
+      <c r="AC12" s="99"/>
       <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="100"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="99"/>
       <c r="AH12" s="50"/>
       <c r="AI12" s="41"/>
       <c r="AJ12" s="42"/>
@@ -5285,7 +5292,7 @@
       <c r="A13" s="98">
         <v>5</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="51" t="s">
         <v>72</v>
       </c>
@@ -5304,27 +5311,27 @@
       <c r="P13" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="100"/>
+      <c r="Q13" s="99"/>
       <c r="R13" s="98"/>
-      <c r="S13" s="100"/>
+      <c r="S13" s="99"/>
       <c r="T13" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U13" s="100"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="98"/>
-      <c r="W13" s="100"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="98"/>
-      <c r="Y13" s="100"/>
+      <c r="Y13" s="99"/>
       <c r="Z13" s="98"/>
-      <c r="AA13" s="100"/>
+      <c r="AA13" s="99"/>
       <c r="AB13" s="98"/>
-      <c r="AC13" s="100"/>
+      <c r="AC13" s="99"/>
       <c r="AD13" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="99"/>
       <c r="AH13" s="50"/>
       <c r="AI13" s="41"/>
       <c r="AJ13" s="42"/>
@@ -5389,7 +5396,7 @@
       <c r="A14" s="98">
         <v>6</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="51" t="s">
         <v>72</v>
       </c>
@@ -5408,29 +5415,29 @@
       <c r="P14" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="100"/>
+      <c r="Q14" s="99"/>
       <c r="R14" s="98"/>
-      <c r="S14" s="100"/>
+      <c r="S14" s="99"/>
       <c r="T14" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U14" s="100"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="98"/>
-      <c r="W14" s="100"/>
+      <c r="W14" s="99"/>
       <c r="X14" s="98"/>
-      <c r="Y14" s="100"/>
+      <c r="Y14" s="99"/>
       <c r="Z14" s="98"/>
-      <c r="AA14" s="100"/>
+      <c r="AA14" s="99"/>
       <c r="AB14" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC14" s="100"/>
+      <c r="AC14" s="99"/>
       <c r="AD14" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="99"/>
       <c r="AH14" s="50"/>
       <c r="AI14" s="41"/>
       <c r="AJ14" s="42"/>
@@ -5495,7 +5502,7 @@
       <c r="A15" s="98">
         <v>7</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="51" t="s">
         <v>72</v>
       </c>
@@ -5514,29 +5521,29 @@
       <c r="P15" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="100"/>
+      <c r="Q15" s="99"/>
       <c r="R15" s="98"/>
-      <c r="S15" s="100"/>
+      <c r="S15" s="99"/>
       <c r="T15" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U15" s="100"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="98"/>
-      <c r="W15" s="100"/>
+      <c r="W15" s="99"/>
       <c r="X15" s="98"/>
-      <c r="Y15" s="100"/>
+      <c r="Y15" s="99"/>
       <c r="Z15" s="98"/>
-      <c r="AA15" s="100"/>
+      <c r="AA15" s="99"/>
       <c r="AB15" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC15" s="100"/>
+      <c r="AC15" s="99"/>
       <c r="AD15" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="99"/>
       <c r="AH15" s="50"/>
       <c r="AI15" s="41"/>
       <c r="AJ15" s="42"/>
@@ -5601,7 +5608,7 @@
       <c r="A16" s="98">
         <v>8</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="51" t="s">
         <v>72</v>
       </c>
@@ -5620,27 +5627,27 @@
       <c r="P16" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="100"/>
+      <c r="Q16" s="99"/>
       <c r="R16" s="98"/>
-      <c r="S16" s="100"/>
+      <c r="S16" s="99"/>
       <c r="T16" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="100"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="98"/>
-      <c r="W16" s="100"/>
+      <c r="W16" s="99"/>
       <c r="X16" s="98"/>
-      <c r="Y16" s="100"/>
+      <c r="Y16" s="99"/>
       <c r="Z16" s="98"/>
-      <c r="AA16" s="100"/>
+      <c r="AA16" s="99"/>
       <c r="AB16" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC16" s="100"/>
+      <c r="AC16" s="99"/>
       <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="99"/>
       <c r="AH16" s="50"/>
       <c r="AI16" s="41"/>
       <c r="AJ16" s="42"/>
@@ -5705,7 +5712,7 @@
       <c r="A17" s="98">
         <v>9</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="51" t="s">
         <v>82</v>
       </c>
@@ -5724,25 +5731,25 @@
       <c r="P17" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q17" s="100"/>
+      <c r="Q17" s="99"/>
       <c r="R17" s="98"/>
-      <c r="S17" s="100"/>
+      <c r="S17" s="99"/>
       <c r="T17" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U17" s="100"/>
+      <c r="U17" s="99"/>
       <c r="V17" s="98"/>
-      <c r="W17" s="100"/>
+      <c r="W17" s="99"/>
       <c r="X17" s="98"/>
-      <c r="Y17" s="100"/>
+      <c r="Y17" s="99"/>
       <c r="Z17" s="98"/>
-      <c r="AA17" s="100"/>
+      <c r="AA17" s="99"/>
       <c r="AB17" s="98"/>
-      <c r="AC17" s="100"/>
+      <c r="AC17" s="99"/>
       <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="99"/>
       <c r="AH17" s="50"/>
       <c r="AI17" s="41"/>
       <c r="AJ17" s="42"/>
@@ -5807,7 +5814,7 @@
       <c r="A18" s="98">
         <v>10</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="49" t="s">
         <v>335</v>
       </c>
@@ -5826,27 +5833,27 @@
       <c r="P18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="100"/>
+      <c r="Q18" s="99"/>
       <c r="R18" s="98"/>
-      <c r="S18" s="100"/>
+      <c r="S18" s="99"/>
       <c r="T18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U18" s="100"/>
+      <c r="U18" s="99"/>
       <c r="V18" s="98"/>
-      <c r="W18" s="100"/>
+      <c r="W18" s="99"/>
       <c r="X18" s="98"/>
-      <c r="Y18" s="100"/>
+      <c r="Y18" s="99"/>
       <c r="Z18" s="98"/>
-      <c r="AA18" s="100"/>
+      <c r="AA18" s="99"/>
       <c r="AB18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC18" s="100"/>
+      <c r="AC18" s="99"/>
       <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="99"/>
       <c r="AH18" s="50"/>
       <c r="AI18" s="41"/>
       <c r="AJ18" s="42"/>
@@ -5911,7 +5918,7 @@
       <c r="A19" s="98">
         <v>11</v>
       </c>
-      <c r="B19" s="100"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="51" t="s">
         <v>327</v>
       </c>
@@ -5930,27 +5937,27 @@
       <c r="P19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="100"/>
+      <c r="Q19" s="99"/>
       <c r="R19" s="98"/>
-      <c r="S19" s="100"/>
+      <c r="S19" s="99"/>
       <c r="T19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U19" s="100"/>
+      <c r="U19" s="99"/>
       <c r="V19" s="98"/>
-      <c r="W19" s="100"/>
+      <c r="W19" s="99"/>
       <c r="X19" s="98"/>
-      <c r="Y19" s="100"/>
+      <c r="Y19" s="99"/>
       <c r="Z19" s="98"/>
-      <c r="AA19" s="100"/>
+      <c r="AA19" s="99"/>
       <c r="AB19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC19" s="100"/>
+      <c r="AC19" s="99"/>
       <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="99"/>
       <c r="AH19" s="50"/>
       <c r="AI19" s="41"/>
       <c r="AJ19" s="42"/>
@@ -6015,7 +6022,7 @@
       <c r="A20" s="98">
         <v>12</v>
       </c>
-      <c r="B20" s="100"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="49" t="s">
         <v>121</v>
       </c>
@@ -6034,27 +6041,27 @@
       <c r="P20" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="100"/>
+      <c r="Q20" s="99"/>
       <c r="R20" s="98"/>
-      <c r="S20" s="100"/>
+      <c r="S20" s="99"/>
       <c r="T20" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="100"/>
+      <c r="U20" s="99"/>
       <c r="V20" s="98"/>
-      <c r="W20" s="100"/>
+      <c r="W20" s="99"/>
       <c r="X20" s="98"/>
-      <c r="Y20" s="100"/>
+      <c r="Y20" s="99"/>
       <c r="Z20" s="98"/>
-      <c r="AA20" s="100"/>
+      <c r="AA20" s="99"/>
       <c r="AB20" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC20" s="100"/>
+      <c r="AC20" s="99"/>
       <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="99"/>
       <c r="AH20" s="50"/>
       <c r="AI20" s="41"/>
       <c r="AJ20" s="42"/>
@@ -6119,7 +6126,7 @@
       <c r="A21" s="98">
         <v>13</v>
       </c>
-      <c r="B21" s="100"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="41" t="s">
         <v>122</v>
       </c>
@@ -6138,27 +6145,27 @@
       <c r="P21" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="100"/>
+      <c r="Q21" s="99"/>
       <c r="R21" s="98"/>
-      <c r="S21" s="100"/>
+      <c r="S21" s="99"/>
       <c r="T21" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U21" s="100"/>
+      <c r="U21" s="99"/>
       <c r="V21" s="98"/>
-      <c r="W21" s="100"/>
+      <c r="W21" s="99"/>
       <c r="X21" s="98"/>
-      <c r="Y21" s="100"/>
+      <c r="Y21" s="99"/>
       <c r="Z21" s="98"/>
-      <c r="AA21" s="100"/>
+      <c r="AA21" s="99"/>
       <c r="AB21" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC21" s="100"/>
+      <c r="AC21" s="99"/>
       <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="99"/>
       <c r="AH21" s="50"/>
       <c r="AI21" s="41"/>
       <c r="AJ21" s="42"/>
@@ -6223,7 +6230,7 @@
       <c r="A22" s="98">
         <v>14</v>
       </c>
-      <c r="B22" s="100"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="51" t="s">
         <v>329</v>
       </c>
@@ -6242,27 +6249,27 @@
       <c r="P22" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="100"/>
+      <c r="Q22" s="99"/>
       <c r="R22" s="98"/>
-      <c r="S22" s="100"/>
+      <c r="S22" s="99"/>
       <c r="T22" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U22" s="100"/>
+      <c r="U22" s="99"/>
       <c r="V22" s="98"/>
-      <c r="W22" s="100"/>
+      <c r="W22" s="99"/>
       <c r="X22" s="98"/>
-      <c r="Y22" s="100"/>
+      <c r="Y22" s="99"/>
       <c r="Z22" s="98"/>
-      <c r="AA22" s="100"/>
+      <c r="AA22" s="99"/>
       <c r="AB22" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC22" s="100"/>
+      <c r="AC22" s="99"/>
       <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="99"/>
       <c r="AH22" s="50"/>
       <c r="AI22" s="41"/>
       <c r="AJ22" s="42"/>
@@ -6327,7 +6334,7 @@
       <c r="A23" s="98">
         <v>15</v>
       </c>
-      <c r="B23" s="100"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="51" t="s">
         <v>123</v>
       </c>
@@ -6346,27 +6353,27 @@
       <c r="P23" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="100"/>
+      <c r="Q23" s="99"/>
       <c r="R23" s="98"/>
-      <c r="S23" s="100"/>
+      <c r="S23" s="99"/>
       <c r="T23" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U23" s="100"/>
+      <c r="U23" s="99"/>
       <c r="V23" s="98"/>
-      <c r="W23" s="100"/>
+      <c r="W23" s="99"/>
       <c r="X23" s="98"/>
-      <c r="Y23" s="100"/>
+      <c r="Y23" s="99"/>
       <c r="Z23" s="98"/>
-      <c r="AA23" s="100"/>
+      <c r="AA23" s="99"/>
       <c r="AB23" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC23" s="100"/>
+      <c r="AC23" s="99"/>
       <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="99"/>
       <c r="AH23" s="50"/>
       <c r="AI23" s="41"/>
       <c r="AJ23" s="42"/>
@@ -6431,7 +6438,7 @@
       <c r="A24" s="98">
         <v>16</v>
       </c>
-      <c r="B24" s="100"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="51" t="s">
         <v>124</v>
       </c>
@@ -6450,27 +6457,27 @@
       <c r="P24" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="100"/>
+      <c r="Q24" s="99"/>
       <c r="R24" s="98"/>
-      <c r="S24" s="100"/>
+      <c r="S24" s="99"/>
       <c r="T24" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U24" s="100"/>
+      <c r="U24" s="99"/>
       <c r="V24" s="98"/>
-      <c r="W24" s="100"/>
+      <c r="W24" s="99"/>
       <c r="X24" s="98"/>
-      <c r="Y24" s="100"/>
+      <c r="Y24" s="99"/>
       <c r="Z24" s="98"/>
-      <c r="AA24" s="100"/>
+      <c r="AA24" s="99"/>
       <c r="AB24" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC24" s="100"/>
+      <c r="AC24" s="99"/>
       <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="99"/>
       <c r="AH24" s="50"/>
       <c r="AI24" s="41"/>
       <c r="AJ24" s="42"/>
@@ -6535,7 +6542,7 @@
       <c r="A25" s="98">
         <v>17</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="51" t="s">
         <v>125</v>
       </c>
@@ -6554,29 +6561,29 @@
       <c r="P25" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q25" s="100"/>
+      <c r="Q25" s="99"/>
       <c r="R25" s="98"/>
-      <c r="S25" s="100"/>
+      <c r="S25" s="99"/>
       <c r="T25" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U25" s="100"/>
+      <c r="U25" s="99"/>
       <c r="V25" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="W25" s="100"/>
+      <c r="W25" s="99"/>
       <c r="X25" s="98"/>
-      <c r="Y25" s="100"/>
+      <c r="Y25" s="99"/>
       <c r="Z25" s="98"/>
-      <c r="AA25" s="100"/>
+      <c r="AA25" s="99"/>
       <c r="AB25" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC25" s="100"/>
+      <c r="AC25" s="99"/>
       <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="99"/>
       <c r="AH25" s="50"/>
       <c r="AI25" s="41"/>
       <c r="AJ25" s="42"/>
@@ -6641,7 +6648,7 @@
       <c r="A26" s="98">
         <v>18</v>
       </c>
-      <c r="B26" s="100"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="51" t="s">
         <v>126</v>
       </c>
@@ -6660,29 +6667,29 @@
       <c r="P26" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="100"/>
+      <c r="Q26" s="99"/>
       <c r="R26" s="98"/>
-      <c r="S26" s="100"/>
+      <c r="S26" s="99"/>
       <c r="T26" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U26" s="100"/>
+      <c r="U26" s="99"/>
       <c r="V26" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="100"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="98"/>
-      <c r="Y26" s="100"/>
+      <c r="Y26" s="99"/>
       <c r="Z26" s="98"/>
-      <c r="AA26" s="100"/>
+      <c r="AA26" s="99"/>
       <c r="AB26" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC26" s="100"/>
+      <c r="AC26" s="99"/>
       <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="99"/>
       <c r="AH26" s="50"/>
       <c r="AI26" s="41"/>
       <c r="AJ26" s="42"/>
@@ -6747,7 +6754,7 @@
       <c r="A27" s="98">
         <v>19</v>
       </c>
-      <c r="B27" s="100"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="51" t="s">
         <v>127</v>
       </c>
@@ -6766,27 +6773,27 @@
       <c r="P27" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q27" s="100"/>
+      <c r="Q27" s="99"/>
       <c r="R27" s="98"/>
-      <c r="S27" s="100"/>
+      <c r="S27" s="99"/>
       <c r="T27" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U27" s="100"/>
+      <c r="U27" s="99"/>
       <c r="V27" s="98"/>
-      <c r="W27" s="100"/>
+      <c r="W27" s="99"/>
       <c r="X27" s="98"/>
-      <c r="Y27" s="100"/>
+      <c r="Y27" s="99"/>
       <c r="Z27" s="98"/>
-      <c r="AA27" s="100"/>
+      <c r="AA27" s="99"/>
       <c r="AB27" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC27" s="100"/>
+      <c r="AC27" s="99"/>
       <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="99"/>
       <c r="AH27" s="50"/>
       <c r="AI27" s="41"/>
       <c r="AJ27" s="42"/>
@@ -6851,7 +6858,7 @@
       <c r="A28" s="98">
         <v>20</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="49" t="s">
         <v>128</v>
       </c>
@@ -6870,27 +6877,27 @@
       <c r="P28" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q28" s="100"/>
+      <c r="Q28" s="99"/>
       <c r="R28" s="98"/>
-      <c r="S28" s="100"/>
+      <c r="S28" s="99"/>
       <c r="T28" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U28" s="100"/>
+      <c r="U28" s="99"/>
       <c r="V28" s="98"/>
-      <c r="W28" s="100"/>
+      <c r="W28" s="99"/>
       <c r="X28" s="98"/>
-      <c r="Y28" s="100"/>
+      <c r="Y28" s="99"/>
       <c r="Z28" s="98"/>
-      <c r="AA28" s="100"/>
+      <c r="AA28" s="99"/>
       <c r="AB28" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC28" s="100"/>
+      <c r="AC28" s="99"/>
       <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="99"/>
       <c r="AH28" s="50"/>
       <c r="AI28" s="41"/>
       <c r="AJ28" s="42"/>
@@ -6955,7 +6962,7 @@
       <c r="A29" s="98">
         <v>21</v>
       </c>
-      <c r="B29" s="100"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="51" t="s">
         <v>129</v>
       </c>
@@ -6974,27 +6981,27 @@
       <c r="P29" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="100"/>
+      <c r="Q29" s="99"/>
       <c r="R29" s="98"/>
-      <c r="S29" s="100"/>
+      <c r="S29" s="99"/>
       <c r="T29" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U29" s="100"/>
+      <c r="U29" s="99"/>
       <c r="V29" s="98"/>
-      <c r="W29" s="100"/>
+      <c r="W29" s="99"/>
       <c r="X29" s="98"/>
-      <c r="Y29" s="100"/>
+      <c r="Y29" s="99"/>
       <c r="Z29" s="98"/>
-      <c r="AA29" s="100"/>
+      <c r="AA29" s="99"/>
       <c r="AB29" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC29" s="100"/>
+      <c r="AC29" s="99"/>
       <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="99"/>
       <c r="AH29" s="50"/>
       <c r="AI29" s="41"/>
       <c r="AJ29" s="42"/>
@@ -7059,7 +7066,7 @@
       <c r="A30" s="98">
         <v>22</v>
       </c>
-      <c r="B30" s="100"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="49" t="s">
         <v>130</v>
       </c>
@@ -7078,27 +7085,27 @@
       <c r="P30" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="100"/>
+      <c r="Q30" s="99"/>
       <c r="R30" s="98"/>
-      <c r="S30" s="100"/>
+      <c r="S30" s="99"/>
       <c r="T30" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U30" s="100"/>
+      <c r="U30" s="99"/>
       <c r="V30" s="98"/>
-      <c r="W30" s="100"/>
+      <c r="W30" s="99"/>
       <c r="X30" s="98"/>
-      <c r="Y30" s="100"/>
+      <c r="Y30" s="99"/>
       <c r="Z30" s="98"/>
-      <c r="AA30" s="100"/>
+      <c r="AA30" s="99"/>
       <c r="AB30" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC30" s="100"/>
+      <c r="AC30" s="99"/>
       <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="99"/>
       <c r="AH30" s="50"/>
       <c r="AI30" s="41"/>
       <c r="AJ30" s="42"/>
@@ -7163,7 +7170,7 @@
       <c r="A31" s="98">
         <v>23</v>
       </c>
-      <c r="B31" s="100"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="51" t="s">
         <v>131</v>
       </c>
@@ -7182,27 +7189,27 @@
       <c r="P31" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q31" s="100"/>
+      <c r="Q31" s="99"/>
       <c r="R31" s="98"/>
-      <c r="S31" s="100"/>
+      <c r="S31" s="99"/>
       <c r="T31" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U31" s="100"/>
+      <c r="U31" s="99"/>
       <c r="V31" s="98"/>
-      <c r="W31" s="100"/>
+      <c r="W31" s="99"/>
       <c r="X31" s="98"/>
-      <c r="Y31" s="100"/>
+      <c r="Y31" s="99"/>
       <c r="Z31" s="98"/>
-      <c r="AA31" s="100"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC31" s="100"/>
+      <c r="AC31" s="99"/>
       <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="99"/>
       <c r="AH31" s="50"/>
       <c r="AI31" s="41"/>
       <c r="AJ31" s="42"/>
@@ -7267,7 +7274,7 @@
       <c r="A32" s="98">
         <v>24</v>
       </c>
-      <c r="B32" s="100"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="51" t="s">
         <v>132</v>
       </c>
@@ -7286,27 +7293,27 @@
       <c r="P32" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q32" s="100"/>
+      <c r="Q32" s="99"/>
       <c r="R32" s="98"/>
-      <c r="S32" s="100"/>
+      <c r="S32" s="99"/>
       <c r="T32" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U32" s="100"/>
+      <c r="U32" s="99"/>
       <c r="V32" s="98"/>
-      <c r="W32" s="100"/>
+      <c r="W32" s="99"/>
       <c r="X32" s="98"/>
-      <c r="Y32" s="100"/>
+      <c r="Y32" s="99"/>
       <c r="Z32" s="98"/>
-      <c r="AA32" s="100"/>
+      <c r="AA32" s="99"/>
       <c r="AB32" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC32" s="100"/>
+      <c r="AC32" s="99"/>
       <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="99"/>
       <c r="AH32" s="50"/>
       <c r="AI32" s="41"/>
       <c r="AJ32" s="42"/>
@@ -7371,7 +7378,7 @@
       <c r="A33" s="98">
         <v>25</v>
       </c>
-      <c r="B33" s="100"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="51" t="s">
         <v>133</v>
       </c>
@@ -7390,27 +7397,27 @@
       <c r="P33" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q33" s="100"/>
+      <c r="Q33" s="99"/>
       <c r="R33" s="98"/>
-      <c r="S33" s="100"/>
+      <c r="S33" s="99"/>
       <c r="T33" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U33" s="100"/>
+      <c r="U33" s="99"/>
       <c r="V33" s="98"/>
-      <c r="W33" s="100"/>
+      <c r="W33" s="99"/>
       <c r="X33" s="98"/>
-      <c r="Y33" s="100"/>
+      <c r="Y33" s="99"/>
       <c r="Z33" s="98"/>
-      <c r="AA33" s="100"/>
+      <c r="AA33" s="99"/>
       <c r="AB33" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC33" s="100"/>
+      <c r="AC33" s="99"/>
       <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="99"/>
       <c r="AH33" s="50"/>
       <c r="AI33" s="41"/>
       <c r="AJ33" s="42"/>
@@ -7475,7 +7482,7 @@
       <c r="A34" s="98">
         <v>26</v>
       </c>
-      <c r="B34" s="100"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="51" t="s">
         <v>134</v>
       </c>
@@ -7494,27 +7501,27 @@
       <c r="P34" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q34" s="100"/>
+      <c r="Q34" s="99"/>
       <c r="R34" s="98"/>
-      <c r="S34" s="100"/>
+      <c r="S34" s="99"/>
       <c r="T34" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U34" s="100"/>
+      <c r="U34" s="99"/>
       <c r="V34" s="98"/>
-      <c r="W34" s="100"/>
+      <c r="W34" s="99"/>
       <c r="X34" s="98"/>
-      <c r="Y34" s="100"/>
+      <c r="Y34" s="99"/>
       <c r="Z34" s="98"/>
-      <c r="AA34" s="100"/>
+      <c r="AA34" s="99"/>
       <c r="AB34" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC34" s="100"/>
+      <c r="AC34" s="99"/>
       <c r="AD34" s="98"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="99"/>
       <c r="AH34" s="50"/>
       <c r="AI34" s="41"/>
       <c r="AJ34" s="42"/>
@@ -7579,7 +7586,7 @@
       <c r="A35" s="98">
         <v>27</v>
       </c>
-      <c r="B35" s="100"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="51" t="s">
         <v>134</v>
       </c>
@@ -7598,27 +7605,27 @@
       <c r="P35" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="100"/>
+      <c r="Q35" s="99"/>
       <c r="R35" s="98"/>
-      <c r="S35" s="100"/>
+      <c r="S35" s="99"/>
       <c r="T35" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U35" s="100"/>
+      <c r="U35" s="99"/>
       <c r="V35" s="98"/>
-      <c r="W35" s="100"/>
+      <c r="W35" s="99"/>
       <c r="X35" s="98"/>
-      <c r="Y35" s="100"/>
+      <c r="Y35" s="99"/>
       <c r="Z35" s="98"/>
-      <c r="AA35" s="100"/>
+      <c r="AA35" s="99"/>
       <c r="AB35" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC35" s="100"/>
+      <c r="AC35" s="99"/>
       <c r="AD35" s="98"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="99"/>
       <c r="AH35" s="50"/>
       <c r="AI35" s="41"/>
       <c r="AJ35" s="42"/>
@@ -7683,7 +7690,7 @@
       <c r="A36" s="98">
         <v>28</v>
       </c>
-      <c r="B36" s="100"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="51" t="s">
         <v>134</v>
       </c>
@@ -7702,32 +7709,32 @@
       <c r="P36" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="100"/>
+      <c r="Q36" s="99"/>
       <c r="R36" s="98"/>
-      <c r="S36" s="100"/>
+      <c r="S36" s="99"/>
       <c r="T36" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U36" s="100"/>
+      <c r="U36" s="99"/>
       <c r="V36" s="98"/>
-      <c r="W36" s="100"/>
+      <c r="W36" s="99"/>
       <c r="X36" s="98"/>
-      <c r="Y36" s="100"/>
+      <c r="Y36" s="99"/>
       <c r="Z36" s="98"/>
-      <c r="AA36" s="100"/>
+      <c r="AA36" s="99"/>
       <c r="AB36" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC36" s="100"/>
+      <c r="AC36" s="99"/>
       <c r="AD36" s="98"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="100"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="99"/>
       <c r="AH36" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="100"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="99"/>
       <c r="AK36" s="50" t="s">
         <v>36</v>
       </c>
@@ -7789,7 +7796,7 @@
       <c r="A37" s="98">
         <v>29</v>
       </c>
-      <c r="B37" s="100"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="51" t="s">
         <v>135</v>
       </c>
@@ -7808,27 +7815,27 @@
       <c r="P37" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q37" s="100"/>
+      <c r="Q37" s="99"/>
       <c r="R37" s="98"/>
-      <c r="S37" s="100"/>
+      <c r="S37" s="99"/>
       <c r="T37" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="100"/>
+      <c r="U37" s="99"/>
       <c r="V37" s="98"/>
-      <c r="W37" s="100"/>
+      <c r="W37" s="99"/>
       <c r="X37" s="98"/>
-      <c r="Y37" s="100"/>
+      <c r="Y37" s="99"/>
       <c r="Z37" s="98"/>
-      <c r="AA37" s="100"/>
+      <c r="AA37" s="99"/>
       <c r="AB37" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC37" s="100"/>
+      <c r="AC37" s="99"/>
       <c r="AD37" s="98"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="99"/>
-      <c r="AG37" s="100"/>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="100"/>
+      <c r="AG37" s="99"/>
       <c r="AH37" s="50"/>
       <c r="AI37" s="41"/>
       <c r="AJ37" s="42"/>
@@ -7893,7 +7900,7 @@
       <c r="A38" s="98">
         <v>30</v>
       </c>
-      <c r="B38" s="100"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="51" t="s">
         <v>136</v>
       </c>
@@ -7912,27 +7919,27 @@
       <c r="P38" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="100"/>
+      <c r="Q38" s="99"/>
       <c r="R38" s="98"/>
-      <c r="S38" s="100"/>
+      <c r="S38" s="99"/>
       <c r="T38" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U38" s="100"/>
+      <c r="U38" s="99"/>
       <c r="V38" s="98"/>
-      <c r="W38" s="100"/>
+      <c r="W38" s="99"/>
       <c r="X38" s="98"/>
-      <c r="Y38" s="100"/>
+      <c r="Y38" s="99"/>
       <c r="Z38" s="98"/>
-      <c r="AA38" s="100"/>
+      <c r="AA38" s="99"/>
       <c r="AB38" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC38" s="100"/>
+      <c r="AC38" s="99"/>
       <c r="AD38" s="98"/>
-      <c r="AE38" s="99"/>
-      <c r="AF38" s="99"/>
-      <c r="AG38" s="100"/>
+      <c r="AE38" s="100"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="99"/>
       <c r="AH38" s="50"/>
       <c r="AI38" s="41"/>
       <c r="AJ38" s="42"/>
@@ -7997,7 +8004,7 @@
       <c r="A39" s="98">
         <v>31</v>
       </c>
-      <c r="B39" s="100"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="51" t="s">
         <v>137</v>
       </c>
@@ -8016,27 +8023,27 @@
       <c r="P39" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="100"/>
+      <c r="Q39" s="99"/>
       <c r="R39" s="98"/>
-      <c r="S39" s="100"/>
+      <c r="S39" s="99"/>
       <c r="T39" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="100"/>
+      <c r="U39" s="99"/>
       <c r="V39" s="98"/>
-      <c r="W39" s="100"/>
+      <c r="W39" s="99"/>
       <c r="X39" s="98"/>
-      <c r="Y39" s="100"/>
+      <c r="Y39" s="99"/>
       <c r="Z39" s="98"/>
-      <c r="AA39" s="100"/>
+      <c r="AA39" s="99"/>
       <c r="AB39" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC39" s="100"/>
+      <c r="AC39" s="99"/>
       <c r="AD39" s="98"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="100"/>
+      <c r="AE39" s="100"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="99"/>
       <c r="AH39" s="50"/>
       <c r="AI39" s="41"/>
       <c r="AJ39" s="42"/>
@@ -8101,7 +8108,7 @@
       <c r="A40" s="98">
         <v>32</v>
       </c>
-      <c r="B40" s="100"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="49" t="s">
         <v>138</v>
       </c>
@@ -8120,27 +8127,27 @@
       <c r="P40" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q40" s="100"/>
+      <c r="Q40" s="99"/>
       <c r="R40" s="98"/>
-      <c r="S40" s="100"/>
+      <c r="S40" s="99"/>
       <c r="T40" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U40" s="100"/>
+      <c r="U40" s="99"/>
       <c r="V40" s="98"/>
-      <c r="W40" s="100"/>
+      <c r="W40" s="99"/>
       <c r="X40" s="98"/>
-      <c r="Y40" s="100"/>
+      <c r="Y40" s="99"/>
       <c r="Z40" s="98"/>
-      <c r="AA40" s="100"/>
+      <c r="AA40" s="99"/>
       <c r="AB40" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC40" s="100"/>
+      <c r="AC40" s="99"/>
       <c r="AD40" s="98"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="100"/>
+      <c r="AE40" s="100"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="99"/>
       <c r="AH40" s="50"/>
       <c r="AI40" s="41"/>
       <c r="AJ40" s="42"/>
@@ -8205,7 +8212,7 @@
       <c r="A41" s="98">
         <v>33</v>
       </c>
-      <c r="B41" s="100"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="49" t="s">
         <v>352</v>
       </c>
@@ -8224,27 +8231,27 @@
       <c r="P41" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q41" s="100"/>
+      <c r="Q41" s="99"/>
       <c r="R41" s="98"/>
-      <c r="S41" s="100"/>
+      <c r="S41" s="99"/>
       <c r="T41" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U41" s="100"/>
+      <c r="U41" s="99"/>
       <c r="V41" s="98"/>
-      <c r="W41" s="100"/>
+      <c r="W41" s="99"/>
       <c r="X41" s="98"/>
-      <c r="Y41" s="100"/>
+      <c r="Y41" s="99"/>
       <c r="Z41" s="98"/>
-      <c r="AA41" s="100"/>
+      <c r="AA41" s="99"/>
       <c r="AB41" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC41" s="100"/>
+      <c r="AC41" s="99"/>
       <c r="AD41" s="98"/>
-      <c r="AE41" s="99"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="100"/>
+      <c r="AE41" s="100"/>
+      <c r="AF41" s="100"/>
+      <c r="AG41" s="99"/>
       <c r="AH41" s="50"/>
       <c r="AI41" s="41"/>
       <c r="AJ41" s="42"/>
@@ -8309,7 +8316,7 @@
       <c r="A42" s="98">
         <v>34</v>
       </c>
-      <c r="B42" s="100"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="49" t="s">
         <v>139</v>
       </c>
@@ -8328,27 +8335,27 @@
       <c r="P42" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="100"/>
+      <c r="Q42" s="99"/>
       <c r="R42" s="98"/>
-      <c r="S42" s="100"/>
+      <c r="S42" s="99"/>
       <c r="T42" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U42" s="100"/>
+      <c r="U42" s="99"/>
       <c r="V42" s="98"/>
-      <c r="W42" s="100"/>
+      <c r="W42" s="99"/>
       <c r="X42" s="98"/>
-      <c r="Y42" s="100"/>
+      <c r="Y42" s="99"/>
       <c r="Z42" s="98"/>
-      <c r="AA42" s="100"/>
+      <c r="AA42" s="99"/>
       <c r="AB42" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC42" s="100"/>
+      <c r="AC42" s="99"/>
       <c r="AD42" s="98"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="99"/>
-      <c r="AG42" s="100"/>
+      <c r="AE42" s="100"/>
+      <c r="AF42" s="100"/>
+      <c r="AG42" s="99"/>
       <c r="AH42" s="50"/>
       <c r="AI42" s="41"/>
       <c r="AJ42" s="42"/>
@@ -8413,7 +8420,7 @@
       <c r="A43" s="98">
         <v>35</v>
       </c>
-      <c r="B43" s="100"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="51" t="s">
         <v>140</v>
       </c>
@@ -8432,27 +8439,27 @@
       <c r="P43" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q43" s="100"/>
+      <c r="Q43" s="99"/>
       <c r="R43" s="98"/>
-      <c r="S43" s="100"/>
+      <c r="S43" s="99"/>
       <c r="T43" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U43" s="100"/>
+      <c r="U43" s="99"/>
       <c r="V43" s="98"/>
-      <c r="W43" s="100"/>
+      <c r="W43" s="99"/>
       <c r="X43" s="98"/>
-      <c r="Y43" s="100"/>
+      <c r="Y43" s="99"/>
       <c r="Z43" s="98"/>
-      <c r="AA43" s="100"/>
+      <c r="AA43" s="99"/>
       <c r="AB43" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC43" s="100"/>
+      <c r="AC43" s="99"/>
       <c r="AD43" s="98"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="100"/>
+      <c r="AE43" s="100"/>
+      <c r="AF43" s="100"/>
+      <c r="AG43" s="99"/>
       <c r="AH43" s="50"/>
       <c r="AI43" s="41"/>
       <c r="AJ43" s="42"/>
@@ -8517,7 +8524,7 @@
       <c r="A44" s="98">
         <v>36</v>
       </c>
-      <c r="B44" s="100"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="51" t="s">
         <v>141</v>
       </c>
@@ -8536,29 +8543,29 @@
       <c r="P44" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q44" s="100"/>
+      <c r="Q44" s="99"/>
       <c r="R44" s="98"/>
-      <c r="S44" s="100"/>
+      <c r="S44" s="99"/>
       <c r="T44" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U44" s="100"/>
+      <c r="U44" s="99"/>
       <c r="V44" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="W44" s="100"/>
+      <c r="W44" s="99"/>
       <c r="X44" s="98"/>
-      <c r="Y44" s="100"/>
+      <c r="Y44" s="99"/>
       <c r="Z44" s="98"/>
-      <c r="AA44" s="100"/>
+      <c r="AA44" s="99"/>
       <c r="AB44" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC44" s="100"/>
+      <c r="AC44" s="99"/>
       <c r="AD44" s="98"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="99"/>
-      <c r="AG44" s="100"/>
+      <c r="AE44" s="100"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="99"/>
       <c r="AH44" s="50"/>
       <c r="AI44" s="41"/>
       <c r="AJ44" s="42"/>
@@ -8623,7 +8630,7 @@
       <c r="A45" s="98">
         <v>37</v>
       </c>
-      <c r="B45" s="100"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="51" t="s">
         <v>142</v>
       </c>
@@ -8642,29 +8649,29 @@
       <c r="P45" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q45" s="100"/>
+      <c r="Q45" s="99"/>
       <c r="R45" s="98"/>
-      <c r="S45" s="100"/>
+      <c r="S45" s="99"/>
       <c r="T45" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U45" s="100"/>
+      <c r="U45" s="99"/>
       <c r="V45" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="W45" s="100"/>
+      <c r="W45" s="99"/>
       <c r="X45" s="98"/>
-      <c r="Y45" s="100"/>
+      <c r="Y45" s="99"/>
       <c r="Z45" s="98"/>
-      <c r="AA45" s="100"/>
+      <c r="AA45" s="99"/>
       <c r="AB45" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC45" s="100"/>
+      <c r="AC45" s="99"/>
       <c r="AD45" s="98"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="100"/>
+      <c r="AE45" s="100"/>
+      <c r="AF45" s="100"/>
+      <c r="AG45" s="99"/>
       <c r="AH45" s="50"/>
       <c r="AI45" s="41"/>
       <c r="AJ45" s="42"/>
@@ -8729,7 +8736,7 @@
       <c r="A46" s="98">
         <v>38</v>
       </c>
-      <c r="B46" s="100"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="51" t="s">
         <v>143</v>
       </c>
@@ -8748,27 +8755,27 @@
       <c r="P46" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q46" s="100"/>
+      <c r="Q46" s="99"/>
       <c r="R46" s="98"/>
-      <c r="S46" s="100"/>
+      <c r="S46" s="99"/>
       <c r="T46" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U46" s="100"/>
+      <c r="U46" s="99"/>
       <c r="V46" s="98"/>
-      <c r="W46" s="100"/>
+      <c r="W46" s="99"/>
       <c r="X46" s="98"/>
-      <c r="Y46" s="100"/>
+      <c r="Y46" s="99"/>
       <c r="Z46" s="98"/>
-      <c r="AA46" s="100"/>
+      <c r="AA46" s="99"/>
       <c r="AB46" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC46" s="100"/>
+      <c r="AC46" s="99"/>
       <c r="AD46" s="98"/>
-      <c r="AE46" s="99"/>
-      <c r="AF46" s="99"/>
-      <c r="AG46" s="100"/>
+      <c r="AE46" s="100"/>
+      <c r="AF46" s="100"/>
+      <c r="AG46" s="99"/>
       <c r="AH46" s="50"/>
       <c r="AI46" s="41"/>
       <c r="AJ46" s="42"/>
@@ -8833,7 +8840,7 @@
       <c r="A47" s="98">
         <v>39</v>
       </c>
-      <c r="B47" s="100"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="51" t="s">
         <v>144</v>
       </c>
@@ -8852,27 +8859,27 @@
       <c r="P47" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q47" s="100"/>
+      <c r="Q47" s="99"/>
       <c r="R47" s="98"/>
-      <c r="S47" s="100"/>
+      <c r="S47" s="99"/>
       <c r="T47" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U47" s="100"/>
+      <c r="U47" s="99"/>
       <c r="V47" s="98"/>
-      <c r="W47" s="100"/>
+      <c r="W47" s="99"/>
       <c r="X47" s="98"/>
-      <c r="Y47" s="100"/>
+      <c r="Y47" s="99"/>
       <c r="Z47" s="98"/>
-      <c r="AA47" s="100"/>
+      <c r="AA47" s="99"/>
       <c r="AB47" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC47" s="100"/>
+      <c r="AC47" s="99"/>
       <c r="AD47" s="98"/>
-      <c r="AE47" s="99"/>
-      <c r="AF47" s="99"/>
-      <c r="AG47" s="100"/>
+      <c r="AE47" s="100"/>
+      <c r="AF47" s="100"/>
+      <c r="AG47" s="99"/>
       <c r="AH47" s="50"/>
       <c r="AI47" s="41"/>
       <c r="AJ47" s="42"/>
@@ -8937,7 +8944,7 @@
       <c r="A48" s="98">
         <v>40</v>
       </c>
-      <c r="B48" s="100"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="51" t="s">
         <v>145</v>
       </c>
@@ -8956,27 +8963,27 @@
       <c r="P48" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q48" s="100"/>
+      <c r="Q48" s="99"/>
       <c r="R48" s="98"/>
-      <c r="S48" s="100"/>
+      <c r="S48" s="99"/>
       <c r="T48" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U48" s="100"/>
+      <c r="U48" s="99"/>
       <c r="V48" s="98"/>
-      <c r="W48" s="100"/>
+      <c r="W48" s="99"/>
       <c r="X48" s="98"/>
-      <c r="Y48" s="100"/>
+      <c r="Y48" s="99"/>
       <c r="Z48" s="98"/>
-      <c r="AA48" s="100"/>
+      <c r="AA48" s="99"/>
       <c r="AB48" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC48" s="100"/>
+      <c r="AC48" s="99"/>
       <c r="AD48" s="98"/>
-      <c r="AE48" s="99"/>
-      <c r="AF48" s="99"/>
-      <c r="AG48" s="100"/>
+      <c r="AE48" s="100"/>
+      <c r="AF48" s="100"/>
+      <c r="AG48" s="99"/>
       <c r="AH48" s="50"/>
       <c r="AI48" s="41"/>
       <c r="AJ48" s="42"/>
@@ -9041,7 +9048,7 @@
       <c r="A49" s="98">
         <v>41</v>
       </c>
-      <c r="B49" s="100"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="51" t="s">
         <v>146</v>
       </c>
@@ -9060,27 +9067,27 @@
       <c r="P49" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q49" s="100"/>
+      <c r="Q49" s="99"/>
       <c r="R49" s="98"/>
-      <c r="S49" s="100"/>
+      <c r="S49" s="99"/>
       <c r="T49" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U49" s="100"/>
+      <c r="U49" s="99"/>
       <c r="V49" s="98"/>
-      <c r="W49" s="100"/>
+      <c r="W49" s="99"/>
       <c r="X49" s="98"/>
-      <c r="Y49" s="100"/>
+      <c r="Y49" s="99"/>
       <c r="Z49" s="98"/>
-      <c r="AA49" s="100"/>
+      <c r="AA49" s="99"/>
       <c r="AB49" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC49" s="100"/>
+      <c r="AC49" s="99"/>
       <c r="AD49" s="98"/>
-      <c r="AE49" s="99"/>
-      <c r="AF49" s="99"/>
-      <c r="AG49" s="100"/>
+      <c r="AE49" s="100"/>
+      <c r="AF49" s="100"/>
+      <c r="AG49" s="99"/>
       <c r="AH49" s="50"/>
       <c r="AI49" s="41"/>
       <c r="AJ49" s="42"/>
@@ -9145,7 +9152,7 @@
       <c r="A50" s="98">
         <v>42</v>
       </c>
-      <c r="B50" s="100"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="49" t="s">
         <v>147</v>
       </c>
@@ -9164,27 +9171,27 @@
       <c r="P50" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q50" s="100"/>
+      <c r="Q50" s="99"/>
       <c r="R50" s="98"/>
-      <c r="S50" s="100"/>
+      <c r="S50" s="99"/>
       <c r="T50" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U50" s="100"/>
+      <c r="U50" s="99"/>
       <c r="V50" s="98"/>
-      <c r="W50" s="100"/>
+      <c r="W50" s="99"/>
       <c r="X50" s="98"/>
-      <c r="Y50" s="100"/>
+      <c r="Y50" s="99"/>
       <c r="Z50" s="98"/>
-      <c r="AA50" s="100"/>
+      <c r="AA50" s="99"/>
       <c r="AB50" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC50" s="100"/>
+      <c r="AC50" s="99"/>
       <c r="AD50" s="98"/>
-      <c r="AE50" s="99"/>
-      <c r="AF50" s="99"/>
-      <c r="AG50" s="100"/>
+      <c r="AE50" s="100"/>
+      <c r="AF50" s="100"/>
+      <c r="AG50" s="99"/>
       <c r="AH50" s="50"/>
       <c r="AI50" s="41"/>
       <c r="AJ50" s="42"/>
@@ -9249,7 +9256,7 @@
       <c r="A51" s="98">
         <v>43</v>
       </c>
-      <c r="B51" s="100"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="49" t="s">
         <v>84</v>
       </c>
@@ -9268,27 +9275,27 @@
       <c r="P51" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q51" s="100"/>
+      <c r="Q51" s="99"/>
       <c r="R51" s="98"/>
-      <c r="S51" s="100"/>
+      <c r="S51" s="99"/>
       <c r="T51" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U51" s="100"/>
+      <c r="U51" s="99"/>
       <c r="V51" s="98"/>
-      <c r="W51" s="100"/>
+      <c r="W51" s="99"/>
       <c r="X51" s="98"/>
-      <c r="Y51" s="100"/>
+      <c r="Y51" s="99"/>
       <c r="Z51" s="98"/>
-      <c r="AA51" s="100"/>
+      <c r="AA51" s="99"/>
       <c r="AB51" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC51" s="100"/>
+      <c r="AC51" s="99"/>
       <c r="AD51" s="98"/>
-      <c r="AE51" s="99"/>
-      <c r="AF51" s="99"/>
-      <c r="AG51" s="100"/>
+      <c r="AE51" s="100"/>
+      <c r="AF51" s="100"/>
+      <c r="AG51" s="99"/>
       <c r="AH51" s="50"/>
       <c r="AI51" s="41"/>
       <c r="AJ51" s="42"/>
@@ -9349,11 +9356,11 @@
       <c r="CE51" s="41"/>
       <c r="CF51" s="42"/>
     </row>
-    <row r="52" spans="1:84" ht="62.6" customHeight="1">
+    <row r="52" spans="1:84" ht="70.900000000000006" customHeight="1">
       <c r="A52" s="98">
         <v>44</v>
       </c>
-      <c r="B52" s="100"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="51" t="s">
         <v>84</v>
       </c>
@@ -9372,29 +9379,29 @@
       <c r="P52" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q52" s="100"/>
+      <c r="Q52" s="99"/>
       <c r="R52" s="98"/>
-      <c r="S52" s="100"/>
+      <c r="S52" s="99"/>
       <c r="T52" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="U52" s="100"/>
+      <c r="U52" s="99"/>
       <c r="V52" s="98"/>
-      <c r="W52" s="100"/>
+      <c r="W52" s="99"/>
       <c r="X52" s="98"/>
-      <c r="Y52" s="100"/>
+      <c r="Y52" s="99"/>
       <c r="Z52" s="98"/>
-      <c r="AA52" s="100"/>
+      <c r="AA52" s="99"/>
       <c r="AB52" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AC52" s="100"/>
+      <c r="AC52" s="99"/>
       <c r="AD52" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AE52" s="99"/>
-      <c r="AF52" s="99"/>
-      <c r="AG52" s="100"/>
+      <c r="AE52" s="100"/>
+      <c r="AF52" s="100"/>
+      <c r="AG52" s="99"/>
       <c r="AH52" s="50"/>
       <c r="AI52" s="41"/>
       <c r="AJ52" s="42"/>
@@ -9447,28 +9454,553 @@
       <c r="BW52" s="41"/>
       <c r="BX52" s="41"/>
       <c r="BY52" s="42"/>
-      <c r="BZ52" s="50"/>
-      <c r="CA52" s="41"/>
-      <c r="CB52" s="42"/>
+      <c r="BZ52" s="144" t="s">
+        <v>358</v>
+      </c>
+      <c r="CA52" s="100"/>
+      <c r="CB52" s="99"/>
       <c r="CC52" s="50"/>
       <c r="CD52" s="41"/>
       <c r="CE52" s="41"/>
       <c r="CF52" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="570">
-    <mergeCell ref="AN40:AR40"/>
-    <mergeCell ref="AS40:BF40"/>
-    <mergeCell ref="BG40:BU40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AG40"/>
+  <mergeCells count="571">
+    <mergeCell ref="BZ52:CB52"/>
+    <mergeCell ref="AN35:AR35"/>
+    <mergeCell ref="AS35:BF35"/>
+    <mergeCell ref="BG35:BU35"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AS36:BF36"/>
+    <mergeCell ref="BG36:BU36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AN36:AR36"/>
+    <mergeCell ref="AN49:AR49"/>
+    <mergeCell ref="AS49:BF49"/>
+    <mergeCell ref="BG49:BU49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AN50:AR50"/>
+    <mergeCell ref="AS50:BF50"/>
+    <mergeCell ref="BG50:BU50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="AN47:AR47"/>
+    <mergeCell ref="AS47:BF47"/>
+    <mergeCell ref="BG47:BU47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="AN48:AR48"/>
+    <mergeCell ref="AS48:BF48"/>
+    <mergeCell ref="BG48:BU48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AN45:AR45"/>
+    <mergeCell ref="AS45:BF45"/>
+    <mergeCell ref="BG45:BU45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AN46:AR46"/>
+    <mergeCell ref="AS46:BF46"/>
+    <mergeCell ref="BG46:BU46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="AN43:AR43"/>
+    <mergeCell ref="AS43:BF43"/>
+    <mergeCell ref="BG43:BU43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AG44"/>
+    <mergeCell ref="AN44:AR44"/>
+    <mergeCell ref="AS44:BF44"/>
+    <mergeCell ref="BG44:BU44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AD43:AG43"/>
+    <mergeCell ref="AN41:AR41"/>
+    <mergeCell ref="AS41:BF41"/>
+    <mergeCell ref="BG41:BU41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AN42:AR42"/>
+    <mergeCell ref="AS42:BF42"/>
+    <mergeCell ref="BG42:BU42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AG41"/>
+    <mergeCell ref="AN38:AR38"/>
+    <mergeCell ref="AS38:BF38"/>
+    <mergeCell ref="BG38:BU38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AG39"/>
+    <mergeCell ref="AN39:AR39"/>
+    <mergeCell ref="AS39:BF39"/>
+    <mergeCell ref="BG39:BU39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AS34:BF34"/>
+    <mergeCell ref="BG34:BU34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AN37:AR37"/>
+    <mergeCell ref="AS37:BF37"/>
+    <mergeCell ref="BG37:BU37"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="AS32:BF32"/>
+    <mergeCell ref="BG32:BU32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:BF33"/>
+    <mergeCell ref="BG33:BU33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS30:BF30"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:BF31"/>
+    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="P7:AJ7"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AN7:AR8"/>
+    <mergeCell ref="AS7:BF8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="BG9:BU9"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:BF9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A2:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="AN52:AR52"/>
+    <mergeCell ref="AS52:BF52"/>
+    <mergeCell ref="BG52:BU52"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="BG51:BU51"/>
+    <mergeCell ref="AN51:AR51"/>
+    <mergeCell ref="AS51:BF51"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="AS26:BF26"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A18:B18"/>
@@ -9493,540 +10025,18 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="BG12:BU12"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="BG51:BU51"/>
-    <mergeCell ref="AN51:AR51"/>
-    <mergeCell ref="AS51:BF51"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="BG24:BU24"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="BG25:BU25"/>
-    <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="AN52:AR52"/>
-    <mergeCell ref="AS52:BF52"/>
-    <mergeCell ref="BG52:BU52"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:BF18"/>
-    <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="AS23:BF23"/>
-    <mergeCell ref="BG23:BU23"/>
-    <mergeCell ref="AS24:BF24"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="A2:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
-    <mergeCell ref="CC7:CF8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="P7:AJ7"/>
-    <mergeCell ref="AK7:AM8"/>
-    <mergeCell ref="AN7:AR8"/>
-    <mergeCell ref="AS7:BF8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:BF9"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="BG26:BU26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:BF29"/>
-    <mergeCell ref="BG29:BU29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS30:BF30"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:BF31"/>
-    <mergeCell ref="BG31:BU31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS32:BF32"/>
-    <mergeCell ref="BG32:BU32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:BF33"/>
-    <mergeCell ref="BG33:BU33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS34:BF34"/>
-    <mergeCell ref="BG34:BU34"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="AN37:AR37"/>
-    <mergeCell ref="AS37:BF37"/>
-    <mergeCell ref="BG37:BU37"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="AN38:AR38"/>
-    <mergeCell ref="AS38:BF38"/>
-    <mergeCell ref="BG38:BU38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AG39"/>
-    <mergeCell ref="AN39:AR39"/>
-    <mergeCell ref="AS39:BF39"/>
-    <mergeCell ref="BG39:BU39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AN41:AR41"/>
-    <mergeCell ref="AS41:BF41"/>
-    <mergeCell ref="BG41:BU41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AN42:AR42"/>
-    <mergeCell ref="AS42:BF42"/>
-    <mergeCell ref="BG42:BU42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AG41"/>
-    <mergeCell ref="AN43:AR43"/>
-    <mergeCell ref="AS43:BF43"/>
-    <mergeCell ref="BG43:BU43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AG44"/>
-    <mergeCell ref="AN44:AR44"/>
-    <mergeCell ref="AS44:BF44"/>
-    <mergeCell ref="BG44:BU44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AD43:AG43"/>
-    <mergeCell ref="AN45:AR45"/>
-    <mergeCell ref="AS45:BF45"/>
-    <mergeCell ref="BG45:BU45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AN46:AR46"/>
-    <mergeCell ref="AS46:BF46"/>
-    <mergeCell ref="BG46:BU46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="AN47:AR47"/>
-    <mergeCell ref="AS47:BF47"/>
-    <mergeCell ref="BG47:BU47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="AN48:AR48"/>
-    <mergeCell ref="AS48:BF48"/>
-    <mergeCell ref="BG48:BU48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AN49:AR49"/>
-    <mergeCell ref="AS49:BF49"/>
-    <mergeCell ref="BG49:BU49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="AN50:AR50"/>
-    <mergeCell ref="AS50:BF50"/>
-    <mergeCell ref="BG50:BU50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="AN35:AR35"/>
-    <mergeCell ref="AS35:BF35"/>
-    <mergeCell ref="BG35:BU35"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AS36:BF36"/>
-    <mergeCell ref="BG36:BU36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AN36:AR36"/>
+    <mergeCell ref="AN40:AR40"/>
+    <mergeCell ref="AS40:BF40"/>
+    <mergeCell ref="BG40:BU40"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10042,7 +10052,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3"/>
+  <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
     <col min="1" max="1" width="19.296875" style="59" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="59" customWidth="1"/>
@@ -10060,7 +10070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="54" customFormat="1" ht="54.85">
+    <row r="2" spans="1:20" s="54" customFormat="1" ht="26.6">
       <c r="A2" s="54" t="s">
         <v>95</v>
       </c>
@@ -10217,7 +10227,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="54.85">
+    <row r="9" spans="1:20" ht="39.9">
       <c r="A9" s="54" t="s">
         <v>280</v>
       </c>
@@ -10440,7 +10450,7 @@
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
     </row>
-    <row r="16" spans="1:20" ht="54.85">
+    <row r="16" spans="1:20" ht="39.9">
       <c r="B16" s="55" t="s">
         <v>206</v>
       </c>
@@ -10585,7 +10595,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="36.549999999999997">
+    <row r="24" spans="1:20" ht="26.6">
       <c r="A24" s="54" t="s">
         <v>95</v>
       </c>
@@ -11663,7 +11673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="54.85">
+    <row r="63" spans="1:22" ht="39.9">
       <c r="A63" s="54" t="s">
         <v>95</v>
       </c>
@@ -14184,7 +14194,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="54.85">
+    <row r="103" spans="1:22" ht="26.6">
       <c r="A103" s="54" t="s">
         <v>95</v>
       </c>
@@ -14277,7 +14287,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="36.549999999999997">
+    <row r="108" spans="1:22" ht="26.6">
       <c r="A108" s="54" t="s">
         <v>95</v>
       </c>
@@ -14334,7 +14344,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="91.4">
+    <row r="113" spans="1:32" ht="53.2">
       <c r="A113" s="54" t="s">
         <v>95</v>
       </c>
@@ -14451,7 +14461,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="36.549999999999997">
+    <row r="118" spans="1:32" ht="26.6">
       <c r="A118" s="59" t="s">
         <v>166</v>
       </c>
@@ -14696,7 +14706,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="36.549999999999997">
+    <row r="126" spans="1:32" ht="26.6">
       <c r="A126" s="54" t="s">
         <v>95</v>
       </c>
@@ -14996,12 +15006,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.100000000000001">
+    <row r="22" spans="1:2">
       <c r="B22" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.100000000000001">
+    <row r="23" spans="1:2">
       <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2">

--- a/DOC/単体テスト/EMSM_単体テスト仕様書-給料リスト.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-給料リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\git\emsm\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3B8E4-91DD-4D03-B941-5B9D43E0E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520CC3-5371-4EAF-9120-95DD70057AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="18199" windowHeight="10534" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="362">
   <si>
     <t>画面名</t>
   </si>
@@ -1132,10 +1132,6 @@
 ③「検索」ボタン</t>
   </si>
   <si>
-    <t>①salaryinfo DBに年形での
-データがないため給料リスト表示しない</t>
-  </si>
-  <si>
     <t>ダウンロード</t>
   </si>
   <si>
@@ -1487,12 +1483,6 @@
     <t>baseSalary</t>
   </si>
   <si>
-    <t>minusHour</t>
-  </si>
-  <si>
-    <t>plusHour</t>
-  </si>
-  <si>
     <t>wkPeriodFrom</t>
   </si>
   <si>
@@ -1706,13 +1696,7 @@
     <t>employerBurdenRate</t>
   </si>
   <si>
-    <t>employmentInsuranceRate</t>
-  </si>
-  <si>
     <t>industrialAccidentInsuranceRate</t>
-  </si>
-  <si>
-    <t>laborInsuranceRate</t>
   </si>
   <si>
     <t>雇用保険率テーブル　：　m_emplyinsrate</t>
@@ -1835,72 +1819,10 @@
     <t>社員IDと対象年月持ち社員給料作成画面表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの不足時間に対象年月の（m_basesalaryDBのwkPeriodFrom値　ー　workinfoDBのworktime値）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの交通費に対象年月の（transportDBのtransport 値　+ transportDBのbusinessTrip値）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの手当加算に”０”　表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの手当減算に　”０”表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの手当減算に”　”（空白）表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの厚生年金控除会社に厚生年金控除個人と同じ表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの厚生健康控除会社に厚生健康控除個人と同じ表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの社宅家賃控除に　”０”表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの社宅共益費控除に　”０”表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの備考に　”　”（空白）表示</t>
-  </si>
-  <si>
     <t>一括作成＿検索の対象年月</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②検索の対象年月に採番年月表示</t>
-  </si>
-  <si>
     <t>一括作成＿対象年月給料リスト</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②給料リストの対象年月に採番年月表示
-③検索の対象年月と給料リストの対象年月同じ表示</t>
-  </si>
-  <si>
-    <t>salaryinfo DBに対象年月の
-データがない場合給料リスト表示しない</t>
-  </si>
-  <si>
-    <t>①salaryinfo DBに年月日形での
-データがないため給料リスト表示しない</t>
-  </si>
-  <si>
-    <t>①salaryinfo DBに年月形（2023
-01）のデータがあるため対象年月を持ち給料リスト表示
-②検索の対象年月と給料リストの対象年月同じ</t>
   </si>
   <si>
     <t>対象年月を持ち給料リストをダウンロードする</t>
@@ -1914,41 +1836,189 @@
 ③給料リストの社員IDボタン</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②給料リストの社員名 にemployee
-DBから各社員名 表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②給料リストの支払日に対象年月の次月20日表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②給料リストの基本給にm_base
-salaryDBから社員IDと対象年度の
-基本給表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②給料リストの残業時間に対象年月の（workinfoDBのworktime値　ー　m_basesalaryDBのwkPeriodTo値）結果表示</t>
-  </si>
-  <si>
     <t>①対象年月を持ち給料リスト表示
 ②検索の対象年月と給料リストの対象年月同じ</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの残業加算に対象年月の（m_basesalaryDBのplusHour値　＊　残業時間　）結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの稼働不足減に対象年月の（m_basesalaryDBのminusHour値　＊ 不足時間）結果表示</t>
-  </si>
-  <si>
     <t>一括作成＿雇用保険会社負担</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+    <t>環境上に
+テスト不可</t>
+  </si>
+  <si>
+    <t>No.32からNo.35</t>
+  </si>
+  <si>
+    <t>No.36</t>
+  </si>
+  <si>
+    <t>No。37</t>
+  </si>
+  <si>
+    <t>所得税と住民税マスター管理テーブル　：　m_incometax （incomeTax）</t>
+  </si>
+  <si>
+    <t>所得税と住民税マスター管理　：　m_incometax（residentTax）</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>W002</t>
+  </si>
+  <si>
+    <t>W003</t>
+  </si>
+  <si>
+    <t>W004</t>
+  </si>
+  <si>
+    <t>salaryinfo に対象年月の
+データがない場合給料リスト表示しない</t>
+  </si>
+  <si>
+    <t>①salaryinfo に年月日形での
+データがないため給料リスト表示しない</t>
+  </si>
+  <si>
+    <t>①salaryinfo に年形での
+データがないため給料リスト表示しない</t>
+  </si>
+  <si>
+    <t>①salaryinfo に年月形（2023
+01）のデータがあるため対象年月を持ち給料リスト表示
+②検索の対象年月と給料リストの対象年月同じ</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②検索の対象年月に採番年月表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②給料リストの社員ID に
+employeeから各社員ID 表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②給料リストの社員名 にemployee
+から各社員名 表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②給料リストの対象年月に採番年月表示
+③検索の対象年月と給料リストの対象年月同じ表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②給料リストの支払日に対象年月の次月20日表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②給料リストの基本給にm_base
+salaryから社員IDと対象年度の
+基本給表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②給料リストの残業時間に対象年月の（workinfoのworktime値　ー　m_basesalaryのwkPeriodTo値）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの不足時間に対象年月の（m_basesalaryのwkPeriodFrom値　ー　workinfoのworktime値）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの残業加算に対象年月の（m_basesalaryのovertimePay値　＊　残業時間　）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの稼働不足減に対象年月の（m_basesalaryのinsufficienttimePay値　＊ 不足時間）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの交通費に対象年月の（transportのtransport 値　+ transportのbusinessTrip値）結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの手当加算に”０”　表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの手当減算に　”０”表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの手当減算に”　”（空白）表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの厚生年金控除個人に ((m_welfarefeeの
+annuityRatio値　＊　m_welfarefeeのstandSalary)/100)/2   結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②年齢は40より大き時リストの厚生健康控除個人に((m_welfarefeeのcareRatio値 ＊ m_welfarefeeのstandSalary)/100)/2  結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+② 年齢は40より小さい時リスト
+の厚生健康控除個人に
+((m_welfarefeeのnotCareRatio値 ＊ m_welfarefeeの
+standSalary)/100)/2  結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②年齢は40時リストの厚生健康控除個人に((m_welfarefeeのcareRatio値 ＊ m_welfare
+feeのstandSalary)/100)/2 結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの厚生年金控除会社に厚生年金控除個人と同じ表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの厚生健康控除会社に厚生健康控除個人と同じ表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの雇用保険個人負担に対象年度の（m_emplyinsrateのlaborBurdenRate 値* 基本給）/ 1000   結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの雇用保険会社負担に対象年度の（m_emplyinsrateのemployerBurdenRate 値* 基本給）/1000   結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの労災保険（会社負担のみ）に対象年度の（m_emplyinsrateのindustrialAccidentInsuranceRate値 * 基本給）/1000   結果表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②りストの源泉控除にm_incometaxから対象月の incometax 値表示（対象月の値は「テストデータ」No。36　m_incometaxテーブルを参照）</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの住民税控除にm_incometaxから対象月の residentTax 値表示（対象月の値は「テストデータ」No。37　m_incometaxテーブル　を参照）</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの社宅家賃控除に　”０”表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの社宅共益費控除に　”０”表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
 ②リストの総額に（基本給 - 稼働
 不足減　-　手当減算  -　厚生年金
 控除個人　-　厚生健康控除個人
@@ -1960,111 +2030,30 @@
 表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
 ②リストの総費用に（総額　 +　
 厚生年金控除会社　+　厚生健康控除会社　+　厚生控除子育（会社）+　雇用保険会社負担　+　雇用保拠出金（会社）+　労災保険（会社負担のみ） ）結果表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
+②リストの備考に　”　”（空白）表示</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
 ②採番月をもとに各項目の値を各テーブルから表示
-③表示したデータをsalaryinfoDBに新規追加する</t>
-  </si>
-  <si>
-    <t>環境上に
-テスト不可</t>
-  </si>
-  <si>
-    <t>No.32からNo.35</t>
-  </si>
-  <si>
-    <t>No.36</t>
-  </si>
-  <si>
-    <t>No。37</t>
-  </si>
-  <si>
-    <t>所得税と住民税マスター管理テーブル　：　m_incometax （incomeTax）</t>
-  </si>
-  <si>
-    <t>所得税と住民税マスター管理　：　m_incometax（residentTax）</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②りストの源泉控除にm_incometaxDBから対象月の incometax 値表示（対象月の値は「テストデータ」No。36　m_incometaxテーブルを参照）</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの住民税控除にm_incometaxDBから対象月の residentTax 値表示（対象月の値は「テストデータ」No。37　m_incometaxテーブル　を参照）</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②給料リストの社員ID に
-employeeDBから各社員ID 表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+③表示したデータをsalaryinfoに新規追加する</t>
+  </si>
+  <si>
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
 ②リストの厚生控除子育（会社）に対象年度の（m_welfarebaby
-rateDBのrate値　＊基本給）/100
+rateのrate値　＊基本給）/1000
 結果表示</t>
   </si>
   <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの雇用保険個人負担に対象年度の（m_emplyinsrateDBのlaborBurdenRate 値* 基本給）/ 1000   結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの雇用保険会社負担に対象年度の（m_emplyinsrateDBのemployerBurdenRate 値* 基本給）/1000   結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
+    <t>①salaryinfoから最大年月を採番し各社員の給料リスト作成
 ②リストの雇用保拠出金（会社）に対象年度の（m_emplyinsrate
-DBのlaborInsuranceRate 値* 基本給）/1000   結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの労災保険（会社負担のみ）に対象年度の（m_emplyinsrateDBのindustrialAccidentInsuranceRate値 * 基本給）/1000   結果表示</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>W002</t>
-  </si>
-  <si>
-    <t>W003</t>
-  </si>
-  <si>
-    <t>W004</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②リストの厚生年金控除個人に ((m_welfarefeeDBの
-annuityRatio値　＊　m_welfarefeeDBのstandSalary)/100)/2   結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②年齢は40より大き時リストの厚生健康控除個人に((m_welfarefeeDBのcareRatio値 ＊ m_welfarefeeDBのstandSalary)/100)/2  結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-② 年齢は40より小さい時リスト
-の厚生健康控除個人に
-((m_welfarefeeDBのnotCareRatio値 ＊ m_welfarefeeDBの
-standSalary)/100)/2  結果表示</t>
-  </si>
-  <si>
-    <t>①salaryinfoDBから最大年月を採番し各社員の給料リスト作成
-②年齢は40時リストの厚生健康控除個人に((m_welfarefeeDBのcareRatio値 ＊ m_welfare
-feeDBのstandSalary)/100)/2 結果表示</t>
+のcontributionRate 値* 基本
+給）/1000   結果表示</t>
   </si>
 </sst>
 </file>
@@ -3892,7 +3881,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="16.649999999999999">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.3">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4175,7 +4164,7 @@
     <col min="6" max="16384" width="8.19921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" ht="18.3">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>64</v>
@@ -4183,7 +4172,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="18.3">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4211,7 +4200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="18.3">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4294,9 +4283,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CJ52" sqref="CJ52"/>
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS43" sqref="AS43:BF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18.3"/>
@@ -4970,7 +4959,7 @@
       <c r="AQ9" s="96"/>
       <c r="AR9" s="97"/>
       <c r="AS9" s="95" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AT9" s="96"/>
       <c r="AU9" s="96"/>
@@ -4986,7 +4975,7 @@
       <c r="BE9" s="96"/>
       <c r="BF9" s="97"/>
       <c r="BG9" s="98" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="BH9" s="99"/>
       <c r="BI9" s="99"/>
@@ -5206,7 +5195,7 @@
       <c r="BE11" s="96"/>
       <c r="BF11" s="97"/>
       <c r="BG11" s="98" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BH11" s="99"/>
       <c r="BI11" s="99"/>
@@ -5316,7 +5305,7 @@
       <c r="BE12" s="96"/>
       <c r="BF12" s="97"/>
       <c r="BG12" s="98" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="BH12" s="99"/>
       <c r="BI12" s="99"/>
@@ -5538,7 +5527,7 @@
       <c r="BE14" s="96"/>
       <c r="BF14" s="97"/>
       <c r="BG14" s="98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BH14" s="99"/>
       <c r="BI14" s="99"/>
@@ -5650,7 +5639,7 @@
       <c r="BE15" s="96"/>
       <c r="BF15" s="97"/>
       <c r="BG15" s="98" t="s">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="BH15" s="99"/>
       <c r="BI15" s="99"/>
@@ -5744,7 +5733,7 @@
       <c r="AQ16" s="96"/>
       <c r="AR16" s="97"/>
       <c r="AS16" s="95" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AT16" s="96"/>
       <c r="AU16" s="96"/>
@@ -5760,7 +5749,7 @@
       <c r="BE16" s="96"/>
       <c r="BF16" s="97"/>
       <c r="BG16" s="98" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="BH16" s="99"/>
       <c r="BI16" s="99"/>
@@ -5800,7 +5789,7 @@
       </c>
       <c r="B17" s="93"/>
       <c r="C17" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="41"/>
@@ -5852,7 +5841,7 @@
       <c r="AQ17" s="96"/>
       <c r="AR17" s="97"/>
       <c r="AS17" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT17" s="96"/>
       <c r="AU17" s="96"/>
@@ -5868,7 +5857,7 @@
       <c r="BE17" s="96"/>
       <c r="BF17" s="97"/>
       <c r="BG17" s="95" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="BH17" s="96"/>
       <c r="BI17" s="96"/>
@@ -5908,7 +5897,7 @@
       </c>
       <c r="B18" s="93"/>
       <c r="C18" s="49" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="41"/>
@@ -5962,7 +5951,7 @@
       <c r="AQ18" s="96"/>
       <c r="AR18" s="97"/>
       <c r="AS18" s="95" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AT18" s="96"/>
       <c r="AU18" s="96"/>
@@ -5978,7 +5967,7 @@
       <c r="BE18" s="96"/>
       <c r="BF18" s="97"/>
       <c r="BG18" s="98" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="BH18" s="99"/>
       <c r="BI18" s="99"/>
@@ -6018,7 +6007,7 @@
       </c>
       <c r="B19" s="93"/>
       <c r="C19" s="51" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="41"/>
@@ -6065,14 +6054,14 @@
       <c r="AL19" s="41"/>
       <c r="AM19" s="42"/>
       <c r="AN19" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO19" s="96"/>
       <c r="AP19" s="96"/>
       <c r="AQ19" s="96"/>
       <c r="AR19" s="97"/>
       <c r="AS19" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT19" s="96"/>
       <c r="AU19" s="96"/>
@@ -6088,7 +6077,7 @@
       <c r="BE19" s="96"/>
       <c r="BF19" s="97"/>
       <c r="BG19" s="98" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="BH19" s="99"/>
       <c r="BI19" s="99"/>
@@ -6128,7 +6117,7 @@
       </c>
       <c r="B20" s="93"/>
       <c r="C20" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="41"/>
@@ -6175,14 +6164,14 @@
       <c r="AL20" s="41"/>
       <c r="AM20" s="42"/>
       <c r="AN20" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO20" s="96"/>
       <c r="AP20" s="96"/>
       <c r="AQ20" s="96"/>
       <c r="AR20" s="97"/>
       <c r="AS20" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT20" s="96"/>
       <c r="AU20" s="96"/>
@@ -6198,7 +6187,7 @@
       <c r="BE20" s="96"/>
       <c r="BF20" s="97"/>
       <c r="BG20" s="98" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="BH20" s="99"/>
       <c r="BI20" s="99"/>
@@ -6238,7 +6227,7 @@
       </c>
       <c r="B21" s="93"/>
       <c r="C21" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="41"/>
@@ -6285,14 +6274,14 @@
       <c r="AL21" s="41"/>
       <c r="AM21" s="42"/>
       <c r="AN21" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO21" s="96"/>
       <c r="AP21" s="96"/>
       <c r="AQ21" s="96"/>
       <c r="AR21" s="97"/>
       <c r="AS21" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT21" s="96"/>
       <c r="AU21" s="96"/>
@@ -6308,7 +6297,7 @@
       <c r="BE21" s="96"/>
       <c r="BF21" s="97"/>
       <c r="BG21" s="98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BH21" s="99"/>
       <c r="BI21" s="99"/>
@@ -6348,7 +6337,7 @@
       </c>
       <c r="B22" s="93"/>
       <c r="C22" s="51" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="41"/>
@@ -6395,14 +6384,14 @@
       <c r="AL22" s="41"/>
       <c r="AM22" s="42"/>
       <c r="AN22" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO22" s="96"/>
       <c r="AP22" s="96"/>
       <c r="AQ22" s="96"/>
       <c r="AR22" s="97"/>
       <c r="AS22" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT22" s="96"/>
       <c r="AU22" s="96"/>
@@ -6418,7 +6407,7 @@
       <c r="BE22" s="96"/>
       <c r="BF22" s="97"/>
       <c r="BG22" s="98" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="BH22" s="99"/>
       <c r="BI22" s="99"/>
@@ -6458,7 +6447,7 @@
       </c>
       <c r="B23" s="93"/>
       <c r="C23" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="41"/>
@@ -6505,14 +6494,14 @@
       <c r="AL23" s="41"/>
       <c r="AM23" s="42"/>
       <c r="AN23" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO23" s="96"/>
       <c r="AP23" s="96"/>
       <c r="AQ23" s="96"/>
       <c r="AR23" s="97"/>
       <c r="AS23" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT23" s="96"/>
       <c r="AU23" s="96"/>
@@ -6528,7 +6517,7 @@
       <c r="BE23" s="96"/>
       <c r="BF23" s="97"/>
       <c r="BG23" s="98" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BH23" s="99"/>
       <c r="BI23" s="99"/>
@@ -6568,7 +6557,7 @@
       </c>
       <c r="B24" s="93"/>
       <c r="C24" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="41"/>
@@ -6615,14 +6604,14 @@
       <c r="AL24" s="41"/>
       <c r="AM24" s="42"/>
       <c r="AN24" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO24" s="96"/>
       <c r="AP24" s="96"/>
       <c r="AQ24" s="96"/>
       <c r="AR24" s="97"/>
       <c r="AS24" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT24" s="96"/>
       <c r="AU24" s="96"/>
@@ -6638,7 +6627,7 @@
       <c r="BE24" s="96"/>
       <c r="BF24" s="97"/>
       <c r="BG24" s="98" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="BH24" s="99"/>
       <c r="BI24" s="99"/>
@@ -6678,7 +6667,7 @@
       </c>
       <c r="B25" s="93"/>
       <c r="C25" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="41"/>
@@ -6727,14 +6716,14 @@
       <c r="AL25" s="41"/>
       <c r="AM25" s="42"/>
       <c r="AN25" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO25" s="96"/>
       <c r="AP25" s="96"/>
       <c r="AQ25" s="96"/>
       <c r="AR25" s="97"/>
       <c r="AS25" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT25" s="96"/>
       <c r="AU25" s="96"/>
@@ -6750,7 +6739,7 @@
       <c r="BE25" s="96"/>
       <c r="BF25" s="97"/>
       <c r="BG25" s="98" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="BH25" s="99"/>
       <c r="BI25" s="99"/>
@@ -6790,7 +6779,7 @@
       </c>
       <c r="B26" s="93"/>
       <c r="C26" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="41"/>
@@ -6839,14 +6828,14 @@
       <c r="AL26" s="41"/>
       <c r="AM26" s="42"/>
       <c r="AN26" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO26" s="96"/>
       <c r="AP26" s="96"/>
       <c r="AQ26" s="96"/>
       <c r="AR26" s="97"/>
       <c r="AS26" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT26" s="96"/>
       <c r="AU26" s="96"/>
@@ -6862,7 +6851,7 @@
       <c r="BE26" s="96"/>
       <c r="BF26" s="97"/>
       <c r="BG26" s="98" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="BH26" s="99"/>
       <c r="BI26" s="99"/>
@@ -6902,7 +6891,7 @@
       </c>
       <c r="B27" s="93"/>
       <c r="C27" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="41"/>
@@ -6949,14 +6938,14 @@
       <c r="AL27" s="41"/>
       <c r="AM27" s="42"/>
       <c r="AN27" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO27" s="96"/>
       <c r="AP27" s="96"/>
       <c r="AQ27" s="96"/>
       <c r="AR27" s="97"/>
       <c r="AS27" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT27" s="96"/>
       <c r="AU27" s="96"/>
@@ -6972,7 +6961,7 @@
       <c r="BE27" s="96"/>
       <c r="BF27" s="97"/>
       <c r="BG27" s="98" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="BH27" s="99"/>
       <c r="BI27" s="99"/>
@@ -7012,7 +7001,7 @@
       </c>
       <c r="B28" s="93"/>
       <c r="C28" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="41"/>
@@ -7059,14 +7048,14 @@
       <c r="AL28" s="41"/>
       <c r="AM28" s="42"/>
       <c r="AN28" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO28" s="96"/>
       <c r="AP28" s="96"/>
       <c r="AQ28" s="96"/>
       <c r="AR28" s="97"/>
       <c r="AS28" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT28" s="96"/>
       <c r="AU28" s="96"/>
@@ -7082,7 +7071,7 @@
       <c r="BE28" s="96"/>
       <c r="BF28" s="97"/>
       <c r="BG28" s="98" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="BH28" s="99"/>
       <c r="BI28" s="99"/>
@@ -7122,7 +7111,7 @@
       </c>
       <c r="B29" s="93"/>
       <c r="C29" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="41"/>
@@ -7169,14 +7158,14 @@
       <c r="AL29" s="41"/>
       <c r="AM29" s="42"/>
       <c r="AN29" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO29" s="96"/>
       <c r="AP29" s="96"/>
       <c r="AQ29" s="96"/>
       <c r="AR29" s="97"/>
       <c r="AS29" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT29" s="96"/>
       <c r="AU29" s="96"/>
@@ -7192,7 +7181,7 @@
       <c r="BE29" s="96"/>
       <c r="BF29" s="97"/>
       <c r="BG29" s="98" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="BH29" s="99"/>
       <c r="BI29" s="99"/>
@@ -7232,7 +7221,7 @@
       </c>
       <c r="B30" s="93"/>
       <c r="C30" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="41"/>
@@ -7279,14 +7268,14 @@
       <c r="AL30" s="41"/>
       <c r="AM30" s="42"/>
       <c r="AN30" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO30" s="96"/>
       <c r="AP30" s="96"/>
       <c r="AQ30" s="96"/>
       <c r="AR30" s="97"/>
       <c r="AS30" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT30" s="96"/>
       <c r="AU30" s="96"/>
@@ -7302,7 +7291,7 @@
       <c r="BE30" s="96"/>
       <c r="BF30" s="97"/>
       <c r="BG30" s="98" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="BH30" s="99"/>
       <c r="BI30" s="99"/>
@@ -7342,7 +7331,7 @@
       </c>
       <c r="B31" s="93"/>
       <c r="C31" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="41"/>
@@ -7389,14 +7378,14 @@
       <c r="AL31" s="41"/>
       <c r="AM31" s="42"/>
       <c r="AN31" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO31" s="96"/>
       <c r="AP31" s="96"/>
       <c r="AQ31" s="96"/>
       <c r="AR31" s="97"/>
       <c r="AS31" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT31" s="96"/>
       <c r="AU31" s="96"/>
@@ -7412,7 +7401,7 @@
       <c r="BE31" s="96"/>
       <c r="BF31" s="97"/>
       <c r="BG31" s="98" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="BH31" s="99"/>
       <c r="BI31" s="99"/>
@@ -7452,7 +7441,7 @@
       </c>
       <c r="B32" s="93"/>
       <c r="C32" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="41"/>
@@ -7499,14 +7488,14 @@
       <c r="AL32" s="41"/>
       <c r="AM32" s="42"/>
       <c r="AN32" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO32" s="96"/>
       <c r="AP32" s="96"/>
       <c r="AQ32" s="96"/>
       <c r="AR32" s="97"/>
       <c r="AS32" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT32" s="96"/>
       <c r="AU32" s="96"/>
@@ -7522,7 +7511,7 @@
       <c r="BE32" s="96"/>
       <c r="BF32" s="97"/>
       <c r="BG32" s="98" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="BH32" s="99"/>
       <c r="BI32" s="99"/>
@@ -7562,7 +7551,7 @@
       </c>
       <c r="B33" s="93"/>
       <c r="C33" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="41"/>
@@ -7609,14 +7598,14 @@
       <c r="AL33" s="41"/>
       <c r="AM33" s="42"/>
       <c r="AN33" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO33" s="96"/>
       <c r="AP33" s="96"/>
       <c r="AQ33" s="96"/>
       <c r="AR33" s="97"/>
       <c r="AS33" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT33" s="96"/>
       <c r="AU33" s="96"/>
@@ -7632,7 +7621,7 @@
       <c r="BE33" s="96"/>
       <c r="BF33" s="97"/>
       <c r="BG33" s="98" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="BH33" s="99"/>
       <c r="BI33" s="99"/>
@@ -7672,7 +7661,7 @@
       </c>
       <c r="B34" s="93"/>
       <c r="C34" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="41"/>
@@ -7719,14 +7708,14 @@
       <c r="AL34" s="41"/>
       <c r="AM34" s="42"/>
       <c r="AN34" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO34" s="96"/>
       <c r="AP34" s="96"/>
       <c r="AQ34" s="96"/>
       <c r="AR34" s="97"/>
       <c r="AS34" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AT34" s="96"/>
       <c r="AU34" s="96"/>
@@ -7742,7 +7731,7 @@
       <c r="BE34" s="96"/>
       <c r="BF34" s="97"/>
       <c r="BG34" s="98" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="BH34" s="99"/>
       <c r="BI34" s="99"/>
@@ -7782,7 +7771,7 @@
       </c>
       <c r="B35" s="93"/>
       <c r="C35" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="41"/>
@@ -7829,14 +7818,14 @@
       <c r="AL35" s="41"/>
       <c r="AM35" s="42"/>
       <c r="AN35" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO35" s="96"/>
       <c r="AP35" s="96"/>
       <c r="AQ35" s="96"/>
       <c r="AR35" s="97"/>
       <c r="AS35" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT35" s="96"/>
       <c r="AU35" s="96"/>
@@ -7852,7 +7841,7 @@
       <c r="BE35" s="96"/>
       <c r="BF35" s="97"/>
       <c r="BG35" s="98" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="BH35" s="99"/>
       <c r="BI35" s="99"/>
@@ -7892,7 +7881,7 @@
       </c>
       <c r="B36" s="93"/>
       <c r="C36" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="41"/>
@@ -7941,14 +7930,14 @@
       <c r="AL36" s="41"/>
       <c r="AM36" s="42"/>
       <c r="AN36" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO36" s="96"/>
       <c r="AP36" s="96"/>
       <c r="AQ36" s="96"/>
       <c r="AR36" s="97"/>
       <c r="AS36" s="95" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AT36" s="96"/>
       <c r="AU36" s="96"/>
@@ -7964,7 +7953,7 @@
       <c r="BE36" s="96"/>
       <c r="BF36" s="97"/>
       <c r="BG36" s="98" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="BH36" s="99"/>
       <c r="BI36" s="99"/>
@@ -8004,7 +7993,7 @@
       </c>
       <c r="B37" s="93"/>
       <c r="C37" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="41"/>
@@ -8051,14 +8040,14 @@
       <c r="AL37" s="41"/>
       <c r="AM37" s="42"/>
       <c r="AN37" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO37" s="96"/>
       <c r="AP37" s="96"/>
       <c r="AQ37" s="96"/>
       <c r="AR37" s="97"/>
       <c r="AS37" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT37" s="96"/>
       <c r="AU37" s="96"/>
@@ -8074,7 +8063,7 @@
       <c r="BE37" s="96"/>
       <c r="BF37" s="97"/>
       <c r="BG37" s="98" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="BH37" s="99"/>
       <c r="BI37" s="99"/>
@@ -8114,7 +8103,7 @@
       </c>
       <c r="B38" s="93"/>
       <c r="C38" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="52"/>
       <c r="E38" s="41"/>
@@ -8161,14 +8150,14 @@
       <c r="AL38" s="41"/>
       <c r="AM38" s="42"/>
       <c r="AN38" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO38" s="96"/>
       <c r="AP38" s="96"/>
       <c r="AQ38" s="96"/>
       <c r="AR38" s="97"/>
       <c r="AS38" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT38" s="96"/>
       <c r="AU38" s="96"/>
@@ -8184,7 +8173,7 @@
       <c r="BE38" s="96"/>
       <c r="BF38" s="97"/>
       <c r="BG38" s="98" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="BH38" s="99"/>
       <c r="BI38" s="99"/>
@@ -8224,7 +8213,7 @@
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="41"/>
@@ -8271,14 +8260,14 @@
       <c r="AL39" s="41"/>
       <c r="AM39" s="42"/>
       <c r="AN39" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO39" s="96"/>
       <c r="AP39" s="96"/>
       <c r="AQ39" s="96"/>
       <c r="AR39" s="97"/>
       <c r="AS39" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT39" s="96"/>
       <c r="AU39" s="96"/>
@@ -8294,7 +8283,7 @@
       <c r="BE39" s="96"/>
       <c r="BF39" s="97"/>
       <c r="BG39" s="98" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="BH39" s="99"/>
       <c r="BI39" s="99"/>
@@ -8334,7 +8323,7 @@
       </c>
       <c r="B40" s="93"/>
       <c r="C40" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="41"/>
@@ -8381,14 +8370,14 @@
       <c r="AL40" s="41"/>
       <c r="AM40" s="42"/>
       <c r="AN40" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO40" s="96"/>
       <c r="AP40" s="96"/>
       <c r="AQ40" s="96"/>
       <c r="AR40" s="97"/>
       <c r="AS40" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT40" s="96"/>
       <c r="AU40" s="96"/>
@@ -8404,7 +8393,7 @@
       <c r="BE40" s="96"/>
       <c r="BF40" s="97"/>
       <c r="BG40" s="98" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BH40" s="99"/>
       <c r="BI40" s="99"/>
@@ -8444,7 +8433,7 @@
       </c>
       <c r="B41" s="93"/>
       <c r="C41" s="49" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="41"/>
@@ -8491,14 +8480,14 @@
       <c r="AL41" s="41"/>
       <c r="AM41" s="42"/>
       <c r="AN41" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO41" s="96"/>
       <c r="AP41" s="96"/>
       <c r="AQ41" s="96"/>
       <c r="AR41" s="97"/>
       <c r="AS41" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT41" s="96"/>
       <c r="AU41" s="96"/>
@@ -8514,7 +8503,7 @@
       <c r="BE41" s="96"/>
       <c r="BF41" s="97"/>
       <c r="BG41" s="98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BH41" s="99"/>
       <c r="BI41" s="99"/>
@@ -8554,7 +8543,7 @@
       </c>
       <c r="B42" s="93"/>
       <c r="C42" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="52"/>
       <c r="E42" s="41"/>
@@ -8601,14 +8590,14 @@
       <c r="AL42" s="41"/>
       <c r="AM42" s="42"/>
       <c r="AN42" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO42" s="96"/>
       <c r="AP42" s="96"/>
       <c r="AQ42" s="96"/>
       <c r="AR42" s="97"/>
       <c r="AS42" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT42" s="96"/>
       <c r="AU42" s="96"/>
@@ -8624,7 +8613,7 @@
       <c r="BE42" s="96"/>
       <c r="BF42" s="97"/>
       <c r="BG42" s="98" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="BH42" s="99"/>
       <c r="BI42" s="99"/>
@@ -8664,7 +8653,7 @@
       </c>
       <c r="B43" s="93"/>
       <c r="C43" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="41"/>
@@ -8711,14 +8700,14 @@
       <c r="AL43" s="41"/>
       <c r="AM43" s="42"/>
       <c r="AN43" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO43" s="96"/>
       <c r="AP43" s="96"/>
       <c r="AQ43" s="96"/>
       <c r="AR43" s="97"/>
       <c r="AS43" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT43" s="96"/>
       <c r="AU43" s="96"/>
@@ -8734,7 +8723,7 @@
       <c r="BE43" s="96"/>
       <c r="BF43" s="97"/>
       <c r="BG43" s="98" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="BH43" s="99"/>
       <c r="BI43" s="99"/>
@@ -8774,7 +8763,7 @@
       </c>
       <c r="B44" s="93"/>
       <c r="C44" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="52"/>
       <c r="E44" s="41"/>
@@ -8823,14 +8812,14 @@
       <c r="AL44" s="41"/>
       <c r="AM44" s="42"/>
       <c r="AN44" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO44" s="96"/>
       <c r="AP44" s="96"/>
       <c r="AQ44" s="96"/>
       <c r="AR44" s="97"/>
       <c r="AS44" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT44" s="96"/>
       <c r="AU44" s="96"/>
@@ -8846,7 +8835,7 @@
       <c r="BE44" s="96"/>
       <c r="BF44" s="97"/>
       <c r="BG44" s="98" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="BH44" s="99"/>
       <c r="BI44" s="99"/>
@@ -8886,7 +8875,7 @@
       </c>
       <c r="B45" s="93"/>
       <c r="C45" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="41"/>
@@ -8935,14 +8924,14 @@
       <c r="AL45" s="41"/>
       <c r="AM45" s="42"/>
       <c r="AN45" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO45" s="96"/>
       <c r="AP45" s="96"/>
       <c r="AQ45" s="96"/>
       <c r="AR45" s="97"/>
       <c r="AS45" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT45" s="96"/>
       <c r="AU45" s="96"/>
@@ -8958,7 +8947,7 @@
       <c r="BE45" s="96"/>
       <c r="BF45" s="97"/>
       <c r="BG45" s="98" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="BH45" s="99"/>
       <c r="BI45" s="99"/>
@@ -8998,7 +8987,7 @@
       </c>
       <c r="B46" s="93"/>
       <c r="C46" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="41"/>
@@ -9045,14 +9034,14 @@
       <c r="AL46" s="41"/>
       <c r="AM46" s="42"/>
       <c r="AN46" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO46" s="96"/>
       <c r="AP46" s="96"/>
       <c r="AQ46" s="96"/>
       <c r="AR46" s="97"/>
       <c r="AS46" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT46" s="96"/>
       <c r="AU46" s="96"/>
@@ -9068,7 +9057,7 @@
       <c r="BE46" s="96"/>
       <c r="BF46" s="97"/>
       <c r="BG46" s="98" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="BH46" s="99"/>
       <c r="BI46" s="99"/>
@@ -9108,7 +9097,7 @@
       </c>
       <c r="B47" s="93"/>
       <c r="C47" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="52"/>
       <c r="E47" s="41"/>
@@ -9155,14 +9144,14 @@
       <c r="AL47" s="41"/>
       <c r="AM47" s="42"/>
       <c r="AN47" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO47" s="96"/>
       <c r="AP47" s="96"/>
       <c r="AQ47" s="96"/>
       <c r="AR47" s="97"/>
       <c r="AS47" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT47" s="96"/>
       <c r="AU47" s="96"/>
@@ -9178,7 +9167,7 @@
       <c r="BE47" s="96"/>
       <c r="BF47" s="97"/>
       <c r="BG47" s="98" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="BH47" s="99"/>
       <c r="BI47" s="99"/>
@@ -9218,7 +9207,7 @@
       </c>
       <c r="B48" s="93"/>
       <c r="C48" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="52"/>
       <c r="E48" s="41"/>
@@ -9265,14 +9254,14 @@
       <c r="AL48" s="41"/>
       <c r="AM48" s="42"/>
       <c r="AN48" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO48" s="96"/>
       <c r="AP48" s="96"/>
       <c r="AQ48" s="96"/>
       <c r="AR48" s="97"/>
       <c r="AS48" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT48" s="96"/>
       <c r="AU48" s="96"/>
@@ -9288,7 +9277,7 @@
       <c r="BE48" s="96"/>
       <c r="BF48" s="97"/>
       <c r="BG48" s="98" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="BH48" s="99"/>
       <c r="BI48" s="99"/>
@@ -9328,7 +9317,7 @@
       </c>
       <c r="B49" s="93"/>
       <c r="C49" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="41"/>
@@ -9375,14 +9364,14 @@
       <c r="AL49" s="41"/>
       <c r="AM49" s="42"/>
       <c r="AN49" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO49" s="96"/>
       <c r="AP49" s="96"/>
       <c r="AQ49" s="96"/>
       <c r="AR49" s="97"/>
       <c r="AS49" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT49" s="96"/>
       <c r="AU49" s="96"/>
@@ -9398,7 +9387,7 @@
       <c r="BE49" s="96"/>
       <c r="BF49" s="97"/>
       <c r="BG49" s="98" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="BH49" s="99"/>
       <c r="BI49" s="99"/>
@@ -9438,7 +9427,7 @@
       </c>
       <c r="B50" s="93"/>
       <c r="C50" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="41"/>
@@ -9485,14 +9474,14 @@
       <c r="AL50" s="41"/>
       <c r="AM50" s="42"/>
       <c r="AN50" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO50" s="96"/>
       <c r="AP50" s="96"/>
       <c r="AQ50" s="96"/>
       <c r="AR50" s="97"/>
       <c r="AS50" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT50" s="96"/>
       <c r="AU50" s="96"/>
@@ -9508,7 +9497,7 @@
       <c r="BE50" s="96"/>
       <c r="BF50" s="97"/>
       <c r="BG50" s="98" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="BH50" s="99"/>
       <c r="BI50" s="99"/>
@@ -9548,7 +9537,7 @@
       </c>
       <c r="B51" s="93"/>
       <c r="C51" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="52"/>
       <c r="E51" s="41"/>
@@ -9595,14 +9584,14 @@
       <c r="AL51" s="41"/>
       <c r="AM51" s="42"/>
       <c r="AN51" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO51" s="96"/>
       <c r="AP51" s="96"/>
       <c r="AQ51" s="96"/>
       <c r="AR51" s="97"/>
       <c r="AS51" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT51" s="96"/>
       <c r="AU51" s="96"/>
@@ -9618,7 +9607,7 @@
       <c r="BE51" s="96"/>
       <c r="BF51" s="97"/>
       <c r="BG51" s="98" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="BH51" s="99"/>
       <c r="BI51" s="99"/>
@@ -9658,7 +9647,7 @@
       </c>
       <c r="B52" s="93"/>
       <c r="C52" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="41"/>
@@ -9707,14 +9696,14 @@
       <c r="AL52" s="41"/>
       <c r="AM52" s="42"/>
       <c r="AN52" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO52" s="96"/>
       <c r="AP52" s="96"/>
       <c r="AQ52" s="96"/>
       <c r="AR52" s="97"/>
       <c r="AS52" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT52" s="96"/>
       <c r="AU52" s="96"/>
@@ -9730,7 +9719,7 @@
       <c r="BE52" s="96"/>
       <c r="BF52" s="97"/>
       <c r="BG52" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BH52" s="96"/>
       <c r="BI52" s="96"/>
@@ -9753,7 +9742,7 @@
       <c r="BX52" s="92"/>
       <c r="BY52" s="93"/>
       <c r="BZ52" s="94" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="CA52" s="92"/>
       <c r="CB52" s="93"/>
@@ -9766,6 +9755,18 @@
     </row>
   </sheetData>
   <mergeCells count="702">
+    <mergeCell ref="CC51:CF51"/>
+    <mergeCell ref="BZ45:CB45"/>
+    <mergeCell ref="CC45:CF45"/>
+    <mergeCell ref="BZ46:CB46"/>
+    <mergeCell ref="CC46:CF46"/>
+    <mergeCell ref="BZ47:CB47"/>
+    <mergeCell ref="BZ30:CB30"/>
+    <mergeCell ref="CC30:CF30"/>
+    <mergeCell ref="BZ31:CB31"/>
+    <mergeCell ref="CC31:CF31"/>
+    <mergeCell ref="BZ32:CB32"/>
+    <mergeCell ref="CC32:CF32"/>
     <mergeCell ref="BZ38:CB38"/>
     <mergeCell ref="CC38:CF38"/>
     <mergeCell ref="CC52:CF52"/>
@@ -9779,42 +9780,21 @@
     <mergeCell ref="CC36:CF36"/>
     <mergeCell ref="BZ37:CB37"/>
     <mergeCell ref="CC37:CF37"/>
-    <mergeCell ref="BZ28:CB28"/>
-    <mergeCell ref="CC28:CF28"/>
-    <mergeCell ref="BZ29:CB29"/>
-    <mergeCell ref="CC29:CF29"/>
-    <mergeCell ref="BZ30:CB30"/>
-    <mergeCell ref="CC30:CF30"/>
-    <mergeCell ref="BZ31:CB31"/>
-    <mergeCell ref="CC31:CF31"/>
-    <mergeCell ref="BZ32:CB32"/>
-    <mergeCell ref="CC32:CF32"/>
-    <mergeCell ref="BZ23:CB23"/>
-    <mergeCell ref="CC23:CF23"/>
-    <mergeCell ref="BZ24:CB24"/>
-    <mergeCell ref="CC24:CF24"/>
+    <mergeCell ref="BZ49:CB49"/>
+    <mergeCell ref="CC49:CF49"/>
+    <mergeCell ref="BZ50:CB50"/>
+    <mergeCell ref="CC50:CF50"/>
+    <mergeCell ref="BZ51:CB51"/>
     <mergeCell ref="BZ25:CB25"/>
     <mergeCell ref="CC25:CF25"/>
     <mergeCell ref="BZ26:CB26"/>
     <mergeCell ref="CC26:CF26"/>
     <mergeCell ref="BZ27:CB27"/>
     <mergeCell ref="CC27:CF27"/>
-    <mergeCell ref="BZ18:CB18"/>
-    <mergeCell ref="CC18:CF18"/>
-    <mergeCell ref="BZ19:CB19"/>
-    <mergeCell ref="CC19:CF19"/>
-    <mergeCell ref="BZ20:CB20"/>
-    <mergeCell ref="CC20:CF20"/>
-    <mergeCell ref="BZ21:CB21"/>
-    <mergeCell ref="CC21:CF21"/>
-    <mergeCell ref="BZ22:CB22"/>
-    <mergeCell ref="CC22:CF22"/>
-    <mergeCell ref="BZ49:CB49"/>
-    <mergeCell ref="CC49:CF49"/>
-    <mergeCell ref="BZ50:CB50"/>
-    <mergeCell ref="CC50:CF50"/>
-    <mergeCell ref="BZ51:CB51"/>
-    <mergeCell ref="CC51:CF51"/>
+    <mergeCell ref="BZ28:CB28"/>
+    <mergeCell ref="CC28:CF28"/>
+    <mergeCell ref="BZ29:CB29"/>
+    <mergeCell ref="CC29:CF29"/>
     <mergeCell ref="BZ9:CB9"/>
     <mergeCell ref="CC9:CF9"/>
     <mergeCell ref="BZ10:CB10"/>
@@ -9835,11 +9815,20 @@
     <mergeCell ref="CC17:CF17"/>
     <mergeCell ref="BZ44:CB44"/>
     <mergeCell ref="CC44:CF44"/>
-    <mergeCell ref="BZ45:CB45"/>
-    <mergeCell ref="CC45:CF45"/>
-    <mergeCell ref="BZ46:CB46"/>
-    <mergeCell ref="CC46:CF46"/>
-    <mergeCell ref="BZ47:CB47"/>
+    <mergeCell ref="BZ18:CB18"/>
+    <mergeCell ref="CC18:CF18"/>
+    <mergeCell ref="BZ19:CB19"/>
+    <mergeCell ref="CC19:CF19"/>
+    <mergeCell ref="BZ20:CB20"/>
+    <mergeCell ref="CC20:CF20"/>
+    <mergeCell ref="BZ21:CB21"/>
+    <mergeCell ref="CC21:CF21"/>
+    <mergeCell ref="BZ22:CB22"/>
+    <mergeCell ref="CC22:CF22"/>
+    <mergeCell ref="BZ23:CB23"/>
+    <mergeCell ref="CC23:CF23"/>
+    <mergeCell ref="BZ24:CB24"/>
+    <mergeCell ref="CC24:CF24"/>
     <mergeCell ref="CC47:CF47"/>
     <mergeCell ref="BZ48:CB48"/>
     <mergeCell ref="CC48:CF48"/>
@@ -10479,8 +10468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172950F2-B904-4D74-BA90-C2468CEFF659}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3"/>
@@ -10498,83 +10487,83 @@
   <sheetData>
     <row r="1" spans="1:20" ht="31.05" customHeight="1">
       <c r="B1" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="54" customFormat="1" ht="54.85">
       <c r="A2" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="55" t="s">
+      <c r="R2" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="55" t="s">
+      <c r="T2" s="55" t="s">
         <v>111</v>
-      </c>
-      <c r="T2" s="55" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24.8" customHeight="1">
       <c r="A3" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
@@ -10588,7 +10577,7 @@
       <c r="N3" s="56"/>
       <c r="O3" s="56"/>
       <c r="P3" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="56"/>
       <c r="R3" s="58"/>
@@ -10597,13 +10586,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="B4" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
@@ -10617,7 +10606,7 @@
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
       <c r="P4" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="56"/>
       <c r="R4" s="58"/>
@@ -10626,13 +10615,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
@@ -10646,7 +10635,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
       <c r="P5" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="56"/>
       <c r="R5" s="58"/>
@@ -10655,315 +10644,273 @@
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="53" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="54.85">
       <c r="A9" s="54" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B9" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="E9" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="F9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="G9" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="H9" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>88</v>
-      </c>
       <c r="L9" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="N9" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B10" s="59">
         <v>186000</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="59">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E10" s="59">
-        <v>2</v>
-      </c>
-      <c r="F10" s="59">
-        <v>110</v>
-      </c>
-      <c r="G10" s="59">
         <v>100</v>
       </c>
-      <c r="H10" s="60">
+      <c r="F10" s="60">
         <v>8</v>
       </c>
-      <c r="I10" s="60">
+      <c r="G10" s="60">
         <v>8</v>
       </c>
-      <c r="J10" s="59">
+      <c r="H10" s="59">
         <v>0</v>
       </c>
+      <c r="I10" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>201</v>
+      </c>
       <c r="K10" s="56" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="N10" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B11" s="59">
         <v>195000</v>
       </c>
       <c r="C11" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="59">
+        <v>110</v>
+      </c>
+      <c r="E11" s="59">
+        <v>100</v>
+      </c>
+      <c r="F11" s="60">
+        <v>8</v>
+      </c>
+      <c r="G11" s="60">
+        <v>8</v>
+      </c>
+      <c r="H11" s="59">
+        <v>0</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="59">
-        <v>3</v>
-      </c>
-      <c r="E11" s="59">
-        <v>2</v>
-      </c>
-      <c r="F11" s="59">
-        <v>110</v>
-      </c>
-      <c r="G11" s="59">
-        <v>100</v>
-      </c>
-      <c r="H11" s="60">
-        <v>8</v>
-      </c>
-      <c r="I11" s="60">
-        <v>8</v>
-      </c>
-      <c r="J11" s="59">
-        <v>0</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>203</v>
-      </c>
       <c r="L11" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B12" s="59">
         <v>186000</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="59">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E12" s="59">
-        <v>2</v>
-      </c>
-      <c r="F12" s="59">
-        <v>110</v>
-      </c>
-      <c r="G12" s="59">
         <v>100</v>
       </c>
-      <c r="H12" s="60">
+      <c r="F12" s="60">
         <v>8</v>
       </c>
-      <c r="I12" s="60">
+      <c r="G12" s="60">
         <v>8</v>
       </c>
-      <c r="J12" s="59">
+      <c r="H12" s="59">
         <v>0</v>
       </c>
+      <c r="I12" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>201</v>
+      </c>
       <c r="K12" s="56" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B13" s="59">
         <v>215000</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="D13" s="59">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E13" s="59">
-        <v>2</v>
-      </c>
-      <c r="F13" s="59">
-        <v>110</v>
-      </c>
-      <c r="G13" s="59">
         <v>100</v>
       </c>
-      <c r="H13" s="60">
+      <c r="F13" s="60">
         <v>8</v>
       </c>
-      <c r="I13" s="60">
+      <c r="G13" s="60">
         <v>8</v>
       </c>
-      <c r="J13" s="59">
+      <c r="H13" s="59">
         <v>0</v>
       </c>
+      <c r="I13" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>201</v>
+      </c>
       <c r="K13" s="56" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="M13" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="N13" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B14" s="59">
         <v>146000</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="D14" s="59">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E14" s="59">
-        <v>2</v>
-      </c>
-      <c r="F14" s="59">
-        <v>110</v>
-      </c>
-      <c r="G14" s="59">
         <v>100</v>
       </c>
-      <c r="H14" s="60">
+      <c r="F14" s="60">
         <v>8</v>
       </c>
-      <c r="I14" s="60">
+      <c r="G14" s="60">
         <v>8</v>
       </c>
-      <c r="J14" s="59">
+      <c r="H14" s="59">
         <v>0</v>
       </c>
+      <c r="I14" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>201</v>
+      </c>
       <c r="K14" s="56" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="L14" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="M14" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="N14" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B15" s="59">
         <v>230000</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="D15" s="59">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E15" s="59">
-        <v>2</v>
-      </c>
-      <c r="F15" s="59">
-        <v>110</v>
-      </c>
-      <c r="G15" s="59">
         <v>100</v>
       </c>
-      <c r="H15" s="60">
+      <c r="F15" s="60">
         <v>8</v>
       </c>
-      <c r="I15" s="60">
+      <c r="G15" s="60">
         <v>8</v>
       </c>
-      <c r="J15" s="59">
+      <c r="H15" s="59">
         <v>0</v>
       </c>
+      <c r="I15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>201</v>
+      </c>
       <c r="K15" s="56" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="M15" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="N15" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -10998,7 +10945,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="B18" s="71" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="69"/>
@@ -11015,72 +10962,72 @@
     </row>
     <row r="19" spans="1:20" ht="54.85">
       <c r="B19" s="55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C19" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="I19" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="J19" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="N19" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="O19" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="N19" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="O19" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="P19" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q19" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="R19" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="55" t="s">
+      <c r="T19" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="T19" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="B20" s="56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="59"/>
@@ -11101,13 +11048,13 @@
     </row>
     <row r="21" spans="1:20">
       <c r="B21" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="59"/>
@@ -11128,13 +11075,13 @@
     </row>
     <row r="22" spans="1:20">
       <c r="B22" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="59"/>
@@ -11155,1197 +11102,1197 @@
     </row>
     <row r="26" spans="1:20">
       <c r="B26" s="53" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="36.549999999999997">
       <c r="A27" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="F27" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="G27" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>210</v>
-      </c>
       <c r="H27" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B28" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F28" s="59">
         <v>150</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B29" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F29" s="59">
         <v>150</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B30" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F30" s="59">
         <v>150</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H30" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B31" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F31" s="59">
         <v>150</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B32" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F32" s="59">
         <v>150</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B33" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F33" s="59">
         <v>150</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B34" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F34" s="59">
         <v>150</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B35" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F35" s="59">
         <v>150</v>
       </c>
       <c r="G35" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B36" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F36" s="59">
         <v>150</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B37" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F37" s="59">
         <v>150</v>
       </c>
       <c r="G37" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B38" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F38" s="59">
         <v>150</v>
       </c>
       <c r="G38" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H38" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B39" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>214</v>
       </c>
       <c r="F39" s="59">
         <v>150</v>
       </c>
       <c r="G39" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H39" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F40" s="59">
         <v>150</v>
       </c>
       <c r="G40" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H40" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F41" s="59">
         <v>150</v>
       </c>
       <c r="G41" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H41" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F42" s="59">
         <v>150</v>
       </c>
       <c r="G42" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H42" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F43" s="59">
         <v>150</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F44" s="59">
         <v>150</v>
       </c>
       <c r="G44" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I44" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" s="59">
         <v>150</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H45" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E46" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F46" s="59">
         <v>150</v>
       </c>
       <c r="G46" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H46" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F47" s="59">
         <v>150</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D48" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F48" s="59">
         <v>150</v>
       </c>
       <c r="G48" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H48" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D49" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F49" s="59">
         <v>150</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H49" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F50" s="59">
         <v>150</v>
       </c>
       <c r="G50" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H50" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F51" s="59">
         <v>150</v>
       </c>
       <c r="G51" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H51" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F52" s="59">
         <v>150</v>
       </c>
       <c r="G52" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D53" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F53" s="59">
         <v>150</v>
       </c>
       <c r="G53" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D54" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F54" s="59">
         <v>150</v>
       </c>
       <c r="G54" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H54" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F55" s="59">
         <v>150</v>
       </c>
       <c r="G55" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H55" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F56" s="59">
         <v>150</v>
       </c>
       <c r="G56" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F57" s="59">
         <v>150</v>
       </c>
       <c r="G57" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H57" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F58" s="59">
         <v>150</v>
       </c>
       <c r="G58" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I58" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F59" s="59">
         <v>150</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H59" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F60" s="59">
         <v>150</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I60" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D61" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F61" s="59">
         <v>150</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H61" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I61" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D62" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F62" s="59">
         <v>150</v>
       </c>
       <c r="G62" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I62" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F63" s="59">
         <v>150</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I63" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="B65" s="53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="54.85">
       <c r="A66" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="H66" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="K66" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="L66" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="M66" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="N66" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="O66" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="P66" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q66" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="R66" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="S66" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="T66" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="U66" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D66" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E66" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="G66" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="H66" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="I66" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="K66" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="L66" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="M66" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="N66" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="O66" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="P66" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q66" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="R66" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="S66" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="T66" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="U66" s="55" t="s">
+      <c r="V66" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="V66" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D67" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H67" s="59">
         <v>3000</v>
       </c>
       <c r="I67" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J67" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K67" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L67" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M67" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N67" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J67" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K67" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L67" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M67" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N67" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O67" s="59">
         <v>0</v>
@@ -12360,60 +12307,60 @@
         <v>700</v>
       </c>
       <c r="S67" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T67" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U67" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V67" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D68" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G68" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H68" s="59">
         <v>3000</v>
       </c>
       <c r="I68" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K68" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L68" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M68" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N68" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J68" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L68" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M68" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N68" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O68" s="59">
         <v>0</v>
@@ -12428,60 +12375,60 @@
         <v>600</v>
       </c>
       <c r="S68" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T68" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U68" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V68" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D69" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G69" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H69" s="59">
         <v>3000</v>
       </c>
       <c r="I69" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J69" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K69" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L69" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M69" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N69" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J69" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K69" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L69" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M69" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N69" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O69" s="59">
         <v>0</v>
@@ -12496,60 +12443,60 @@
         <v>600</v>
       </c>
       <c r="S69" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T69" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U69" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V69" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D70" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F70" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G70" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H70" s="59">
         <v>3000</v>
       </c>
       <c r="I70" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J70" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K70" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L70" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M70" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N70" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J70" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K70" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L70" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M70" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N70" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O70" s="59">
         <v>0</v>
@@ -12564,60 +12511,60 @@
         <v>600</v>
       </c>
       <c r="S70" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T70" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U70" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V70" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E71" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H71" s="59">
         <v>3000</v>
       </c>
       <c r="I71" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J71" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K71" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L71" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M71" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N71" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J71" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K71" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L71" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M71" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N71" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O71" s="59">
         <v>0</v>
@@ -12632,60 +12579,60 @@
         <v>700</v>
       </c>
       <c r="S71" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T71" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U71" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V71" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E72" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F72" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H72" s="59">
         <v>3000</v>
       </c>
       <c r="I72" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J72" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K72" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L72" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M72" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N72" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J72" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K72" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L72" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M72" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N72" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O72" s="59">
         <v>0</v>
@@ -12700,60 +12647,60 @@
         <v>600</v>
       </c>
       <c r="S72" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T72" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U72" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V72" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D73" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E73" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G73" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H73" s="59">
         <v>3000</v>
       </c>
       <c r="I73" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J73" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K73" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L73" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M73" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N73" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J73" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K73" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L73" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M73" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N73" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O73" s="59">
         <v>0</v>
@@ -12768,60 +12715,60 @@
         <v>700</v>
       </c>
       <c r="S73" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T73" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U73" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V73" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E74" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F74" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G74" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H74" s="59">
         <v>3000</v>
       </c>
       <c r="I74" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L74" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M74" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N74" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J74" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K74" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L74" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M74" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N74" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O74" s="59">
         <v>0</v>
@@ -12836,60 +12783,60 @@
         <v>800</v>
       </c>
       <c r="S74" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T74" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U74" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V74" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E75" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G75" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H75" s="59">
         <v>3000</v>
       </c>
       <c r="I75" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K75" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L75" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M75" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N75" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J75" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L75" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M75" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N75" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O75" s="59">
         <v>0</v>
@@ -12904,60 +12851,60 @@
         <v>600</v>
       </c>
       <c r="S75" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T75" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V75" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E76" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G76" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H76" s="59">
         <v>3000</v>
       </c>
       <c r="I76" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J76" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K76" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L76" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M76" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N76" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J76" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K76" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L76" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M76" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N76" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O76" s="59">
         <v>0</v>
@@ -12972,60 +12919,60 @@
         <v>600</v>
       </c>
       <c r="S76" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T76" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U76" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V76" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D77" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E77" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F77" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G77" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H77" s="59">
         <v>3000</v>
       </c>
       <c r="I77" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J77" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K77" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L77" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M77" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N77" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J77" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K77" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L77" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M77" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N77" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O77" s="59">
         <v>0</v>
@@ -13040,60 +12987,60 @@
         <v>600</v>
       </c>
       <c r="S77" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T77" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U77" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V77" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E78" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G78" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H78" s="59">
         <v>3000</v>
       </c>
       <c r="I78" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J78" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K78" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L78" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M78" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N78" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J78" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K78" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L78" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M78" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N78" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O78" s="59">
         <v>0</v>
@@ -13108,60 +13055,60 @@
         <v>600</v>
       </c>
       <c r="S78" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T78" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U78" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V78" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D79" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E79" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F79" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G79" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H79" s="59">
         <v>3000</v>
       </c>
       <c r="I79" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J79" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K79" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L79" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M79" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N79" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J79" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K79" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L79" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M79" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N79" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O79" s="59">
         <v>0</v>
@@ -13176,60 +13123,60 @@
         <v>600</v>
       </c>
       <c r="S79" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T79" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U79" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V79" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D80" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F80" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E80" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F80" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G80" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H80" s="59">
         <v>3000</v>
       </c>
       <c r="I80" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J80" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K80" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L80" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M80" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N80" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J80" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K80" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L80" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M80" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N80" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O80" s="59">
         <v>0</v>
@@ -13244,60 +13191,60 @@
         <v>600</v>
       </c>
       <c r="S80" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T80" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U80" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V80" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D81" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F81" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E81" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F81" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G81" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H81" s="59">
         <v>3000</v>
       </c>
       <c r="I81" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J81" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K81" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L81" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M81" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N81" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J81" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K81" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L81" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M81" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N81" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O81" s="59">
         <v>0</v>
@@ -13312,60 +13259,60 @@
         <v>600</v>
       </c>
       <c r="S81" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T81" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U81" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V81" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D82" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E82" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G82" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H82" s="59">
         <v>3000</v>
       </c>
       <c r="I82" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J82" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K82" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L82" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M82" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N82" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J82" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K82" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L82" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M82" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N82" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O82" s="59">
         <v>0</v>
@@ -13380,60 +13327,60 @@
         <v>600</v>
       </c>
       <c r="S82" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T82" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U82" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V82" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E83" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F83" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G83" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H83" s="59">
         <v>3000</v>
       </c>
       <c r="I83" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J83" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K83" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L83" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M83" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N83" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J83" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K83" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L83" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M83" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N83" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O83" s="59">
         <v>0</v>
@@ -13448,60 +13395,60 @@
         <v>600</v>
       </c>
       <c r="S83" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T83" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U83" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V83" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D84" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E84" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F84" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G84" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H84" s="59">
         <v>3000</v>
       </c>
       <c r="I84" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K84" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L84" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M84" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N84" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J84" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K84" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L84" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M84" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N84" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O84" s="59">
         <v>0</v>
@@ -13516,60 +13463,60 @@
         <v>600</v>
       </c>
       <c r="S84" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T84" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U84" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V84" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D85" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F85" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E85" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F85" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G85" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H85" s="59">
         <v>3000</v>
       </c>
       <c r="I85" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K85" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L85" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M85" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N85" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J85" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K85" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L85" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M85" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N85" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O85" s="59">
         <v>0</v>
@@ -13584,60 +13531,60 @@
         <v>700</v>
       </c>
       <c r="S85" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T85" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U85" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V85" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D86" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F86" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E86" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F86" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G86" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H86" s="59">
         <v>3000</v>
       </c>
       <c r="I86" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J86" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K86" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L86" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M86" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N86" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J86" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K86" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L86" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M86" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N86" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O86" s="59">
         <v>0</v>
@@ -13652,60 +13599,60 @@
         <v>800</v>
       </c>
       <c r="S86" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T86" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U86" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V86" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D87" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F87" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E87" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F87" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G87" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H87" s="59">
         <v>3000</v>
       </c>
       <c r="I87" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J87" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K87" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L87" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M87" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N87" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J87" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K87" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L87" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M87" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N87" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O87" s="59">
         <v>0</v>
@@ -13720,60 +13667,60 @@
         <v>800</v>
       </c>
       <c r="S87" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T87" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U87" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V87" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D88" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F88" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E88" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F88" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G88" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H88" s="59">
         <v>3000</v>
       </c>
       <c r="I88" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J88" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K88" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L88" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M88" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N88" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J88" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K88" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L88" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M88" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N88" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O88" s="59">
         <v>0</v>
@@ -13788,60 +13735,60 @@
         <v>600</v>
       </c>
       <c r="S88" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T88" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U88" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V88" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D89" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E89" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F89" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E89" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F89" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G89" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H89" s="59">
         <v>3000</v>
       </c>
       <c r="I89" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J89" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K89" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L89" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M89" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N89" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J89" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K89" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L89" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M89" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N89" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O89" s="59">
         <v>0</v>
@@ -13856,60 +13803,60 @@
         <v>600</v>
       </c>
       <c r="S89" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T89" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U89" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V89" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B90" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D90" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F90" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E90" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G90" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H90" s="59">
         <v>3000</v>
       </c>
       <c r="I90" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J90" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K90" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L90" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M90" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N90" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J90" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K90" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L90" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M90" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N90" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O90" s="59">
         <v>0</v>
@@ -13924,60 +13871,60 @@
         <v>600</v>
       </c>
       <c r="S90" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T90" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U90" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V90" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D91" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E91" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F91" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E91" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F91" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G91" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H91" s="59">
         <v>3000</v>
       </c>
       <c r="I91" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J91" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K91" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L91" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M91" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N91" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J91" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K91" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L91" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M91" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N91" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O91" s="59">
         <v>0</v>
@@ -13992,60 +13939,60 @@
         <v>600</v>
       </c>
       <c r="S91" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T91" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U91" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V91" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D92" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E92" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F92" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G92" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H92" s="59">
         <v>3000</v>
       </c>
       <c r="I92" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J92" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K92" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L92" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M92" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N92" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J92" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K92" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L92" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M92" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N92" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O92" s="59">
         <v>0</v>
@@ -14060,60 +14007,60 @@
         <v>600</v>
       </c>
       <c r="S92" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T92" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U92" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V92" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D93" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E93" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F93" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G93" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H93" s="59">
         <v>3000</v>
       </c>
       <c r="I93" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J93" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K93" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L93" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M93" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N93" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J93" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K93" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L93" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M93" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N93" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O93" s="59">
         <v>0</v>
@@ -14128,60 +14075,60 @@
         <v>600</v>
       </c>
       <c r="S93" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T93" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U93" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V93" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D94" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F94" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E94" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F94" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G94" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H94" s="59">
         <v>3000</v>
       </c>
       <c r="I94" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J94" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K94" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L94" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M94" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N94" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J94" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K94" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L94" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M94" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N94" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O94" s="59">
         <v>0</v>
@@ -14196,60 +14143,60 @@
         <v>600</v>
       </c>
       <c r="S94" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T94" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U94" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V94" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E95" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F95" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G95" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E95" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F95" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G95" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H95" s="59">
         <v>3000</v>
       </c>
       <c r="I95" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J95" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K95" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L95" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M95" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N95" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J95" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K95" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L95" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M95" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N95" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O95" s="59">
         <v>0</v>
@@ -14264,60 +14211,60 @@
         <v>600</v>
       </c>
       <c r="S95" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T95" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U95" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V95" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D96" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E96" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E96" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F96" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G96" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H96" s="59">
         <v>3000</v>
       </c>
       <c r="I96" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J96" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K96" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L96" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M96" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N96" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J96" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K96" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L96" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M96" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N96" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O96" s="59">
         <v>0</v>
@@ -14332,60 +14279,60 @@
         <v>600</v>
       </c>
       <c r="S96" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T96" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U96" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V96" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D97" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E97" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F97" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G97" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H97" s="59">
         <v>3000</v>
       </c>
       <c r="I97" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J97" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K97" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L97" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M97" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N97" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J97" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K97" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L97" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M97" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N97" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O97" s="59">
         <v>0</v>
@@ -14400,60 +14347,60 @@
         <v>700</v>
       </c>
       <c r="S97" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T97" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U97" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V97" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B98" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D98" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F98" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G98" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E98" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F98" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G98" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H98" s="59">
         <v>3000</v>
       </c>
       <c r="I98" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J98" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K98" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L98" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M98" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N98" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J98" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K98" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L98" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M98" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N98" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O98" s="59">
         <v>0</v>
@@ -14468,60 +14415,60 @@
         <v>800</v>
       </c>
       <c r="S98" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T98" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U98" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V98" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B99" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D99" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F99" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G99" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E99" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F99" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G99" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H99" s="59">
         <v>3000</v>
       </c>
       <c r="I99" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K99" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L99" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M99" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N99" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J99" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K99" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L99" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M99" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N99" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O99" s="59">
         <v>0</v>
@@ -14536,60 +14483,60 @@
         <v>800</v>
       </c>
       <c r="S99" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T99" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U99" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V99" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B100" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D100" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F100" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G100" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E100" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F100" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G100" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H100" s="59">
         <v>3000</v>
       </c>
       <c r="I100" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J100" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K100" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L100" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M100" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N100" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J100" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K100" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L100" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M100" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N100" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O100" s="59">
         <v>0</v>
@@ -14604,60 +14551,60 @@
         <v>600</v>
       </c>
       <c r="S100" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T100" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U100" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V100" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B101" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D101" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E101" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G101" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F101" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G101" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H101" s="59">
         <v>3000</v>
       </c>
       <c r="I101" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J101" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K101" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L101" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M101" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N101" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J101" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K101" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L101" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M101" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N101" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O101" s="59">
         <v>0</v>
@@ -14672,60 +14619,60 @@
         <v>600</v>
       </c>
       <c r="S101" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T101" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U101" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V101" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B102" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D102" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G102" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="E102" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F102" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="G102" s="56" t="s">
-        <v>244</v>
       </c>
       <c r="H102" s="59">
         <v>3000</v>
       </c>
       <c r="I102" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="J102" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K102" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L102" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="M102" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="N102" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="J102" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="K102" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L102" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="M102" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="N102" s="56" t="s">
-        <v>248</v>
       </c>
       <c r="O102" s="59">
         <v>0</v>
@@ -14740,79 +14687,76 @@
         <v>600</v>
       </c>
       <c r="S102" s="56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T102" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U102" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V102" s="58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="B105" s="61" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="54.85">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="36.549999999999997">
       <c r="A106" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="F106" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C106" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="55" t="s">
+      <c r="G106" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="E106" s="55" t="s">
+      <c r="H106" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="F106" s="55" t="s">
+      <c r="I106" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="G106" s="55" t="s">
+      <c r="J106" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="H106" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="I106" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="J106" s="55" t="s">
-        <v>258</v>
-      </c>
       <c r="K106" s="55" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="L106" s="55" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M106" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="N106" s="55" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="53" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B107" s="56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C107" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E107" s="59">
         <v>190000</v>
@@ -14832,31 +14776,28 @@
       <c r="J107" s="60">
         <v>18</v>
       </c>
-      <c r="K107" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L107" s="59">
+      <c r="K107" s="59">
         <v>1</v>
       </c>
+      <c r="L107" s="56" t="s">
+        <v>259</v>
+      </c>
       <c r="M107" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="N107" s="56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="53" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B108" s="56" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E108" s="59">
         <v>200000</v>
@@ -14876,31 +14817,28 @@
       <c r="J108" s="60">
         <v>18</v>
       </c>
-      <c r="K108" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L108" s="59">
+      <c r="K108" s="59">
         <v>1</v>
       </c>
+      <c r="L108" s="56" t="s">
+        <v>259</v>
+      </c>
       <c r="M108" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="N108" s="56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="53" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B109" s="56" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="C109" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E109" s="59">
         <v>220000</v>
@@ -14920,31 +14858,28 @@
       <c r="J109" s="60">
         <v>18</v>
       </c>
-      <c r="K109" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L109" s="59">
+      <c r="K109" s="59">
         <v>1</v>
       </c>
+      <c r="L109" s="56" t="s">
+        <v>259</v>
+      </c>
       <c r="M109" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="N109" s="56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="53" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B110" s="56" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="C110" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D110" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E110" s="59">
         <v>142000</v>
@@ -14964,62 +14899,59 @@
       <c r="J110" s="60">
         <v>18</v>
       </c>
-      <c r="K110" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L110" s="59">
+      <c r="K110" s="59">
         <v>1</v>
       </c>
+      <c r="L110" s="56" t="s">
+        <v>259</v>
+      </c>
       <c r="M110" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="N110" s="56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:32">
       <c r="B113" s="53" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="36.549999999999997">
       <c r="A114" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G114" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="H114" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="53" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B115" s="59">
         <v>1</v>
       </c>
       <c r="C115" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D115" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E115" s="60">
         <v>9.08</v>
@@ -15028,64 +14960,58 @@
         <v>0</v>
       </c>
       <c r="G115" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H115" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:32">
       <c r="B118" s="53" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="91.4">
       <c r="A119" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="F119" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C119" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D119" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="E119" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="F119" s="55" t="s">
-        <v>269</v>
-      </c>
       <c r="G119" s="55" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H119" s="55" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="I119" s="55" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="J119" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="K119" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="L119" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="53" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B120" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="C120" s="56" t="s">
-        <v>163</v>
       </c>
       <c r="D120" s="60">
         <v>9.1999999999999993</v>
@@ -15094,132 +15020,126 @@
         <v>9.15</v>
       </c>
       <c r="F120" s="60">
-        <v>9.0500000000000007</v>
+        <v>9.08</v>
       </c>
       <c r="G120" s="60">
-        <v>9.08</v>
-      </c>
-      <c r="H120" s="60">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="I120" s="60">
         <v>9.0050000000000008</v>
       </c>
-      <c r="J120" s="59">
+      <c r="H120" s="59">
         <v>0</v>
       </c>
-      <c r="K120" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="L120" s="56" t="s">
-        <v>163</v>
+      <c r="I120" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J120" s="56" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="53" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B123" s="61"/>
       <c r="E123" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F123" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="F123" s="62" t="s">
+      <c r="G123" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="G123" s="62" t="s">
+      <c r="H123" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="H123" s="62" t="s">
+      <c r="I123" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="I123" s="62" t="s">
+      <c r="J123" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="J123" s="62" t="s">
+      <c r="K123" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="K123" s="62" t="s">
+      <c r="L123" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="L123" s="62" t="s">
+      <c r="M123" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="M123" s="62" t="s">
+      <c r="N123" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="N123" s="62" t="s">
+      <c r="O123" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="O123" s="62" t="s">
+      <c r="P123" s="62" t="s">
         <v>193</v>
-      </c>
-      <c r="P123" s="62" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:32" ht="36.549999999999997">
       <c r="A124" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B124" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C124" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" s="55" t="s">
+      <c r="E124" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E124" s="63" t="s">
+      <c r="F124" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="F124" s="63" t="s">
+      <c r="G124" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="G124" s="63" t="s">
+      <c r="H124" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="H124" s="63" t="s">
+      <c r="I124" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="I124" s="63" t="s">
+      <c r="J124" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="J124" s="63" t="s">
+      <c r="K124" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="K124" s="63" t="s">
+      <c r="L124" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="L124" s="63" t="s">
+      <c r="M124" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="M124" s="63" t="s">
+      <c r="N124" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="N124" s="63" t="s">
+      <c r="O124" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="O124" s="63" t="s">
+      <c r="P124" s="63" t="s">
         <v>160</v>
-      </c>
-      <c r="P124" s="63" t="s">
-        <v>161</v>
       </c>
       <c r="AF124" s="72"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="53" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B125" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="C125" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D125" s="56" t="s">
-        <v>163</v>
       </c>
       <c r="E125" s="59">
         <v>1000</v>
@@ -15261,16 +15181,16 @@
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="53" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B126" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C126" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D126" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E126" s="59">
         <v>1000</v>
@@ -15312,16 +15232,16 @@
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="53" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B127" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C127" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D127" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E127" s="59">
         <v>1000</v>
@@ -15363,94 +15283,94 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="53" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B131" s="61"/>
       <c r="E131" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F131" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="F131" s="62" t="s">
+      <c r="G131" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="G131" s="62" t="s">
+      <c r="H131" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="H131" s="62" t="s">
+      <c r="I131" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="I131" s="62" t="s">
+      <c r="J131" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="J131" s="62" t="s">
+      <c r="K131" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="K131" s="62" t="s">
+      <c r="L131" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="L131" s="62" t="s">
+      <c r="M131" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="M131" s="62" t="s">
+      <c r="N131" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="N131" s="62" t="s">
+      <c r="O131" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="O131" s="62" t="s">
+      <c r="P131" s="62" t="s">
         <v>193</v>
-      </c>
-      <c r="P131" s="62" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:19" ht="36.549999999999997">
       <c r="A132" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B132" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C132" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>149</v>
-      </c>
       <c r="E132" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="F132" s="55" t="s">
+      <c r="G132" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="G132" s="55" t="s">
+      <c r="H132" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="H132" s="55" t="s">
+      <c r="I132" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="I132" s="55" t="s">
+      <c r="J132" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="J132" s="55" t="s">
+      <c r="K132" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="K132" s="55" t="s">
+      <c r="L132" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="L132" s="55" t="s">
+      <c r="M132" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="M132" s="55" t="s">
+      <c r="N132" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="N132" s="55" t="s">
+      <c r="O132" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="O132" s="64" t="s">
+      <c r="P132" s="65" t="s">
         <v>180</v>
-      </c>
-      <c r="P132" s="65" t="s">
-        <v>181</v>
       </c>
       <c r="Q132" s="66"/>
       <c r="R132" s="66"/>
@@ -15458,16 +15378,16 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="53" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B133" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="C133" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D133" s="56" t="s">
-        <v>163</v>
       </c>
       <c r="E133" s="59">
         <v>1000</v>
@@ -15511,16 +15431,16 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="53" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B134" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C134" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D134" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E134" s="59">
         <v>1000</v>
@@ -15564,16 +15484,16 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="53" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B135" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C135" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D135" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E135" s="59">
         <v>1000</v>
